--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Fe" sheetId="1" state="visible" r:id="rId2"/>
@@ -1456,9 +1456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1467,8 +1467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3357720" y="10725120"/>
-          <a:ext cx="6648480" cy="2258280"/>
+          <a:off x="3358440" y="10725480"/>
+          <a:ext cx="6648840" cy="2257560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,7 +1490,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1716,15 +1716,15 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
       <selection pane="bottomRight" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -1732,8 +1732,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="35.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="41.84"/>
@@ -3905,70 +3905,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3984,7 +3984,7 @@
   </sheetPr>
   <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -3992,7 +3992,7 @@
       <selection pane="bottomRight" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -5205,70 +5205,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5285,7 +5285,7 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
@@ -5293,7 +5293,7 @@
       <selection pane="bottomRight" activeCell="L53" activeCellId="0" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -7574,70 +7574,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7653,11 +7653,11 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -7759,7 +7759,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fe" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Ce" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Lanthanides" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Version history" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="V+Sr" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Version history" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -130,8 +131,44 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="234">
   <si>
     <t xml:space="preserve">Double wheel</t>
   </si>
@@ -749,6 +786,57 @@
   </si>
   <si>
     <t xml:space="preserve">Nd(OH)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-200  -30  -10 25 13k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 2 0.3 0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VanadylSulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOSO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SrSulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SrSO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SrMolybdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SrMoO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SrHydroxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr(OH)2.8H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SrTitanate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SrTiO3</t>
   </si>
   <si>
     <t xml:space="preserve">Current</t>
@@ -1456,9 +1544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>92520</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1467,8 +1555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3358440" y="10725480"/>
-          <a:ext cx="6648840" cy="2257560"/>
+          <a:off x="3358800" y="10725120"/>
+          <a:ext cx="6649200" cy="2257560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,7 +1578,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1716,15 +1804,15 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E46" activeCellId="0" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="E46" activeCellId="1" sqref="H19:H22 E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -3905,70 +3993,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3985,14 +4073,14 @@
   <dimension ref="B1:AD30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="P25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M19" activeCellId="0" sqref="M19"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="1" sqref="H19:H22 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -5205,70 +5293,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5290,10 +5378,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L53" activeCellId="0" sqref="L53"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="1" sqref="H19:H22 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -7574,70 +7662,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7651,13 +7739,1301 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AD30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="19.7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="44" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="45" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="45" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="45" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="45" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="46" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="29"/>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="P7" s="55"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="60"/>
+    </row>
+    <row r="8" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="55"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="60"/>
+    </row>
+    <row r="9" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" s="55"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="60"/>
+    </row>
+    <row r="10" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" s="55"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="60"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="55"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="48" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="55"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="60"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="55"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="60"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="48" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="55"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="60"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="48" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="55"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="60"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="55"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="60"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="48" t="n">
+        <v>23</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="55"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="60"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="48" t="n">
+        <v>24</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="55"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="60"/>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="55"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="60"/>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" s="54"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="55"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="60"/>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="55"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="60"/>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="48" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="53"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" s="54"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="55"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="60"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="55"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="60"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="48" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="55"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="60"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="55"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="60"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="48" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="55"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="60"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="48" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="55"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="60"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="55"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="60"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="48" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="55"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="60"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="48" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="55"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:Z1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+  </mergeCells>
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A7:A30" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B30" type="list">
+      <formula1>"Outer,Inner,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T30" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H19:H22 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -7665,12 +9041,12 @@
   <sheetData>
     <row r="1" s="64" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B2" s="64"/>
     </row>
@@ -7686,10 +9062,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7697,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,7 +9081,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,7 +9089,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7721,7 +9097,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,7 +9105,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,7 +9113,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7745,7 +9121,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7753,13 +9129,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fe" sheetId="1" state="visible" r:id="rId2"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="242">
   <si>
     <t xml:space="preserve">Double wheel</t>
   </si>
@@ -794,19 +794,31 @@
     <t xml:space="preserve">VO2</t>
   </si>
   <si>
-    <t xml:space="preserve">10 2 0.3 0.05</t>
+    <t xml:space="preserve">Thermo Scientific; Vanadium (IV) oxide (99%); 022957.09; Lot T12H043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 2 0.3 0.05k</t>
   </si>
   <si>
     <t xml:space="preserve">V2O3</t>
   </si>
   <si>
+    <t xml:space="preserve">Sigma Aldrich; Vanadium (III) oxide; 463744-5G; Lot 0000089530</t>
+  </si>
+  <si>
     <t xml:space="preserve">V2O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfa Aesar; Vanadium (V) oxide (99.2%); 11093; Lot H03Q11</t>
   </si>
   <si>
     <t xml:space="preserve">VanadylSulfate</t>
   </si>
   <si>
     <t xml:space="preserve">VOSO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma Aldrich; Vanadium (IV) oxide sulfate hydrate (97%); 233706</t>
   </si>
   <si>
     <t xml:space="preserve">SrSulfate</t>
@@ -818,16 +830,25 @@
     <t xml:space="preserve">SrSO4</t>
   </si>
   <si>
+    <t xml:space="preserve">Celestine; Yate; UK</t>
+  </si>
+  <si>
     <t xml:space="preserve">SrMolybdate</t>
   </si>
   <si>
     <t xml:space="preserve">SrMoO4</t>
   </si>
   <si>
+    <t xml:space="preserve">Synthetic (Martin Stennett, University of Sheffield)</t>
+  </si>
+  <si>
     <t xml:space="preserve">SrHydroxide</t>
   </si>
   <si>
     <t xml:space="preserve">Sr(OH)2.8H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma Aldrich; 95%; 415219; Lot STBG0528V</t>
   </si>
   <si>
     <t xml:space="preserve">SrTitanate</t>
@@ -1250,7 +1271,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1519,23 +1540,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1543,15 +1548,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1559,24 +1556,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1674,9 +1655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>92520</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1685,8 +1666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3358800" y="10725120"/>
-          <a:ext cx="6649200" cy="2257560"/>
+          <a:off x="3361320" y="10725120"/>
+          <a:ext cx="6650640" cy="2256480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1924,6 +1905,43 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1115280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>94320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10722600"/>
+          <a:ext cx="3155400" cy="3272400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1933,24 +1951,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>92520</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3358800" y="10725120"/>
-          <a:ext cx="6649200" cy="2257560"/>
+          <a:off x="3361320" y="6945120"/>
+          <a:ext cx="6650640" cy="2256480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2188,6 +2206,43 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1159200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6864480"/>
+          <a:ext cx="3199320" cy="1830960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2202,19 +2257,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1731960</xdr:colOff>
+      <xdr:colOff>1730880</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3391560" y="13656600"/>
-          <a:ext cx="6649200" cy="2257560"/>
+          <a:off x="3394080" y="13656600"/>
+          <a:ext cx="6650640" cy="2256480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2452,6 +2507,85 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158040</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1149840</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="158040" y="13629240"/>
+          <a:ext cx="3031920" cy="3115080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324720</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7975800"/>
+          <a:ext cx="3591000" cy="2255040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2463,14 +2597,14 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="N25" activeCellId="0" sqref="B6:AD54"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -2481,7 +2615,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="40.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
@@ -4743,10 +4877,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A31" activeCellId="1" sqref="B6:AD54 A31"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -34557,10 +34691,6 @@
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
-      <formula1>-150</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30 AW6:AZ30 CB6:CE30 DG6:DJ30 EL6:EO30 FQ6:FT30 GV6:GY30 IA6:ID30 JF6:JI30 KK6:KN30 LP6:LS30 MU6:MX30 NZ6:OC30 PE6:PH30 QJ6:QM30 RO6:RR30 ST6:SW30 TY6:UB30 VD6:VG30 WI6:WL30 XN6:XQ30 YS6:YV30 ZX6:AAA30 ABC6:ABF30 ACH6:ACK30 ADM6:ADP30 AER6:AEU30 AFW6:AFZ30 AHB6:AHE30 AIG6:AIJ30 AJL6:AJO30 AKQ6:AKT30 ALV6:ALY30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
@@ -34568,6 +34698,10 @@
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34589,15 +34723,15 @@
   </sheetPr>
   <dimension ref="B1:AF54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6:AD54"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -36964,15 +37098,15 @@
   </sheetPr>
   <dimension ref="B1:AE30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O7" activeCellId="0" sqref="B6:AD54"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="N23" activeCellId="0" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
@@ -37130,88 +37264,87 @@
       <c r="C5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="75" t="s">
+      <c r="N5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="76" t="s">
+      <c r="P5" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="75" t="s">
+      <c r="Q5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="77" t="s">
+      <c r="R5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="78" t="s">
+      <c r="S5" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="79" t="s">
+      <c r="U5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="67" t="s">
+      <c r="V5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="69" t="s">
+      <c r="W5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="69" t="s">
+      <c r="X5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="69" t="s">
+      <c r="Y5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="69" t="s">
+      <c r="Z5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="73" t="s">
+      <c r="AA5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="71" t="s">
+      <c r="AB5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="80" t="s">
+      <c r="AC5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AD5" s="80" t="s">
+      <c r="AD5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AE5" s="81"/>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="30" t="s">
@@ -37293,9 +37426,9 @@
       <c r="AB6" s="47"/>
       <c r="AC6" s="42"/>
       <c r="AD6" s="42"/>
-      <c r="AE6" s="82"/>
+      <c r="AE6" s="72"/>
     </row>
-    <row r="7" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="48" t="n">
         <v>1</v>
       </c>
@@ -37311,7 +37444,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="73" t="s">
         <v>205</v>
       </c>
       <c r="J7" s="53"/>
@@ -37323,11 +37456,11 @@
         <v>129</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="O7" s="54"/>
       <c r="P7" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="55"/>
       <c r="T7" s="11"/>
@@ -37340,7 +37473,7 @@
       <c r="AA7" s="59"/>
       <c r="AB7" s="60"/>
     </row>
-    <row r="8" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="48" t="n">
         <v>2</v>
       </c>
@@ -37351,28 +37484,28 @@
         <v>5</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="73" t="s">
         <v>205</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="48"/>
       <c r="L8" s="51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M8" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N8" s="61" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="O8" s="54"/>
       <c r="P8" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="55"/>
       <c r="T8" s="11"/>
@@ -37396,28 +37529,28 @@
         <v>5</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="73" t="s">
         <v>205</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="48"/>
       <c r="L9" s="29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M9" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="O9" s="54"/>
       <c r="P9" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q9" s="55"/>
       <c r="T9" s="11"/>
@@ -37430,7 +37563,7 @@
       <c r="AA9" s="59"/>
       <c r="AB9" s="60"/>
     </row>
-    <row r="10" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="48" t="n">
         <v>4</v>
       </c>
@@ -37441,28 +37574,28 @@
         <v>5</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="73" t="s">
         <v>205</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="48"/>
       <c r="L10" s="54" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N10" s="61" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="O10" s="54"/>
       <c r="P10" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="55"/>
       <c r="T10" s="11"/>
@@ -37489,7 +37622,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="83"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="53"/>
       <c r="K11" s="48"/>
       <c r="L11" s="54"/>
@@ -37522,7 +37655,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="83"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="53"/>
       <c r="K12" s="48"/>
       <c r="L12" s="54"/>
@@ -37555,7 +37688,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="83"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="53"/>
       <c r="K13" s="48"/>
       <c r="L13" s="54"/>
@@ -37588,7 +37721,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="83"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="53"/>
       <c r="K14" s="48"/>
       <c r="L14" s="54"/>
@@ -37621,7 +37754,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="83"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="53"/>
       <c r="K15" s="48"/>
       <c r="L15" s="54"/>
@@ -37654,7 +37787,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="83"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="53"/>
       <c r="K16" s="48"/>
       <c r="L16" s="54"/>
@@ -37687,7 +37820,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="83"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="53"/>
       <c r="K17" s="48"/>
       <c r="L17" s="54"/>
@@ -37720,7 +37853,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="83"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="53"/>
       <c r="K18" s="48"/>
       <c r="L18" s="54"/>
@@ -37739,7 +37872,7 @@
       <c r="AA18" s="59"/>
       <c r="AB18" s="60"/>
     </row>
-    <row r="19" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="48" t="n">
         <v>1</v>
       </c>
@@ -37750,24 +37883,24 @@
         <v>5</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="83" t="s">
-        <v>214</v>
+      <c r="I19" s="73" t="s">
+        <v>218</v>
       </c>
       <c r="J19" s="53"/>
       <c r="K19" s="48"/>
       <c r="L19" s="51" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M19" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N19" s="61" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="29"/>
@@ -37782,7 +37915,7 @@
       <c r="AA19" s="59"/>
       <c r="AB19" s="60"/>
     </row>
-    <row r="20" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="48" t="n">
         <v>2</v>
       </c>
@@ -37793,24 +37926,24 @@
         <v>5</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="83" t="s">
-        <v>214</v>
+      <c r="I20" s="73" t="s">
+        <v>218</v>
       </c>
       <c r="J20" s="53"/>
       <c r="K20" s="48"/>
       <c r="L20" s="51" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M20" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N20" s="61" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="O20" s="54"/>
       <c r="P20" s="29"/>
@@ -37836,24 +37969,24 @@
         <v>5</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="83" t="s">
-        <v>214</v>
+      <c r="I21" s="73" t="s">
+        <v>218</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="48"/>
       <c r="L21" s="29" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M21" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="O21" s="54"/>
       <c r="P21" s="29"/>
@@ -37879,24 +38012,24 @@
         <v>3</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="83" t="s">
-        <v>214</v>
+      <c r="I22" s="73" t="s">
+        <v>218</v>
       </c>
       <c r="J22" s="53"/>
       <c r="K22" s="48"/>
       <c r="L22" s="29" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M22" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="O22" s="54"/>
       <c r="P22" s="29"/>
@@ -37911,7 +38044,7 @@
       <c r="AA22" s="59"/>
       <c r="AB22" s="60"/>
     </row>
-    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="n">
         <v>5</v>
       </c>
@@ -37925,7 +38058,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="83"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="53"/>
       <c r="K23" s="48"/>
       <c r="L23" s="29"/>
@@ -37958,7 +38091,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="83"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="53"/>
       <c r="K24" s="48"/>
       <c r="L24" s="29"/>
@@ -37991,7 +38124,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="83"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="53"/>
       <c r="K25" s="48"/>
       <c r="L25" s="29"/>
@@ -38024,7 +38157,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="83"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="53"/>
       <c r="K26" s="48"/>
       <c r="L26" s="29"/>
@@ -38057,7 +38190,7 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="83"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="53"/>
       <c r="K27" s="48"/>
       <c r="L27" s="29"/>
@@ -38090,7 +38223,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="83"/>
+      <c r="I28" s="73"/>
       <c r="J28" s="53"/>
       <c r="K28" s="48"/>
       <c r="L28" s="54"/>
@@ -38123,7 +38256,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="83"/>
+      <c r="I29" s="73"/>
       <c r="J29" s="53"/>
       <c r="K29" s="48"/>
       <c r="L29" s="54"/>
@@ -38156,7 +38289,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="83"/>
+      <c r="I30" s="73"/>
       <c r="J30" s="53"/>
       <c r="K30" s="48"/>
       <c r="L30" s="54"/>
@@ -38192,21 +38325,65 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="22">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2" type="list">
       <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6" type="list">
+      <formula1>"Outer,Inner,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
-      <formula1>1</formula1>
-      <formula2>24</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C30" type="list">
       <formula1>"Outer,Inner,"</formula1>
@@ -38219,14 +38396,6 @@
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
@@ -38244,42 +38413,6 @@
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6" type="list">
-      <formula1>"Outer,Inner,"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6" type="list">
-      <formula1>"K,L3,L2,L1"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6" type="list">
-      <formula1>"unfocused,focused"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U6" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -38288,7 +38421,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -38300,42 +38434,42 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="B6:AD54 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="84" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="74" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="84"/>
+        <v>230</v>
+      </c>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="84"/>
+      <c r="B3" s="74"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28"/>
-      <c r="B4" s="84"/>
+      <c r="B4" s="74"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>224</v>
+        <v>230</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38343,7 +38477,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38351,7 +38485,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38359,7 +38493,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38367,7 +38501,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38375,7 +38509,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38383,7 +38517,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38391,7 +38525,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38399,7 +38533,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38407,7 +38541,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38415,7 +38549,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Fe" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,8 +14,12 @@
     <sheet name="V_Sr" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Mn" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Cu+Zn" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Version history" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="all_references" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Version history" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -241,8 +245,100 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="431">
   <si>
     <t xml:space="preserve">Double wheel</t>
   </si>
@@ -967,6 +1063,9 @@
     <t xml:space="preserve">SrTiO3</t>
   </si>
   <si>
+    <t xml:space="preserve">Mn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manganosite</t>
   </si>
   <si>
@@ -991,7 +1090,7 @@
     <t xml:space="preserve">MnO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Managnese_Carbonate</t>
+    <t xml:space="preserve">Rhodocrosite</t>
   </si>
   <si>
     <t xml:space="preserve">MnCO3</t>
@@ -1033,6 +1132,12 @@
     <t xml:space="preserve">Babingtonite, CM14452; Lane's Quarry, Westfield, Hampden County, Massachusetts</t>
   </si>
   <si>
+    <t xml:space="preserve">-200 -30 -10 25 560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 2 2 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Axinite</t>
   </si>
   <si>
@@ -1042,15 +1147,30 @@
     <t xml:space="preserve">Axinite, CM17413; Luning, Mineral County, Nevada, USA</t>
   </si>
   <si>
+    <t xml:space="preserve">Mnfoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mn foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powder in PEG pellet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cufoil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cu</t>
   </si>
   <si>
-    <t xml:space="preserve">powder in PEG pellet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cufoil</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cu metal</t>
   </si>
   <si>
@@ -1081,12 +1201,12 @@
     <t xml:space="preserve">Znfoil</t>
   </si>
   <si>
+    <t xml:space="preserve">Zn metal</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZnO</t>
   </si>
   <si>
-    <t xml:space="preserve">Zn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hemimorphite</t>
   </si>
   <si>
@@ -1112,6 +1232,366 @@
   </si>
   <si>
     <t xml:space="preserve">Ca2ZnSi2O7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TitaniumFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard reference foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CesiumNitrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CsNO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BariumSomething</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VanadiumFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LanthanumHydroxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La(OH)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CeriumDioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PraseodymiumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pr6O11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChromiumFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NeodymiumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nd2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManganeseMetal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mn metal powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SamariumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sm2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EuropiumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IronFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GadoliniumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gd2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TerbiumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tb4O9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CobaltFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DysprosiumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HolmiumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NickelFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErbiumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThuliumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tm2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YtterbiumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CopperFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LutetiumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lu2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HafniumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HfO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZincFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zn foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TantalumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta2O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TungstenOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GalliumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ga2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RheniumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osmium something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GermaniumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iridium something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlatinumFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pt foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArsenicTrioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeleniumMetal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se metal powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeadFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pb foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BismuthOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BromophenolBlue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19H10Br4O5S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powder on Kapton tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample courtesy Alesandra Leri, Marymount Manhatten College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RubidiumCarbonate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RbCO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrontiumTitanate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YttriumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZirconiumFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zr foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niobiumfoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nb foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MolybdenumFoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RutheniumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuO2</t>
   </si>
   <si>
     <t xml:space="preserve">Current</t>
@@ -1162,7 +1642,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1242,12 +1722,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF2E3436"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2E3436"/>
       <name val="Noto Sans"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1257,7 +1744,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FFE0C2CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1287,11 +1774,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEDCE6"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1529,6 +2028,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1555,7 +2067,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="177">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2116,8 +2628,148 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2136,7 +2788,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -2153,12 +2805,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFE0C2CD"/>
+      <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2173,7 +2825,7 @@
       <rgbColor rgb="FFCCFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99FF"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -2207,9 +2859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>90720</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2218,8 +2870,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3363480" y="10725120"/>
-          <a:ext cx="6651360" cy="2255760"/>
+          <a:off x="3366360" y="10725120"/>
+          <a:ext cx="6653880" cy="2254680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,9 +3118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1114560</xdr:colOff>
+      <xdr:colOff>1113480</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2482,7 +3134,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10722600"/>
-          <a:ext cx="3156480" cy="3271680"/>
+          <a:ext cx="3158640" cy="3270600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2508,9 +3160,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2519,8 +3171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3341520" y="7834680"/>
-          <a:ext cx="6651360" cy="2255760"/>
+          <a:off x="3344400" y="7834680"/>
+          <a:ext cx="6653880" cy="2254680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2767,9 +3419,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1158480</xdr:colOff>
+      <xdr:colOff>1157400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2783,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7716240"/>
-          <a:ext cx="3200400" cy="1830240"/>
+          <a:ext cx="3202560" cy="1829160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2809,9 +3461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1730160</xdr:colOff>
+      <xdr:colOff>1729080</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2820,8 +3472,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3396240" y="13656600"/>
-          <a:ext cx="6651720" cy="2255760"/>
+          <a:off x="3399120" y="13656600"/>
+          <a:ext cx="6653880" cy="2254680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3068,9 +3720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1149120</xdr:colOff>
+      <xdr:colOff>1148040</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3084,7 +3736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158040" y="13629240"/>
-          <a:ext cx="3033000" cy="3114360"/>
+          <a:ext cx="3035160" cy="3113280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3110,9 +3762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3126,7 +3778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7947360"/>
-          <a:ext cx="3592800" cy="2254320"/>
+          <a:ext cx="3594960" cy="2253240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3147,14 +3799,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1321200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1867320</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:colOff>1866240</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3164,7 +3816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6650280" cy="2255760"/>
+          <a:ext cx="6649200" cy="2254680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3407,13 +4059,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1114560</xdr:colOff>
+      <xdr:colOff>1113480</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3426,8 +4078,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10666080"/>
-          <a:ext cx="3155400" cy="3271680"/>
+          <a:off x="0" y="10262880"/>
+          <a:ext cx="3154320" cy="3270600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3448,14 +4100,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1321200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1867320</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:colOff>1866240</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3465,7 +4117,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6650280" cy="2255760"/>
+          <a:ext cx="6649200" cy="2254680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3708,13 +4360,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1114560</xdr:colOff>
+      <xdr:colOff>1113480</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3727,8 +4379,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11172240"/>
-          <a:ext cx="3155400" cy="3271680"/>
+          <a:off x="0" y="10995120"/>
+          <a:ext cx="3154320" cy="3270600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3743,6 +4395,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -3750,7 +4408,7 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -3758,7 +4416,7 @@
       <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -6010,10 +6668,6 @@
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
-      <formula1>-150</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
@@ -6021,6 +6675,10 @@
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6042,7 +6700,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -6050,7 +6708,7 @@
       <selection pane="bottomRight" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -6070,7 +6728,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="0" width="28.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="0" width="37.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="0" width="37.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7376,7 +8034,7 @@
   </sheetPr>
   <dimension ref="B1:AF54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -7384,7 +8042,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -9751,7 +10409,7 @@
   </sheetPr>
   <dimension ref="B1:AE30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -9759,7 +10417,7 @@
       <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
@@ -11100,12 +11758,12 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M12" activeCellId="0" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11164,7 +11822,7 @@
       <c r="Z1" s="79"/>
       <c r="AA1" s="79"/>
     </row>
-    <row r="2" s="74" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="74" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="80" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
         <v>Version: 10</v>
@@ -11189,7 +11847,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N2" s="85" t="s">
         <v>8</v>
@@ -11270,7 +11928,7 @@
       <c r="AC4" s="94"/>
       <c r="AD4" s="94"/>
     </row>
-    <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="95" t="s">
         <v>17</v>
       </c>
@@ -11382,7 +12040,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="J6" s="112" t="s">
         <v>51</v>
@@ -11440,7 +12098,7 @@
       <c r="AC6" s="119"/>
       <c r="AD6" s="119"/>
     </row>
-    <row r="7" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="125" t="n">
         <v>1</v>
       </c>
@@ -11448,10 +12106,10 @@
         <v>46</v>
       </c>
       <c r="D7" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
@@ -11460,7 +12118,7 @@
       <c r="J7" s="130"/>
       <c r="K7" s="125"/>
       <c r="L7" s="131" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M7" s="128" t="s">
         <v>54</v>
@@ -11479,7 +12137,7 @@
       <c r="AA7" s="136"/>
       <c r="AB7" s="137"/>
     </row>
-    <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="125" t="n">
         <v>2</v>
       </c>
@@ -11487,10 +12145,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
@@ -11499,7 +12157,7 @@
       <c r="J8" s="130"/>
       <c r="K8" s="125"/>
       <c r="L8" s="131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M8" s="128" t="s">
         <v>54</v>
@@ -11518,7 +12176,7 @@
       <c r="AA8" s="136"/>
       <c r="AB8" s="137"/>
     </row>
-    <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="125" t="n">
         <v>3</v>
       </c>
@@ -11529,7 +12187,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="88"/>
@@ -11538,7 +12196,7 @@
       <c r="J9" s="130"/>
       <c r="K9" s="125"/>
       <c r="L9" s="131" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M9" s="128"/>
       <c r="N9" s="132"/>
@@ -11555,7 +12213,7 @@
       <c r="AA9" s="136"/>
       <c r="AB9" s="137"/>
     </row>
-    <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="125" t="n">
         <v>4</v>
       </c>
@@ -11563,10 +12221,10 @@
         <v>46</v>
       </c>
       <c r="D10" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
@@ -11575,7 +12233,7 @@
       <c r="J10" s="130"/>
       <c r="K10" s="125"/>
       <c r="L10" s="131" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M10" s="128" t="s">
         <v>54</v>
@@ -11594,7 +12252,7 @@
       <c r="AA10" s="136"/>
       <c r="AB10" s="137"/>
     </row>
-    <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="74" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="125" t="n">
         <v>5</v>
       </c>
@@ -11602,24 +12260,17 @@
         <v>46</v>
       </c>
       <c r="D11" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="74" t="s">
         <v>250</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>251</v>
       </c>
       <c r="M11" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="0"/>
       <c r="O11" s="131"/>
       <c r="P11" s="106"/>
       <c r="Q11" s="133"/>
@@ -11633,7 +12284,7 @@
       <c r="AA11" s="136"/>
       <c r="AB11" s="137"/>
     </row>
-    <row r="12" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="125" t="n">
         <v>6</v>
       </c>
@@ -11641,10 +12292,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="88"/>
@@ -11653,13 +12304,13 @@
       <c r="J12" s="130"/>
       <c r="K12" s="125"/>
       <c r="L12" s="131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M12" s="128" t="s">
         <v>77</v>
       </c>
       <c r="N12" s="132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O12" s="131"/>
       <c r="P12" s="106"/>
@@ -11674,7 +12325,7 @@
       <c r="AA12" s="136"/>
       <c r="AB12" s="137"/>
     </row>
-    <row r="13" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="125" t="n">
         <v>7</v>
       </c>
@@ -11682,10 +12333,10 @@
         <v>46</v>
       </c>
       <c r="D13" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="106" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="88"/>
@@ -11694,13 +12345,13 @@
       <c r="J13" s="130"/>
       <c r="K13" s="125"/>
       <c r="L13" s="131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M13" s="128" t="s">
         <v>77</v>
       </c>
       <c r="N13" s="132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O13" s="131"/>
       <c r="P13" s="106"/>
@@ -11715,7 +12366,7 @@
       <c r="AA13" s="136"/>
       <c r="AB13" s="137"/>
     </row>
-    <row r="14" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="125" t="n">
         <v>8</v>
       </c>
@@ -11723,10 +12374,10 @@
         <v>46</v>
       </c>
       <c r="D14" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F14" s="88"/>
       <c r="G14" s="88"/>
@@ -11735,13 +12386,13 @@
       <c r="J14" s="130"/>
       <c r="K14" s="125"/>
       <c r="L14" s="131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M14" s="128" t="s">
         <v>77</v>
       </c>
       <c r="N14" s="132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O14" s="131"/>
       <c r="P14" s="106"/>
@@ -11756,7 +12407,7 @@
       <c r="AA14" s="136"/>
       <c r="AB14" s="137"/>
     </row>
-    <row r="15" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="125" t="n">
         <v>9</v>
       </c>
@@ -11767,26 +12418,32 @@
         <v>5</v>
       </c>
       <c r="E15" s="138" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F15" s="88"/>
       <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
+      <c r="H15" s="88" t="s">
+        <v>133</v>
+      </c>
       <c r="I15" s="129"/>
       <c r="J15" s="130"/>
       <c r="K15" s="125"/>
       <c r="L15" s="131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M15" s="128" t="s">
         <v>77</v>
       </c>
       <c r="N15" s="132" t="s">
-        <v>262</v>
-      </c>
-      <c r="O15" s="131"/>
+        <v>263</v>
+      </c>
+      <c r="O15" s="131" t="s">
+        <v>264</v>
+      </c>
       <c r="P15" s="106"/>
-      <c r="Q15" s="133"/>
+      <c r="Q15" s="133" t="s">
+        <v>265</v>
+      </c>
       <c r="T15" s="87"/>
       <c r="U15" s="134"/>
       <c r="V15" s="127"/>
@@ -11797,7 +12454,7 @@
       <c r="AA15" s="136"/>
       <c r="AB15" s="137"/>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="125" t="n">
         <v>10</v>
       </c>
@@ -11805,10 +12462,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="106" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F16" s="88"/>
       <c r="G16" s="88"/>
@@ -11817,13 +12474,13 @@
       <c r="J16" s="130"/>
       <c r="K16" s="125"/>
       <c r="L16" s="131" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M16" s="128" t="s">
         <v>77</v>
       </c>
       <c r="N16" s="139" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O16" s="131"/>
       <c r="P16" s="106"/>
@@ -11838,26 +12495,36 @@
       <c r="AA16" s="136"/>
       <c r="AB16" s="137"/>
     </row>
-    <row r="17" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="125" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C17" s="126" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>269</v>
+      </c>
       <c r="F17" s="88"/>
       <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>225</v>
+      </c>
       <c r="I17" s="129"/>
       <c r="J17" s="130"/>
       <c r="K17" s="125"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="132"/>
+      <c r="L17" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="N17" s="132" t="s">
+        <v>272</v>
+      </c>
       <c r="O17" s="131"/>
       <c r="P17" s="106"/>
       <c r="Q17" s="133"/>
@@ -11871,7 +12538,7 @@
       <c r="AA17" s="136"/>
       <c r="AB17" s="137"/>
     </row>
-    <row r="18" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="125" t="n">
         <v>12</v>
       </c>
@@ -11879,7 +12546,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="106"/>
       <c r="F18" s="88"/>
@@ -11904,7 +12571,7 @@
       <c r="AA18" s="136"/>
       <c r="AB18" s="137"/>
     </row>
-    <row r="19" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="125" t="n">
         <v>13</v>
       </c>
@@ -11912,7 +12579,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="106"/>
       <c r="F19" s="88"/>
@@ -11937,7 +12604,7 @@
       <c r="AA19" s="136"/>
       <c r="AB19" s="137"/>
     </row>
-    <row r="20" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="125" t="n">
         <v>14</v>
       </c>
@@ -11945,7 +12612,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="88"/>
@@ -11970,7 +12637,7 @@
       <c r="AA20" s="136"/>
       <c r="AB20" s="137"/>
     </row>
-    <row r="21" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="125" t="n">
         <v>15</v>
       </c>
@@ -11978,7 +12645,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="106"/>
       <c r="F21" s="88"/>
@@ -12003,7 +12670,7 @@
       <c r="AA21" s="136"/>
       <c r="AB21" s="137"/>
     </row>
-    <row r="22" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="125" t="n">
         <v>16</v>
       </c>
@@ -12011,7 +12678,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="106"/>
       <c r="F22" s="88"/>
@@ -12035,7 +12702,7 @@
       <c r="AA22" s="136"/>
       <c r="AB22" s="137"/>
     </row>
-    <row r="23" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="125" t="n">
         <v>17</v>
       </c>
@@ -12043,7 +12710,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="106"/>
       <c r="F23" s="88"/>
@@ -12068,7 +12735,7 @@
       <c r="AA23" s="136"/>
       <c r="AB23" s="137"/>
     </row>
-    <row r="24" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="125" t="n">
         <v>18</v>
       </c>
@@ -12076,7 +12743,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="106"/>
       <c r="F24" s="88"/>
@@ -12101,7 +12768,7 @@
       <c r="AA24" s="136"/>
       <c r="AB24" s="137"/>
     </row>
-    <row r="25" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="125" t="n">
         <v>19</v>
       </c>
@@ -12134,7 +12801,7 @@
       <c r="AA25" s="136"/>
       <c r="AB25" s="137"/>
     </row>
-    <row r="26" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="125" t="n">
         <v>20</v>
       </c>
@@ -12167,7 +12834,7 @@
       <c r="AA26" s="136"/>
       <c r="AB26" s="137"/>
     </row>
-    <row r="27" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="125" t="n">
         <v>21</v>
       </c>
@@ -12200,7 +12867,7 @@
       <c r="AA27" s="136"/>
       <c r="AB27" s="137"/>
     </row>
-    <row r="28" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="125" t="n">
         <v>22</v>
       </c>
@@ -12233,7 +12900,7 @@
       <c r="AA28" s="136"/>
       <c r="AB28" s="137"/>
     </row>
-    <row r="29" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="125" t="n">
         <v>23</v>
       </c>
@@ -12266,7 +12933,7 @@
       <c r="AA29" s="136"/>
       <c r="AB29" s="137"/>
     </row>
-    <row r="30" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="125" t="n">
         <v>24</v>
       </c>
@@ -12299,7 +12966,7 @@
       <c r="AA30" s="136"/>
       <c r="AB30" s="137"/>
     </row>
-    <row r="31" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="125" t="n">
         <v>1</v>
       </c>
@@ -12332,7 +12999,7 @@
       <c r="AA31" s="136"/>
       <c r="AB31" s="137"/>
     </row>
-    <row r="32" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="125" t="n">
         <v>2</v>
       </c>
@@ -12340,7 +13007,7 @@
         <v>101</v>
       </c>
       <c r="D32" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="88"/>
@@ -12365,7 +13032,7 @@
       <c r="AA32" s="136"/>
       <c r="AB32" s="137"/>
     </row>
-    <row r="33" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="125" t="n">
         <v>3</v>
       </c>
@@ -12373,7 +13040,7 @@
         <v>101</v>
       </c>
       <c r="D33" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="106"/>
       <c r="F33" s="88"/>
@@ -12398,7 +13065,7 @@
       <c r="AA33" s="136"/>
       <c r="AB33" s="137"/>
     </row>
-    <row r="34" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="125" t="n">
         <v>4</v>
       </c>
@@ -12406,7 +13073,7 @@
         <v>101</v>
       </c>
       <c r="D34" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" s="106"/>
       <c r="F34" s="88"/>
@@ -12431,7 +13098,7 @@
       <c r="AA34" s="136"/>
       <c r="AB34" s="137"/>
     </row>
-    <row r="35" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="125" t="n">
         <v>5</v>
       </c>
@@ -12439,7 +13106,7 @@
         <v>101</v>
       </c>
       <c r="D35" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35" s="106"/>
       <c r="F35" s="88"/>
@@ -12464,7 +13131,7 @@
       <c r="AA35" s="136"/>
       <c r="AB35" s="137"/>
     </row>
-    <row r="36" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="125" t="n">
         <v>6</v>
       </c>
@@ -12472,7 +13139,7 @@
         <v>101</v>
       </c>
       <c r="D36" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="106"/>
       <c r="F36" s="88"/>
@@ -12497,7 +13164,7 @@
       <c r="AA36" s="136"/>
       <c r="AB36" s="137"/>
     </row>
-    <row r="37" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="125" t="n">
         <v>7</v>
       </c>
@@ -12505,7 +13172,7 @@
         <v>101</v>
       </c>
       <c r="D37" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" s="106"/>
       <c r="F37" s="88"/>
@@ -12530,7 +13197,7 @@
       <c r="AA37" s="136"/>
       <c r="AB37" s="137"/>
     </row>
-    <row r="38" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="125" t="n">
         <v>8</v>
       </c>
@@ -12538,7 +13205,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F38" s="88"/>
       <c r="G38" s="88"/>
@@ -12562,7 +13229,7 @@
       <c r="AA38" s="136"/>
       <c r="AB38" s="137"/>
     </row>
-    <row r="39" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="125" t="n">
         <v>9</v>
       </c>
@@ -12570,7 +13237,7 @@
         <v>101</v>
       </c>
       <c r="D39" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="106"/>
       <c r="F39" s="88"/>
@@ -12595,7 +13262,7 @@
       <c r="AA39" s="136"/>
       <c r="AB39" s="137"/>
     </row>
-    <row r="40" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="125" t="n">
         <v>10</v>
       </c>
@@ -12603,7 +13270,7 @@
         <v>101</v>
       </c>
       <c r="D40" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="106"/>
       <c r="F40" s="88"/>
@@ -12628,7 +13295,7 @@
       <c r="AA40" s="136"/>
       <c r="AB40" s="137"/>
     </row>
-    <row r="41" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="125" t="n">
         <v>11</v>
       </c>
@@ -12636,7 +13303,7 @@
         <v>101</v>
       </c>
       <c r="D41" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="106"/>
       <c r="F41" s="88"/>
@@ -12661,7 +13328,7 @@
       <c r="AA41" s="136"/>
       <c r="AB41" s="137"/>
     </row>
-    <row r="42" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="125" t="n">
         <v>12</v>
       </c>
@@ -12669,7 +13336,7 @@
         <v>101</v>
       </c>
       <c r="D42" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42" s="88"/>
       <c r="G42" s="88"/>
@@ -12693,7 +13360,7 @@
       <c r="AA42" s="136"/>
       <c r="AB42" s="137"/>
     </row>
-    <row r="43" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="125" t="n">
         <v>13</v>
       </c>
@@ -12701,7 +13368,7 @@
         <v>101</v>
       </c>
       <c r="D43" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="106"/>
       <c r="F43" s="88"/>
@@ -12726,7 +13393,7 @@
       <c r="AA43" s="136"/>
       <c r="AB43" s="137"/>
     </row>
-    <row r="44" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="125" t="n">
         <v>14</v>
       </c>
@@ -12734,7 +13401,7 @@
         <v>101</v>
       </c>
       <c r="D44" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" s="106"/>
       <c r="F44" s="88"/>
@@ -12759,7 +13426,7 @@
       <c r="AA44" s="136"/>
       <c r="AB44" s="137"/>
     </row>
-    <row r="45" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="125" t="n">
         <v>15</v>
       </c>
@@ -12767,7 +13434,7 @@
         <v>101</v>
       </c>
       <c r="D45" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" s="106"/>
       <c r="F45" s="88"/>
@@ -12792,7 +13459,7 @@
       <c r="AA45" s="136"/>
       <c r="AB45" s="137"/>
     </row>
-    <row r="46" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="125" t="n">
         <v>16</v>
       </c>
@@ -12825,7 +13492,7 @@
       <c r="AA46" s="136"/>
       <c r="AB46" s="137"/>
     </row>
-    <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="125" t="n">
         <v>17</v>
       </c>
@@ -12858,7 +13525,7 @@
       <c r="AA47" s="136"/>
       <c r="AB47" s="137"/>
     </row>
-    <row r="48" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="125" t="n">
         <v>18</v>
       </c>
@@ -12891,7 +13558,7 @@
       <c r="AA48" s="136"/>
       <c r="AB48" s="137"/>
     </row>
-    <row r="49" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="125" t="n">
         <v>19</v>
       </c>
@@ -12924,7 +13591,7 @@
       <c r="AA49" s="136"/>
       <c r="AB49" s="137"/>
     </row>
-    <row r="50" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="125" t="n">
         <v>20</v>
       </c>
@@ -12957,7 +13624,7 @@
       <c r="AA50" s="136"/>
       <c r="AB50" s="137"/>
     </row>
-    <row r="51" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="125" t="n">
         <v>21</v>
       </c>
@@ -12990,7 +13657,7 @@
       <c r="AA51" s="136"/>
       <c r="AB51" s="137"/>
     </row>
-    <row r="52" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="125" t="n">
         <v>22</v>
       </c>
@@ -13023,7 +13690,7 @@
       <c r="AA52" s="136"/>
       <c r="AB52" s="137"/>
     </row>
-    <row r="53" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="125" t="n">
         <v>23</v>
       </c>
@@ -13056,7 +13723,7 @@
       <c r="AA53" s="136"/>
       <c r="AB53" s="137"/>
     </row>
-    <row r="54" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="125" t="n">
         <v>24</v>
       </c>
@@ -13064,7 +13731,7 @@
         <v>101</v>
       </c>
       <c r="D54" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" s="106"/>
       <c r="F54" s="88"/>
@@ -13158,10 +13825,6 @@
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
-      <formula1>-150</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
@@ -13169,6 +13832,10 @@
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13190,12 +13857,12 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13472,7 +14139,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J6" s="112" t="s">
         <v>51</v>
@@ -13484,7 +14151,7 @@
         <v>53</v>
       </c>
       <c r="M6" s="115" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N6" s="116" t="s">
         <v>55</v>
@@ -13541,7 +14208,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="128" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
@@ -13549,18 +14216,18 @@
         <v>225</v>
       </c>
       <c r="I7" s="129" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="J7" s="130"/>
       <c r="K7" s="125"/>
       <c r="L7" s="131" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M7" s="128" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="N7" s="132" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O7" s="131"/>
       <c r="P7" s="106"/>
@@ -13586,18 +14253,18 @@
         <v>5</v>
       </c>
       <c r="E8" s="128" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
       <c r="H8" s="88"/>
       <c r="I8" s="129" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="J8" s="130"/>
       <c r="K8" s="125"/>
       <c r="L8" s="128" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M8" s="128"/>
       <c r="N8" s="61" t="s">
@@ -13624,21 +14291,21 @@
         <v>46</v>
       </c>
       <c r="D9" s="127" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="88"/>
       <c r="H9" s="88"/>
       <c r="I9" s="129" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="J9" s="130"/>
       <c r="K9" s="125"/>
       <c r="L9" s="106" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M9" s="128"/>
       <c r="N9" s="61" t="s">
@@ -13668,18 +14335,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="129" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="J10" s="130"/>
       <c r="K10" s="125"/>
       <c r="L10" s="106" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M10" s="128"/>
       <c r="N10" s="61" t="s">
@@ -13709,18 +14376,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="129" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M11" s="128" t="s">
         <v>54</v>
@@ -13747,7 +14414,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="88"/>
@@ -13780,7 +14447,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="106"/>
       <c r="F13" s="88"/>
@@ -13813,7 +14480,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="88"/>
@@ -13846,9 +14513,9 @@
         <v>46</v>
       </c>
       <c r="D15" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="138"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="140"/>
       <c r="F15" s="88"/>
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
@@ -13879,7 +14546,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="88"/>
@@ -13890,7 +14557,7 @@
       <c r="K16" s="125"/>
       <c r="L16" s="131"/>
       <c r="M16" s="128"/>
-      <c r="N16" s="139"/>
+      <c r="N16" s="141"/>
       <c r="O16" s="131"/>
       <c r="P16" s="106"/>
       <c r="Q16" s="133"/>
@@ -13904,7 +14571,7 @@
       <c r="AA16" s="136"/>
       <c r="AB16" s="137"/>
     </row>
-    <row r="17" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="125" t="n">
         <v>11</v>
       </c>
@@ -13912,7 +14579,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="106"/>
       <c r="F17" s="88"/>
@@ -13937,7 +14604,7 @@
       <c r="AA17" s="136"/>
       <c r="AB17" s="137"/>
     </row>
-    <row r="18" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="125" t="n">
         <v>12</v>
       </c>
@@ -13945,7 +14612,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="106"/>
       <c r="F18" s="88"/>
@@ -13981,24 +14648,26 @@
         <v>5</v>
       </c>
       <c r="E19" s="106" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F19" s="88"/>
       <c r="G19" s="88"/>
       <c r="H19" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="I19" s="129"/>
+      <c r="I19" s="129" t="s">
+        <v>273</v>
+      </c>
       <c r="J19" s="130"/>
       <c r="K19" s="125"/>
       <c r="L19" s="131" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="M19" s="128" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="N19" s="132" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O19" s="131"/>
       <c r="P19" s="106"/>
@@ -14024,18 +14693,18 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M20" s="0"/>
       <c r="N20" s="61" t="s">
@@ -14065,18 +14734,18 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
-      <c r="L21" s="140" t="s">
-        <v>282</v>
+      <c r="L21" s="142" t="s">
+        <v>290</v>
       </c>
       <c r="M21" s="0"/>
       <c r="N21" s="61" t="s">
@@ -14106,18 +14775,18 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
-      <c r="L22" s="140" t="s">
-        <v>284</v>
+      <c r="L22" s="142" t="s">
+        <v>292</v>
       </c>
       <c r="M22" s="0"/>
       <c r="N22" s="61" t="s">
@@ -14147,18 +14816,18 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M23" s="0"/>
       <c r="N23" s="61" t="s">
@@ -14188,18 +14857,20 @@
         <v>5</v>
       </c>
       <c r="E24" s="106" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F24" s="88"/>
       <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
+      <c r="H24" s="88" t="s">
+        <v>133</v>
+      </c>
       <c r="I24" s="129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J24" s="130"/>
       <c r="K24" s="125"/>
       <c r="L24" s="131" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M24" s="128"/>
       <c r="N24" s="61" t="s">
@@ -14207,7 +14878,9 @@
       </c>
       <c r="O24" s="131"/>
       <c r="P24" s="106"/>
-      <c r="Q24" s="133"/>
+      <c r="Q24" s="133" t="s">
+        <v>265</v>
+      </c>
       <c r="T24" s="87"/>
       <c r="U24" s="134"/>
       <c r="V24" s="127"/>
@@ -14226,21 +14899,21 @@
         <v>46</v>
       </c>
       <c r="D25" s="127" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="106" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F25" s="88"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
       <c r="I25" s="129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J25" s="130"/>
       <c r="K25" s="125"/>
-      <c r="L25" s="140" t="s">
-        <v>289</v>
+      <c r="L25" s="142" t="s">
+        <v>297</v>
       </c>
       <c r="M25" s="128"/>
       <c r="N25" s="61" t="s">
@@ -14267,7 +14940,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="127" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="106" t="s">
         <v>81</v>
@@ -14276,7 +14949,7 @@
       <c r="G26" s="88"/>
       <c r="H26" s="88"/>
       <c r="I26" s="129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J26" s="130"/>
       <c r="K26" s="125"/>
@@ -14300,7 +14973,7 @@
       <c r="AA26" s="136"/>
       <c r="AB26" s="137"/>
     </row>
-    <row r="27" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="125" t="n">
         <v>21</v>
       </c>
@@ -14333,7 +15006,7 @@
       <c r="AA27" s="136"/>
       <c r="AB27" s="137"/>
     </row>
-    <row r="28" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="125" t="n">
         <v>22</v>
       </c>
@@ -14366,7 +15039,7 @@
       <c r="AA28" s="136"/>
       <c r="AB28" s="137"/>
     </row>
-    <row r="29" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="125" t="n">
         <v>23</v>
       </c>
@@ -14399,7 +15072,7 @@
       <c r="AA29" s="136"/>
       <c r="AB29" s="137"/>
     </row>
-    <row r="30" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="125" t="n">
         <v>24</v>
       </c>
@@ -14432,7 +15105,7 @@
       <c r="AA30" s="136"/>
       <c r="AB30" s="137"/>
     </row>
-    <row r="31" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="125" t="n">
         <v>1</v>
       </c>
@@ -14465,7 +15138,7 @@
       <c r="AA31" s="136"/>
       <c r="AB31" s="137"/>
     </row>
-    <row r="32" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="125" t="n">
         <v>2</v>
       </c>
@@ -14473,7 +15146,7 @@
         <v>101</v>
       </c>
       <c r="D32" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="88"/>
@@ -14498,7 +15171,7 @@
       <c r="AA32" s="136"/>
       <c r="AB32" s="137"/>
     </row>
-    <row r="33" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="125" t="n">
         <v>3</v>
       </c>
@@ -14506,7 +15179,7 @@
         <v>101</v>
       </c>
       <c r="D33" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="106"/>
       <c r="F33" s="88"/>
@@ -14531,7 +15204,7 @@
       <c r="AA33" s="136"/>
       <c r="AB33" s="137"/>
     </row>
-    <row r="34" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="125" t="n">
         <v>4</v>
       </c>
@@ -14539,7 +15212,7 @@
         <v>101</v>
       </c>
       <c r="D34" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" s="106"/>
       <c r="F34" s="88"/>
@@ -14564,7 +15237,7 @@
       <c r="AA34" s="136"/>
       <c r="AB34" s="137"/>
     </row>
-    <row r="35" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="125" t="n">
         <v>5</v>
       </c>
@@ -14572,7 +15245,7 @@
         <v>101</v>
       </c>
       <c r="D35" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35" s="106"/>
       <c r="F35" s="88"/>
@@ -14597,7 +15270,7 @@
       <c r="AA35" s="136"/>
       <c r="AB35" s="137"/>
     </row>
-    <row r="36" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="125" t="n">
         <v>6</v>
       </c>
@@ -14605,7 +15278,7 @@
         <v>101</v>
       </c>
       <c r="D36" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="106"/>
       <c r="F36" s="88"/>
@@ -14630,7 +15303,7 @@
       <c r="AA36" s="136"/>
       <c r="AB36" s="137"/>
     </row>
-    <row r="37" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="125" t="n">
         <v>7</v>
       </c>
@@ -14638,7 +15311,7 @@
         <v>101</v>
       </c>
       <c r="D37" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" s="106"/>
       <c r="F37" s="88"/>
@@ -14663,7 +15336,7 @@
       <c r="AA37" s="136"/>
       <c r="AB37" s="137"/>
     </row>
-    <row r="38" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="125" t="n">
         <v>8</v>
       </c>
@@ -14671,7 +15344,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F38" s="88"/>
       <c r="G38" s="88"/>
@@ -14695,7 +15368,7 @@
       <c r="AA38" s="136"/>
       <c r="AB38" s="137"/>
     </row>
-    <row r="39" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="125" t="n">
         <v>9</v>
       </c>
@@ -14703,7 +15376,7 @@
         <v>101</v>
       </c>
       <c r="D39" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="106"/>
       <c r="F39" s="88"/>
@@ -14728,7 +15401,7 @@
       <c r="AA39" s="136"/>
       <c r="AB39" s="137"/>
     </row>
-    <row r="40" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="125" t="n">
         <v>10</v>
       </c>
@@ -14736,7 +15409,7 @@
         <v>101</v>
       </c>
       <c r="D40" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="106"/>
       <c r="F40" s="88"/>
@@ -14761,7 +15434,7 @@
       <c r="AA40" s="136"/>
       <c r="AB40" s="137"/>
     </row>
-    <row r="41" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="125" t="n">
         <v>11</v>
       </c>
@@ -14769,7 +15442,7 @@
         <v>101</v>
       </c>
       <c r="D41" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="106"/>
       <c r="F41" s="88"/>
@@ -14794,7 +15467,7 @@
       <c r="AA41" s="136"/>
       <c r="AB41" s="137"/>
     </row>
-    <row r="42" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="125" t="n">
         <v>12</v>
       </c>
@@ -14802,7 +15475,7 @@
         <v>101</v>
       </c>
       <c r="D42" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42" s="88"/>
       <c r="G42" s="88"/>
@@ -14826,7 +15499,7 @@
       <c r="AA42" s="136"/>
       <c r="AB42" s="137"/>
     </row>
-    <row r="43" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="125" t="n">
         <v>13</v>
       </c>
@@ -14834,7 +15507,7 @@
         <v>101</v>
       </c>
       <c r="D43" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="106"/>
       <c r="F43" s="88"/>
@@ -14859,7 +15532,7 @@
       <c r="AA43" s="136"/>
       <c r="AB43" s="137"/>
     </row>
-    <row r="44" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="125" t="n">
         <v>14</v>
       </c>
@@ -14867,7 +15540,7 @@
         <v>101</v>
       </c>
       <c r="D44" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" s="106"/>
       <c r="F44" s="88"/>
@@ -14892,7 +15565,7 @@
       <c r="AA44" s="136"/>
       <c r="AB44" s="137"/>
     </row>
-    <row r="45" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="125" t="n">
         <v>15</v>
       </c>
@@ -14900,7 +15573,7 @@
         <v>101</v>
       </c>
       <c r="D45" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" s="106"/>
       <c r="F45" s="88"/>
@@ -14925,7 +15598,7 @@
       <c r="AA45" s="136"/>
       <c r="AB45" s="137"/>
     </row>
-    <row r="46" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="125" t="n">
         <v>16</v>
       </c>
@@ -14958,7 +15631,7 @@
       <c r="AA46" s="136"/>
       <c r="AB46" s="137"/>
     </row>
-    <row r="47" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="125" t="n">
         <v>17</v>
       </c>
@@ -14991,7 +15664,7 @@
       <c r="AA47" s="136"/>
       <c r="AB47" s="137"/>
     </row>
-    <row r="48" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="125" t="n">
         <v>18</v>
       </c>
@@ -15024,7 +15697,7 @@
       <c r="AA48" s="136"/>
       <c r="AB48" s="137"/>
     </row>
-    <row r="49" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="125" t="n">
         <v>19</v>
       </c>
@@ -15057,7 +15730,7 @@
       <c r="AA49" s="136"/>
       <c r="AB49" s="137"/>
     </row>
-    <row r="50" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="125" t="n">
         <v>20</v>
       </c>
@@ -15090,7 +15763,7 @@
       <c r="AA50" s="136"/>
       <c r="AB50" s="137"/>
     </row>
-    <row r="51" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="125" t="n">
         <v>21</v>
       </c>
@@ -15123,7 +15796,7 @@
       <c r="AA51" s="136"/>
       <c r="AB51" s="137"/>
     </row>
-    <row r="52" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="125" t="n">
         <v>22</v>
       </c>
@@ -15156,7 +15829,7 @@
       <c r="AA52" s="136"/>
       <c r="AB52" s="137"/>
     </row>
-    <row r="53" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="125" t="n">
         <v>23</v>
       </c>
@@ -15189,7 +15862,7 @@
       <c r="AA53" s="136"/>
       <c r="AB53" s="137"/>
     </row>
-    <row r="54" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="125" t="n">
         <v>24</v>
       </c>
@@ -15197,7 +15870,7 @@
         <v>101</v>
       </c>
       <c r="D54" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" s="106"/>
       <c r="F54" s="88"/>
@@ -15291,10 +15964,6 @@
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
-      <formula1>-150</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
@@ -15303,10 +15972,14 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -15321,45 +15994,3357 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:AD80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="143" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'[1]Version history'!A3)</f>
+        <v>Version: 10</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="147" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="148" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="148" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="148" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="148" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="149" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="150" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="55"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="60"/>
+    </row>
+    <row r="8" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="150" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" s="54"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="55"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="60"/>
+    </row>
+    <row r="9" s="152" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="156" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="157" t="s">
+        <v>306</v>
+      </c>
+      <c r="J9" s="158" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="153"/>
+      <c r="L9" s="159" t="s">
+        <v>307</v>
+      </c>
+      <c r="M9" s="156"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="159"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="159"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="150" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="O10" s="54"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="55"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+    </row>
+    <row r="11" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="150" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="48"/>
+      <c r="L11" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" s="54"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="55"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+    </row>
+    <row r="12" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="150" t="s">
+        <v>303</v>
+      </c>
+      <c r="J12" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" s="54"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="55"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="60"/>
+    </row>
+    <row r="13" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" s="54"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="55"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+    </row>
+    <row r="14" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="55"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="150" t="s">
+        <v>316</v>
+      </c>
+      <c r="J15" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="48"/>
+      <c r="L15" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N15" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="O15" s="54"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="55"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="60"/>
+    </row>
+    <row r="16" s="152" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="156" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="157" t="s">
+        <v>306</v>
+      </c>
+      <c r="J16" s="158" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="153"/>
+      <c r="L16" s="159" t="s">
+        <v>307</v>
+      </c>
+      <c r="M16" s="156"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="159"/>
+      <c r="V16" s="162"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="159"/>
+    </row>
+    <row r="17" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="55"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="60"/>
+    </row>
+    <row r="18" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="150" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K18" s="48"/>
+      <c r="L18" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" s="54"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="55"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="60"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="150" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="48"/>
+      <c r="L19" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="M19" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="N19" s="143" t="s">
+        <v>322</v>
+      </c>
+      <c r="O19" s="54"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="55"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="60"/>
+    </row>
+    <row r="20" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K20" s="48"/>
+      <c r="L20" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" s="54"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="55"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="60"/>
+    </row>
+    <row r="21" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="48"/>
+      <c r="L21" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="M21" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="55"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="60"/>
+    </row>
+    <row r="22" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K22" s="48"/>
+      <c r="L22" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="M22" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" s="54"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="55"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="60"/>
+    </row>
+    <row r="23" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="150" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="48"/>
+      <c r="L23" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="M23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="55"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="60"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="150" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="48"/>
+      <c r="L24" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="M24" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N24" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="O24" s="54"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="55"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="60"/>
+    </row>
+    <row r="25" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K25" s="48"/>
+      <c r="L25" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="M25" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="54"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="55"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="60"/>
+    </row>
+    <row r="26" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="M26" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O26" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="55"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="60"/>
+    </row>
+    <row r="27" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="48"/>
+      <c r="L27" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="M27" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O27" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="55"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="60"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="150" t="s">
+        <v>334</v>
+      </c>
+      <c r="J28" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="48"/>
+      <c r="L28" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="M28" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N28" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="O28" s="54"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="55"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="60"/>
+    </row>
+    <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K29" s="48"/>
+      <c r="L29" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="M29" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O29" s="64"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="55"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="60"/>
+    </row>
+    <row r="30" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="150" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="48"/>
+      <c r="L30" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="M30" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O30" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="55"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="60"/>
+    </row>
+    <row r="31" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="150" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K31" s="48"/>
+      <c r="L31" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="M31" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O31" s="64"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="55"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="60"/>
+    </row>
+    <row r="32" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="48"/>
+      <c r="L32" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="M32" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="55"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="60"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="150" t="s">
+        <v>341</v>
+      </c>
+      <c r="J33" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="48"/>
+      <c r="L33" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="M33" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N33" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="O33" s="54"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="55"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="60"/>
+    </row>
+    <row r="34" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="150" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="48"/>
+      <c r="L34" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O34" s="64"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="55"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="60"/>
+    </row>
+    <row r="35" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" s="48"/>
+      <c r="L35" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="M35" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O35" s="54"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="55"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="60"/>
+    </row>
+    <row r="36" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="150" t="s">
+        <v>197</v>
+      </c>
+      <c r="J36" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" s="48"/>
+      <c r="L36" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="M36" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N36" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O36" s="64"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="55"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="60"/>
+    </row>
+    <row r="37" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" s="48"/>
+      <c r="L37" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O37" s="54"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="55"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="58"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="60"/>
+    </row>
+    <row r="38" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K38" s="48"/>
+      <c r="L38" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="M38" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O38" s="64"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="55"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="60"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="150" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="48"/>
+      <c r="L39" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="M39" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N39" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="O39" s="54"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="55"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="60"/>
+    </row>
+    <row r="40" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="150" t="s">
+        <v>190</v>
+      </c>
+      <c r="J40" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K40" s="48"/>
+      <c r="L40" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O40" s="54"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="55"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
+      <c r="Z40" s="58"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="60"/>
+    </row>
+    <row r="41" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="150" t="s">
+        <v>201</v>
+      </c>
+      <c r="J41" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" s="48"/>
+      <c r="L41" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O41" s="64"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="55"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="60"/>
+    </row>
+    <row r="42" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" s="48"/>
+      <c r="L42" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O42" s="54"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="55"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="60"/>
+    </row>
+    <row r="43" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="150" t="s">
+        <v>352</v>
+      </c>
+      <c r="J43" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K43" s="48"/>
+      <c r="L43" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="M43" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O43" s="54"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="55"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="60"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="150" t="s">
+        <v>273</v>
+      </c>
+      <c r="J44" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="48"/>
+      <c r="L44" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N44" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="O44" s="54"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="55"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="60"/>
+    </row>
+    <row r="45" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="150" t="s">
+        <v>159</v>
+      </c>
+      <c r="J45" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K45" s="48"/>
+      <c r="L45" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="M45" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O45" s="64"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="55"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="59"/>
+      <c r="AB45" s="60"/>
+    </row>
+    <row r="46" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="150" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K46" s="48"/>
+      <c r="L46" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="M46" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O46" s="54"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="55"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="59"/>
+      <c r="AB46" s="60"/>
+    </row>
+    <row r="47" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="150" t="s">
+        <v>197</v>
+      </c>
+      <c r="J47" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" s="48"/>
+      <c r="L47" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="M47" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N47" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O47" s="54"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="55"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="59"/>
+      <c r="AB47" s="60"/>
+    </row>
+    <row r="48" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="150" t="s">
+        <v>360</v>
+      </c>
+      <c r="J48" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K48" s="48"/>
+      <c r="L48" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N48" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O48" s="54"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="55"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="59"/>
+      <c r="AB48" s="60"/>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="150" t="s">
+        <v>363</v>
+      </c>
+      <c r="J49" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="48"/>
+      <c r="L49" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="M49" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N49" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O49" s="54"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="55"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="59"/>
+      <c r="AB49" s="60"/>
+    </row>
+    <row r="50" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="J50" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K50" s="48"/>
+      <c r="L50" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="M50" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O50" s="54"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="55"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="58"/>
+      <c r="Y50" s="58"/>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="60"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="150" t="s">
+        <v>366</v>
+      </c>
+      <c r="J51" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="K51" s="48"/>
+      <c r="L51" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="M51" s="143" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" s="61"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="55"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="58"/>
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="60"/>
+    </row>
+    <row r="52" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="150" t="s">
+        <v>201</v>
+      </c>
+      <c r="J52" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="K52" s="48"/>
+      <c r="L52" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="M52" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N52" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O52" s="54"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="55"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="58"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="60"/>
+    </row>
+    <row r="53" s="152" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="156" t="s">
+        <v>368</v>
+      </c>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="157" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" s="158" t="s">
+        <v>135</v>
+      </c>
+      <c r="K53" s="153"/>
+      <c r="L53" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="M53" s="161"/>
+      <c r="N53" s="160"/>
+      <c r="O53" s="159"/>
+      <c r="P53" s="161"/>
+      <c r="Q53" s="159"/>
+      <c r="V53" s="162"/>
+      <c r="W53" s="162"/>
+      <c r="X53" s="162"/>
+      <c r="Y53" s="162"/>
+      <c r="Z53" s="162"/>
+      <c r="AA53" s="162"/>
+      <c r="AB53" s="159"/>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="150" t="s">
+        <v>372</v>
+      </c>
+      <c r="J54" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K54" s="48"/>
+      <c r="L54" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="M54" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N54" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O54" s="54"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="55"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="58"/>
+      <c r="Z54" s="58"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="60"/>
+    </row>
+    <row r="55" s="152" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="156" t="s">
+        <v>374</v>
+      </c>
+      <c r="I55" s="157" t="s">
+        <v>375</v>
+      </c>
+      <c r="J55" s="158" t="s">
+        <v>135</v>
+      </c>
+      <c r="L55" s="152" t="s">
+        <v>376</v>
+      </c>
+      <c r="N55" s="163"/>
+      <c r="V55" s="164"/>
+      <c r="W55" s="164"/>
+      <c r="X55" s="164"/>
+      <c r="Y55" s="164"/>
+      <c r="Z55" s="164"/>
+      <c r="AA55" s="164"/>
+    </row>
+    <row r="56" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="I56" s="150" t="s">
+        <v>352</v>
+      </c>
+      <c r="J56" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="L56" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="M56" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="I57" s="150" t="s">
+        <v>378</v>
+      </c>
+      <c r="J57" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="M57" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N57" s="143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="I58" s="150" t="s">
+        <v>357</v>
+      </c>
+      <c r="J58" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="L58" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="M58" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="I59" s="150" t="s">
+        <v>381</v>
+      </c>
+      <c r="J59" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="M59" s="143" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="I60" s="150" t="s">
+        <v>384</v>
+      </c>
+      <c r="J60" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="M60" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N60" s="143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="I61" s="150" t="s">
+        <v>360</v>
+      </c>
+      <c r="J61" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="L61" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="M61" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="I62" s="150" t="s">
+        <v>366</v>
+      </c>
+      <c r="J62" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="L62" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="M62" s="143" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="I63" s="150" t="s">
+        <v>387</v>
+      </c>
+      <c r="J63" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="M63" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N63" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" s="152" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="156" t="s">
+        <v>368</v>
+      </c>
+      <c r="I64" s="157" t="s">
+        <v>369</v>
+      </c>
+      <c r="J64" s="158" t="s">
+        <v>311</v>
+      </c>
+      <c r="L64" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="N64" s="163"/>
+      <c r="V64" s="164"/>
+      <c r="W64" s="164"/>
+      <c r="X64" s="164"/>
+      <c r="Y64" s="164"/>
+      <c r="Z64" s="164"/>
+      <c r="AA64" s="164"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="I65" s="150" t="s">
+        <v>390</v>
+      </c>
+      <c r="J65" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="M65" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N65" s="143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="I66" s="150" t="s">
+        <v>393</v>
+      </c>
+      <c r="J66" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="M66" s="143" t="s">
+        <v>54</v>
+      </c>
+      <c r="N66" s="0"/>
+    </row>
+    <row r="67" s="152" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="156" t="s">
+        <v>374</v>
+      </c>
+      <c r="I67" s="157" t="s">
+        <v>375</v>
+      </c>
+      <c r="J67" s="158" t="s">
+        <v>311</v>
+      </c>
+      <c r="L67" s="152" t="s">
+        <v>376</v>
+      </c>
+      <c r="N67" s="163"/>
+      <c r="V67" s="164"/>
+      <c r="W67" s="164"/>
+      <c r="X67" s="164"/>
+      <c r="Y67" s="164"/>
+      <c r="Z67" s="164"/>
+      <c r="AA67" s="164"/>
+    </row>
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>395</v>
+      </c>
+      <c r="I68" s="150" t="s">
+        <v>396</v>
+      </c>
+      <c r="J68" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="N68" s="61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="I69" s="150" t="s">
+        <v>378</v>
+      </c>
+      <c r="J69" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="M69" s="51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="I70" s="150" t="s">
+        <v>384</v>
+      </c>
+      <c r="J70" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="M70" s="51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="I71" s="150" t="s">
+        <v>401</v>
+      </c>
+      <c r="J71" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="M71" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N71" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="I72" s="150" t="s">
+        <v>390</v>
+      </c>
+      <c r="J72" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="M72" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N72" s="143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>403</v>
+      </c>
+      <c r="I73" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="J73" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="M73" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N73" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="I74" s="150" t="s">
+        <v>393</v>
+      </c>
+      <c r="J74" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="M74" s="143" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>404</v>
+      </c>
+      <c r="I75" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="J75" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="M75" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N75" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="I76" s="150" t="s">
+        <v>407</v>
+      </c>
+      <c r="J76" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="M76" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N76" s="143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="I77" s="150" t="s">
+        <v>410</v>
+      </c>
+      <c r="J77" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="M77" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N77" s="143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="I78" s="150" t="s">
+        <v>413</v>
+      </c>
+      <c r="J78" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="M78" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="N78" s="143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" s="165" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="168" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="169" t="s">
+        <v>415</v>
+      </c>
+      <c r="I79" s="170" t="s">
+        <v>416</v>
+      </c>
+      <c r="J79" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="L79" s="165" t="s">
+        <v>417</v>
+      </c>
+      <c r="M79" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="N79" s="173"/>
+      <c r="V79" s="174"/>
+      <c r="W79" s="174"/>
+      <c r="X79" s="174"/>
+      <c r="Y79" s="174"/>
+      <c r="Z79" s="174"/>
+      <c r="AA79" s="174"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I80" s="175"/>
+      <c r="J80" s="175"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+  </mergeCells>
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B79" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C79" type="list">
+      <formula1>"Outer,Inner,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D79" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I79" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J79" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="141" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="176" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>290</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="141"/>
+        <v>419</v>
+      </c>
+      <c r="B2" s="176"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="141"/>
+      <c r="B3" s="176"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28"/>
-      <c r="B4" s="141"/>
+      <c r="B4" s="176"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="141" t="s">
-        <v>292</v>
+        <v>419</v>
+      </c>
+      <c r="B5" s="176" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15367,7 +19352,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>293</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15375,7 +19360,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>294</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15383,7 +19368,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>295</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15391,7 +19376,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>296</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15399,7 +19384,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>297</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15407,7 +19392,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15415,7 +19400,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>299</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15423,7 +19408,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>300</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15431,7 +19416,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>301</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15439,7 +19424,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fe" sheetId="1" state="visible" r:id="rId2"/>
@@ -338,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="435">
   <si>
     <t xml:space="preserve">Double wheel</t>
   </si>
@@ -1234,12 +1234,12 @@
     <t xml:space="preserve">Ca2ZnSi2O7</t>
   </si>
   <si>
+    <t xml:space="preserve">Ti</t>
+  </si>
+  <si>
     <t xml:space="preserve">TitaniumFoil</t>
   </si>
   <si>
-    <t xml:space="preserve">Ti</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ti foil</t>
   </si>
   <si>
@@ -1255,6 +1255,9 @@
     <t xml:space="preserve">CsNO3</t>
   </si>
   <si>
+    <t xml:space="preserve">-200  -30  -10 25  335</t>
+  </si>
+  <si>
     <t xml:space="preserve">BariumSomething</t>
   </si>
   <si>
@@ -1273,12 +1276,18 @@
     <t xml:space="preserve">La(OH)3</t>
   </si>
   <si>
+    <t xml:space="preserve">-200  -30  -10 25  390</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1</t>
   </si>
   <si>
     <t xml:space="preserve">CeriumDioxide</t>
   </si>
   <si>
+    <t xml:space="preserve">-200  -30  -10 25  420</t>
+  </si>
+  <si>
     <t xml:space="preserve">PraseodymiumOxide</t>
   </si>
   <si>
@@ -1553,6 +1562,9 @@
   </si>
   <si>
     <t xml:space="preserve">YttriumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Y2O3</t>
@@ -2859,9 +2871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2870,8 +2882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3366360" y="10725120"/>
-          <a:ext cx="6653880" cy="2254680"/>
+          <a:off x="3367080" y="10725120"/>
+          <a:ext cx="6653880" cy="2254320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3118,9 +3130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1113480</xdr:colOff>
+      <xdr:colOff>1113120</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3134,7 +3146,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10722600"/>
-          <a:ext cx="3158640" cy="3270600"/>
+          <a:ext cx="3159000" cy="3270240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3160,9 +3172,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3171,8 +3183,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3344400" y="7834680"/>
-          <a:ext cx="6653880" cy="2254680"/>
+          <a:off x="3345120" y="7834680"/>
+          <a:ext cx="6653880" cy="2254320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3419,9 +3431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1157400</xdr:colOff>
+      <xdr:colOff>1157040</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3435,7 +3447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7716240"/>
-          <a:ext cx="3202560" cy="1829160"/>
+          <a:ext cx="3202920" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3461,9 +3473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1729080</xdr:colOff>
+      <xdr:colOff>1728720</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3472,8 +3484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3399120" y="13656600"/>
-          <a:ext cx="6653880" cy="2254680"/>
+          <a:off x="3399840" y="13656600"/>
+          <a:ext cx="6654240" cy="2254320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3720,9 +3732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1148040</xdr:colOff>
+      <xdr:colOff>1147680</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3736,7 +3748,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158040" y="13629240"/>
-          <a:ext cx="3035160" cy="3113280"/>
+          <a:ext cx="3035520" cy="3112920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3762,9 +3774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>322920</xdr:colOff>
+      <xdr:colOff>322560</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3778,7 +3790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7947360"/>
-          <a:ext cx="3594960" cy="2253240"/>
+          <a:ext cx="3595680" cy="2252880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3804,9 +3816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1866240</xdr:colOff>
+      <xdr:colOff>1865880</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3816,7 +3828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6649200" cy="2254680"/>
+          <a:ext cx="6648840" cy="2254320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4063,9 +4075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1113480</xdr:colOff>
+      <xdr:colOff>1113120</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4079,7 +4091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10262880"/>
-          <a:ext cx="3154320" cy="3270600"/>
+          <a:ext cx="3153960" cy="3270240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4105,9 +4117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1866240</xdr:colOff>
+      <xdr:colOff>1865880</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4117,7 +4129,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6649200" cy="2254680"/>
+          <a:ext cx="6648840" cy="2254320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4364,9 +4376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1113480</xdr:colOff>
+      <xdr:colOff>1113120</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4380,7 +4392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10995120"/>
-          <a:ext cx="3154320" cy="3270600"/>
+          <a:ext cx="3153960" cy="3270240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4416,7 +4428,7 @@
       <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -6708,7 +6720,7 @@
       <selection pane="bottomRight" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -8042,7 +8054,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -10417,7 +10429,7 @@
       <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
@@ -11758,7 +11770,7 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
@@ -15996,11 +16008,11 @@
   </sheetPr>
   <dimension ref="B1:AD80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -16276,10 +16288,10 @@
         <v>48</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J6" s="35" t="s">
         <v>51</v>
@@ -16348,13 +16360,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="150" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J7" s="151" t="s">
         <v>51</v>
@@ -16382,7 +16394,7 @@
       <c r="AA7" s="59"/>
       <c r="AB7" s="60"/>
     </row>
-    <row r="8" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="48" t="n">
         <v>1</v>
       </c>
@@ -16414,7 +16426,9 @@
       <c r="N8" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="64" t="s">
+        <v>305</v>
+      </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="55"/>
       <c r="T8" s="11"/>
@@ -16438,20 +16452,20 @@
         <v>3</v>
       </c>
       <c r="E9" s="156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F9" s="153"/>
       <c r="G9" s="153"/>
       <c r="H9" s="153"/>
       <c r="I9" s="157" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J9" s="158" t="s">
         <v>135</v>
       </c>
       <c r="K9" s="153"/>
       <c r="L9" s="159" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M9" s="156"/>
       <c r="N9" s="160"/>
@@ -16477,7 +16491,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -16511,7 +16525,7 @@
       <c r="AA10" s="59"/>
       <c r="AB10" s="60"/>
     </row>
-    <row r="11" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="48" t="n">
         <v>1</v>
       </c>
@@ -16522,7 +16536,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -16535,7 +16549,7 @@
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>77</v>
@@ -16543,7 +16557,9 @@
       <c r="N11" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="O11" s="54"/>
+      <c r="O11" s="64" t="s">
+        <v>312</v>
+      </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="55"/>
       <c r="T11" s="11"/>
@@ -16576,7 +16592,7 @@
         <v>303</v>
       </c>
       <c r="J12" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="54" t="s">
@@ -16601,7 +16617,7 @@
       <c r="AA12" s="59"/>
       <c r="AB12" s="60"/>
     </row>
-    <row r="13" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="48" t="n">
         <v>1</v>
       </c>
@@ -16612,7 +16628,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -16633,7 +16649,9 @@
       <c r="N13" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="O13" s="54"/>
+      <c r="O13" s="64" t="s">
+        <v>315</v>
+      </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="55"/>
       <c r="T13" s="11"/>
@@ -16657,7 +16675,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -16670,7 +16688,7 @@
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="54" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M14" s="51" t="s">
         <v>77</v>
@@ -16704,20 +16722,20 @@
         <v>5</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="150" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J15" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="54" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M15" s="51" t="s">
         <v>279</v>
@@ -16749,20 +16767,20 @@
         <v>3</v>
       </c>
       <c r="E16" s="156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
       <c r="H16" s="153"/>
       <c r="I16" s="157" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J16" s="158" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K16" s="153"/>
       <c r="L16" s="159" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M16" s="156"/>
       <c r="N16" s="160"/>
@@ -16788,7 +16806,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -16801,7 +16819,7 @@
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="54" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M17" s="51" t="s">
         <v>77</v>
@@ -16835,7 +16853,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -16844,11 +16862,11 @@
         <v>149</v>
       </c>
       <c r="J18" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M18" s="51" t="s">
         <v>77</v>
@@ -16880,7 +16898,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -16893,13 +16911,13 @@
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="54" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M19" s="51" t="s">
         <v>225</v>
       </c>
       <c r="N19" s="143" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="29"/>
@@ -16925,7 +16943,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -16934,7 +16952,7 @@
         <v>134</v>
       </c>
       <c r="J20" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="54" t="s">
@@ -16970,7 +16988,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -16983,7 +17001,7 @@
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="54" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M21" s="51" t="s">
         <v>77</v>
@@ -17017,7 +17035,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -17026,11 +17044,11 @@
         <v>170</v>
       </c>
       <c r="J22" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="54" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M22" s="51" t="s">
         <v>77</v>
@@ -17062,7 +17080,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -17075,7 +17093,7 @@
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M23" s="51" t="s">
         <v>77</v>
@@ -17109,7 +17127,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -17122,7 +17140,7 @@
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="54" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M24" s="51" t="s">
         <v>279</v>
@@ -17154,7 +17172,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -17163,11 +17181,11 @@
         <v>181</v>
       </c>
       <c r="J25" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="54" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M25" s="51" t="s">
         <v>77</v>
@@ -17199,7 +17217,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -17212,7 +17230,7 @@
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="54" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M26" s="51" t="s">
         <v>77</v>
@@ -17246,7 +17264,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -17259,7 +17277,7 @@
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="54" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M27" s="51" t="s">
         <v>77</v>
@@ -17293,20 +17311,20 @@
         <v>5</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="150" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J28" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="54" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M28" s="51" t="s">
         <v>279</v>
@@ -17338,7 +17356,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -17347,11 +17365,11 @@
         <v>151</v>
       </c>
       <c r="J29" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="54" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M29" s="51" t="s">
         <v>77</v>
@@ -17383,7 +17401,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -17396,7 +17414,7 @@
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="54" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M30" s="51" t="s">
         <v>77</v>
@@ -17430,7 +17448,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -17439,11 +17457,11 @@
         <v>155</v>
       </c>
       <c r="J31" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M31" s="51" t="s">
         <v>77</v>
@@ -17475,7 +17493,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -17488,7 +17506,7 @@
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="54" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M32" s="51" t="s">
         <v>77</v>
@@ -17522,20 +17540,20 @@
         <v>5</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="150" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J33" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="54" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M33" s="51" t="s">
         <v>279</v>
@@ -17567,7 +17585,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -17612,7 +17630,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -17621,11 +17639,11 @@
         <v>165</v>
       </c>
       <c r="J35" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="54" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M35" s="51" t="s">
         <v>77</v>
@@ -17657,7 +17675,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -17670,7 +17688,7 @@
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="54" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M36" s="51" t="s">
         <v>77</v>
@@ -17702,7 +17720,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -17711,11 +17729,11 @@
         <v>187</v>
       </c>
       <c r="J37" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="54" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M37" s="51" t="s">
         <v>77</v>
@@ -17747,7 +17765,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -17792,7 +17810,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -17805,7 +17823,7 @@
       </c>
       <c r="K39" s="48"/>
       <c r="L39" s="54" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M39" s="51" t="s">
         <v>279</v>
@@ -17837,7 +17855,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -17846,11 +17864,11 @@
         <v>190</v>
       </c>
       <c r="J40" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K40" s="48"/>
       <c r="L40" s="54" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M40" s="51" t="s">
         <v>77</v>
@@ -17882,7 +17900,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -17895,7 +17913,7 @@
       </c>
       <c r="K41" s="48"/>
       <c r="L41" s="54" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M41" s="51" t="s">
         <v>77</v>
@@ -17927,7 +17945,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -17936,11 +17954,11 @@
         <v>193</v>
       </c>
       <c r="J42" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K42" s="48"/>
       <c r="L42" s="54" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M42" s="51" t="s">
         <v>77</v>
@@ -17972,20 +17990,20 @@
         <v>5</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="150" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J43" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K43" s="48"/>
       <c r="L43" s="54" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M43" s="51" t="s">
         <v>77</v>
@@ -18017,7 +18035,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -18030,7 +18048,7 @@
       </c>
       <c r="K44" s="48"/>
       <c r="L44" s="54" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M44" s="51" t="s">
         <v>279</v>
@@ -18062,7 +18080,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -18071,7 +18089,7 @@
         <v>159</v>
       </c>
       <c r="J45" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="54" t="s">
@@ -18107,20 +18125,20 @@
         <v>5</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="150" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J46" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="54" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M46" s="51" t="s">
         <v>77</v>
@@ -18152,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -18161,11 +18179,11 @@
         <v>197</v>
       </c>
       <c r="J47" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K47" s="48"/>
       <c r="L47" s="54" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M47" s="51" t="s">
         <v>77</v>
@@ -18197,20 +18215,20 @@
         <v>5</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="150" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J48" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K48" s="48"/>
       <c r="L48" s="54" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M48" s="51" t="s">
         <v>77</v>
@@ -18242,20 +18260,20 @@
         <v>5</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="150" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J49" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K49" s="48"/>
       <c r="L49" s="54" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M49" s="51" t="s">
         <v>77</v>
@@ -18287,7 +18305,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -18296,7 +18314,7 @@
         <v>162</v>
       </c>
       <c r="J50" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K50" s="48"/>
       <c r="L50" s="54" t="s">
@@ -18332,20 +18350,20 @@
         <v>5</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="150" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J51" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K51" s="48"/>
       <c r="L51" s="54" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M51" s="143" t="s">
         <v>54</v>
@@ -18375,7 +18393,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -18384,11 +18402,11 @@
         <v>201</v>
       </c>
       <c r="J52" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K52" s="48"/>
       <c r="L52" s="54" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M52" s="51" t="s">
         <v>77</v>
@@ -18420,20 +18438,20 @@
         <v>3</v>
       </c>
       <c r="E53" s="156" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F53" s="153"/>
       <c r="G53" s="153"/>
       <c r="H53" s="153"/>
       <c r="I53" s="157" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J53" s="158" t="s">
         <v>135</v>
       </c>
       <c r="K53" s="153"/>
       <c r="L53" s="159" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M53" s="161"/>
       <c r="N53" s="160"/>
@@ -18459,20 +18477,20 @@
         <v>5</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="150" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J54" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K54" s="48"/>
       <c r="L54" s="54" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M54" s="51" t="s">
         <v>77</v>
@@ -18504,16 +18522,16 @@
         <v>3</v>
       </c>
       <c r="E55" s="156" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I55" s="157" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J55" s="158" t="s">
         <v>135</v>
       </c>
       <c r="L55" s="152" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N55" s="163"/>
       <c r="V55" s="164"/>
@@ -18534,16 +18552,16 @@
         <v>5</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I56" s="150" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J56" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L56" s="54" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M56" s="51" t="s">
         <v>77</v>
@@ -18563,16 +18581,16 @@
         <v>5</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I57" s="150" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J57" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M57" s="51" t="s">
         <v>279</v>
@@ -18592,16 +18610,16 @@
         <v>5</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I58" s="150" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J58" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L58" s="54" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M58" s="51" t="s">
         <v>77</v>
@@ -18621,16 +18639,16 @@
         <v>5</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I59" s="150" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J59" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M59" s="143" t="s">
         <v>54</v>
@@ -18647,16 +18665,16 @@
         <v>5</v>
       </c>
       <c r="E60" s="51" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I60" s="150" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J60" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M60" s="51" t="s">
         <v>279</v>
@@ -18676,16 +18694,16 @@
         <v>5</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I61" s="150" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J61" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L61" s="54" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M61" s="51" t="s">
         <v>77</v>
@@ -18705,16 +18723,16 @@
         <v>5</v>
       </c>
       <c r="E62" s="51" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="I62" s="150" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J62" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L62" s="54" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M62" s="143" t="s">
         <v>54</v>
@@ -18731,16 +18749,16 @@
         <v>5</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I63" s="150" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J63" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M63" s="51" t="s">
         <v>77</v>
@@ -18757,19 +18775,19 @@
         <v>46</v>
       </c>
       <c r="D64" s="155" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="156" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I64" s="157" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J64" s="158" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L64" s="159" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N64" s="163"/>
       <c r="V64" s="164"/>
@@ -18790,16 +18808,16 @@
         <v>5</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I65" s="150" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J65" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M65" s="51" t="s">
         <v>279</v>
@@ -18819,16 +18837,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I66" s="150" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J66" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M66" s="143" t="s">
         <v>54</v>
@@ -18843,19 +18861,19 @@
         <v>46</v>
       </c>
       <c r="D67" s="155" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67" s="156" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I67" s="157" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J67" s="158" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L67" s="152" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N67" s="163"/>
       <c r="V67" s="164"/>
@@ -18876,22 +18894,22 @@
         <v>5</v>
       </c>
       <c r="E68" s="51" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I68" s="150" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J68" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="N68" s="61" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18905,16 +18923,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="51" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I69" s="150" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J69" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M69" s="51" t="s">
         <v>279</v>
@@ -18931,16 +18949,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="51" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I70" s="150" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J70" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M70" s="51" t="s">
         <v>279</v>
@@ -18957,16 +18975,16 @@
         <v>5</v>
       </c>
       <c r="E71" s="51" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I71" s="150" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J71" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M71" s="51" t="s">
         <v>77</v>
@@ -18986,16 +19004,16 @@
         <v>5</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I72" s="150" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J72" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M72" s="51" t="s">
         <v>279</v>
@@ -19015,7 +19033,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="51" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I73" s="150" t="s">
         <v>230</v>
@@ -19044,16 +19062,16 @@
         <v>5</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I74" s="150" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J74" s="151" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M74" s="143" t="s">
         <v>54</v>
@@ -19070,16 +19088,16 @@
         <v>5</v>
       </c>
       <c r="E75" s="51" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I75" s="150" t="s">
-        <v>162</v>
+        <v>408</v>
       </c>
       <c r="J75" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M75" s="51" t="s">
         <v>77</v>
@@ -19099,16 +19117,16 @@
         <v>5</v>
       </c>
       <c r="E76" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="I76" s="150" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J76" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M76" s="51" t="s">
         <v>279</v>
@@ -19128,16 +19146,16 @@
         <v>5</v>
       </c>
       <c r="E77" s="51" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I77" s="150" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J77" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M77" s="51" t="s">
         <v>279</v>
@@ -19157,16 +19175,16 @@
         <v>5</v>
       </c>
       <c r="E78" s="51" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I78" s="150" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="J78" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M78" s="51" t="s">
         <v>279</v>
@@ -19186,16 +19204,16 @@
         <v>3</v>
       </c>
       <c r="E79" s="169" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I79" s="170" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J79" s="171" t="s">
         <v>51</v>
       </c>
       <c r="L79" s="165" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M79" s="172" t="s">
         <v>77</v>
@@ -19229,32 +19247,8 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B79" type="whole">
-      <formula1>1</formula1>
-      <formula2>24</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C79" type="list">
-      <formula1>"Outer,Inner,"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D79" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I79" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+      <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J79" type="list">
@@ -19265,29 +19259,53 @@
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B79" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D79" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I79" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C79" type="list">
+      <formula1>"Outer,Inner,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19312,7 +19330,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -19320,12 +19338,12 @@
   <sheetData>
     <row r="1" s="176" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B2" s="176"/>
     </row>
@@ -19341,10 +19359,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B5" s="176" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19352,7 +19370,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19360,7 +19378,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19368,7 +19386,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19376,7 +19394,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19384,7 +19402,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19392,7 +19410,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19400,7 +19418,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19408,7 +19426,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19416,7 +19434,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19424,7 +19442,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fe" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -72,7 +72,7 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -108,7 +108,7 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -200,7 +200,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -236,7 +236,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -272,7 +272,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -308,7 +308,7 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -344,7 +344,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -380,7 +380,7 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -416,7 +416,7 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -452,7 +452,7 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -3226,9 +3226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>88920</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3237,8 +3237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3367800" y="10725120"/>
-          <a:ext cx="6654240" cy="2253960"/>
+          <a:off x="3369240" y="10725120"/>
+          <a:ext cx="6655320" cy="2253960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3260,7 +3260,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3485,9 +3485,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
+      <xdr:colOff>1112400</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3501,12 +3501,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10722600"/>
-          <a:ext cx="3159360" cy="3269880"/>
+          <a:ext cx="3160440" cy="3269520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -3527,9 +3527,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3538,8 +3538,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3345840" y="7834680"/>
-          <a:ext cx="6654240" cy="2253960"/>
+          <a:off x="3347280" y="7834680"/>
+          <a:ext cx="6655320" cy="2253960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3561,7 +3561,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -3786,9 +3786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1156680</xdr:colOff>
+      <xdr:colOff>1156320</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3802,12 +3802,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7716240"/>
-          <a:ext cx="3203280" cy="1828440"/>
+          <a:ext cx="3204360" cy="1828080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -3828,9 +3828,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1728360</xdr:colOff>
+      <xdr:colOff>1728000</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3839,8 +3839,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400560" y="13656600"/>
-          <a:ext cx="6654240" cy="2253960"/>
+          <a:off x="3402000" y="13656600"/>
+          <a:ext cx="6655320" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3862,7 +3862,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -4087,9 +4087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1147320</xdr:colOff>
+      <xdr:colOff>1146960</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4103,12 +4103,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158040" y="13629240"/>
-          <a:ext cx="3035880" cy="3112560"/>
+          <a:ext cx="3036960" cy="3112560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -4129,9 +4129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>322200</xdr:colOff>
+      <xdr:colOff>321840</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4145,12 +4145,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7947360"/>
-          <a:ext cx="3596760" cy="2252520"/>
+          <a:ext cx="3597840" cy="2252520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -4171,9 +4171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865520</xdr:colOff>
+      <xdr:colOff>1865160</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4183,7 +4183,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
+          <a:ext cx="6648120" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4205,7 +4205,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -4421,43 +4421,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10262880"/>
-          <a:ext cx="3153600" cy="3269880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4472,19 +4435,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865520</xdr:colOff>
+      <xdr:colOff>1865160</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
+          <a:ext cx="6648120" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4506,7 +4469,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -4722,43 +4685,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5659920"/>
-          <a:ext cx="3153600" cy="3269880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4773,19 +4699,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865520</xdr:colOff>
+      <xdr:colOff>1865160</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
+          <a:ext cx="6648120" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4807,7 +4733,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -5023,43 +4949,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5659920"/>
-          <a:ext cx="3153600" cy="3269880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5074,19 +4963,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865520</xdr:colOff>
+      <xdr:colOff>1865160</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
+          <a:off x="3362040" y="10725480"/>
+          <a:ext cx="6648120" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5108,7 +4997,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -5333,13 +5222,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
+      <xdr:colOff>1112400</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 1" descr=""/>
+        <xdr:cNvPr id="11" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5348,314 +5237,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11065320"/>
-          <a:ext cx="3153600" cy="3269880"/>
+          <a:off x="0" y="11065680"/>
+          <a:ext cx="3153240" cy="3269160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1321200</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1607040</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="73080">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Instructions:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>2. Default values for all parameters go in line 6</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>5. Specify motor/slit positions in columns R,S,T; leave blank for no motion</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Specify detector position in column U, blank means to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>not move</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> the detector </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Do not add rows above row 7</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>7. Do not add columns before column AE</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>8. The wheel is correctly mounted if the numbers can be read when facing the wheel</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10013040"/>
-          <a:ext cx="3153600" cy="3269880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -5686,7 +5274,7 @@
       <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -7886,74 +7474,74 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7970,12 +7558,12 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="E59" activeCellId="0" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10037,80 +9625,79 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J19 J24:J25 J28:J54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J19 J24:J25 J28:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K25 K28:K54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K25 K28:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F25 F28:F54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F25 F28:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H25 H28:H54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H25 H28:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I25 I28:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I25 I28:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10125,7 +9712,7 @@
       <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -10181,7 +9768,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="e">
         <f aca="false">_xlfn.CONCAT("Version: ",'[1]Version history'!A3)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
@@ -13360,70 +12947,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J79" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J79" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B79" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B79" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D79" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D79" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I79" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I79" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C79" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C79" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13443,7 +13030,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -13561,7 +13148,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13584,7 +13171,7 @@
       <selection pane="bottomRight" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -14826,74 +14413,74 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -14918,7 +14505,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -17205,70 +16792,70 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -17293,7 +16880,7 @@
       <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
@@ -18526,98 +18113,98 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="22">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U6" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C30" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K7:K30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K7:K30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:U30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:U30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V7:AA30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V7:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -18635,10 +18222,10 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="N52" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
       <selection pane="bottomRight" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -20649,74 +20236,74 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I10 I12:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I10 I12:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -20734,10 +20321,10 @@
   <dimension ref="B1:AD30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
       <selection pane="bottomRight" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -21890,74 +21477,74 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I10 I12:I30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I10 I12:I30" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -21974,7 +21561,7 @@
   </sheetPr>
   <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -23141,74 +22728,74 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -25280,74 +24867,74 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J19 J24:J54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J19 J24:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -25365,10 +24952,10 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
       <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -27423,74 +27010,74 @@
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J19 J24:J54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J19 J24:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="528">
   <si>
     <t xml:space="preserve">Double wheel</t>
   </si>
@@ -1544,6 +1544,9 @@
     <t xml:space="preserve">Pb</t>
   </si>
   <si>
+    <t xml:space="preserve">BMM standards collection </t>
+  </si>
+  <si>
     <t xml:space="preserve">PbO</t>
   </si>
   <si>
@@ -1580,12 +1583,18 @@
     <t xml:space="preserve">PbCl, lead chloride</t>
   </si>
   <si>
+    <t xml:space="preserve">PtRu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PtRu powder</t>
+  </si>
+  <si>
     <t xml:space="preserve">PotassiumHexaChloroPlatinate</t>
   </si>
   <si>
-    <t xml:space="preserve">Pt</t>
-  </si>
-  <si>
     <t xml:space="preserve">K2PtCl6</t>
   </si>
   <si>
@@ -1616,6 +1625,78 @@
     <t xml:space="preserve">BiF3, bismuth fluoride</t>
   </si>
   <si>
+    <t xml:space="preserve">NH4ReO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH4ReO4, Ammonium perrhenate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re_metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re metal powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReO3, Rhenium trioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReO2, Rhenium dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldSulfide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au2S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldThiocyanate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAu(SCN)4, gold potassium thocyanate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldThiomalate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4H3AuNa2O4S, gold thiomalate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldThiosulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AuH2Na3O6S4+, gold thiosulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La4LiAuO8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample courtesy Martin Stennett, University of Sheffield, see DOI: 10.1021/ic100486g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldAcetate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au(C2H3O2)3, gold scetate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au2O3, Gold oxide</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ti</t>
   </si>
   <si>
@@ -1823,12 +1904,6 @@
     <t xml:space="preserve">RheniumOxide</t>
   </si>
   <si>
-    <t xml:space="preserve">Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReO2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Osmium something</t>
   </si>
   <si>
@@ -1872,9 +1947,6 @@
   </si>
   <si>
     <t xml:space="preserve">GoldFoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au</t>
   </si>
   <si>
     <t xml:space="preserve">Au foil</t>
@@ -3226,9 +3298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>88920</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3237,8 +3309,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3367800" y="10725120"/>
-          <a:ext cx="6654240" cy="2253960"/>
+          <a:off x="3368880" y="10725120"/>
+          <a:ext cx="6655320" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3485,9 +3557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
+      <xdr:colOff>1112400</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3501,7 +3573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10722600"/>
-          <a:ext cx="3159360" cy="3269880"/>
+          <a:ext cx="3160080" cy="3269520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3527,9 +3599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3538,8 +3610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3345840" y="7834680"/>
-          <a:ext cx="6654240" cy="2253960"/>
+          <a:off x="3346920" y="7834680"/>
+          <a:ext cx="6655320" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3786,9 +3858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1156680</xdr:colOff>
+      <xdr:colOff>1156320</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3802,7 +3874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7716240"/>
-          <a:ext cx="3203280" cy="1828440"/>
+          <a:ext cx="3204000" cy="1828080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3828,9 +3900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1728360</xdr:colOff>
+      <xdr:colOff>1728000</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3839,8 +3911,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400560" y="13656600"/>
-          <a:ext cx="6654240" cy="2253960"/>
+          <a:off x="3401640" y="13656600"/>
+          <a:ext cx="6655320" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4087,9 +4159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1147320</xdr:colOff>
+      <xdr:colOff>1146960</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4103,7 +4175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158040" y="13629240"/>
-          <a:ext cx="3035880" cy="3112560"/>
+          <a:ext cx="3036600" cy="3112200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4129,9 +4201,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>322200</xdr:colOff>
+      <xdr:colOff>321840</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4145,7 +4217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7947360"/>
-          <a:ext cx="3596760" cy="2252520"/>
+          <a:ext cx="3597480" cy="2252160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4171,9 +4243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865520</xdr:colOff>
+      <xdr:colOff>1865160</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4183,7 +4255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
+          <a:ext cx="6648120" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4430,9 +4502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
+      <xdr:colOff>1112400</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4446,7 +4518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10262880"/>
-          <a:ext cx="3153600" cy="3269880"/>
+          <a:ext cx="3153240" cy="3269520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4472,9 +4544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865520</xdr:colOff>
+      <xdr:colOff>1865160</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4484,7 +4556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
+          <a:ext cx="6648120" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4731,9 +4803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
+      <xdr:colOff>1112400</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4747,7 +4819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5659920"/>
-          <a:ext cx="3153600" cy="3269880"/>
+          <a:ext cx="3153240" cy="3269520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4773,9 +4845,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865520</xdr:colOff>
+      <xdr:colOff>1865160</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4785,7 +4857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
+          <a:ext cx="6648120" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5032,9 +5104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
+      <xdr:colOff>1112400</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5048,7 +5120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5659920"/>
-          <a:ext cx="3153600" cy="3269880"/>
+          <a:ext cx="3153240" cy="3269520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5069,14 +5141,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1321200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865520</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:colOff>1606680</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5086,7 +5158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
+          <a:ext cx="6648120" cy="2253600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5324,344 +5396,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11065320"/>
-          <a:ext cx="3153600" cy="3269880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1321200</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1607040</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648480" cy="2253960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="73080">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Instructions:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>2. Default values for all parameters go in line 6</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>5. Specify motor/slit positions in columns R,S,T; leave blank for no motion</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Specify detector position in column U, blank means to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>not move</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> the detector </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Do not add rows above row 7</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>7. Do not add columns before column AE</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>8. The wheel is correctly mounted if the numbers can be read when facing the wheel</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1112760</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10013040"/>
-          <a:ext cx="3153600" cy="3269880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5679,14 +5413,14 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="1" sqref="I50:J53 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -7942,13 +7676,13 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7971,11 +7705,11 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="I50" activeCellId="0" sqref="I50:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8267,7 +8001,7 @@
         <v>292</v>
       </c>
       <c r="N6" s="116" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="O6" s="117" t="s">
         <v>56</v>
@@ -8354,7 +8088,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="128" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
@@ -8367,7 +8101,7 @@
       </c>
       <c r="K8" s="125"/>
       <c r="L8" s="128" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M8" s="128" t="s">
         <v>54</v>
@@ -8399,7 +8133,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="88"/>
@@ -8412,7 +8146,7 @@
       </c>
       <c r="K9" s="125"/>
       <c r="L9" s="106" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M9" s="128"/>
       <c r="N9" s="61" t="s">
@@ -8442,7 +8176,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
@@ -8455,7 +8189,7 @@
       </c>
       <c r="K10" s="125"/>
       <c r="L10" s="106" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M10" s="128" t="s">
         <v>54</v>
@@ -8487,7 +8221,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -8500,7 +8234,7 @@
       </c>
       <c r="K11" s="0"/>
       <c r="L11" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M11" s="128" t="s">
         <v>54</v>
@@ -8532,7 +8266,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="88"/>
@@ -8545,7 +8279,7 @@
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="131" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M12" s="128" t="s">
         <v>54</v>
@@ -8577,7 +8311,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="106" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="88"/>
@@ -8590,7 +8324,7 @@
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="131" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M13" s="128" t="s">
         <v>54</v>
@@ -9040,7 +8774,7 @@
       <c r="AA26" s="136"/>
       <c r="AB26" s="137"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="125" t="n">
         <v>21</v>
       </c>
@@ -9050,16 +8784,28 @@
       <c r="D27" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="0"/>
+      <c r="E27" s="0" t="s">
+        <v>365</v>
+      </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
+      <c r="I27" s="129" t="s">
+        <v>366</v>
+      </c>
+      <c r="J27" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
+      <c r="L27" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="M27" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="61" t="s">
+        <v>326</v>
+      </c>
       <c r="O27" s="131"/>
       <c r="P27" s="106"/>
       <c r="Q27" s="133"/>
@@ -9084,26 +8830,26 @@
         <v>5</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F28" s="88"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
       <c r="I28" s="129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J28" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K28" s="125"/>
       <c r="L28" s="142" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M28" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N28" s="132" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O28" s="131"/>
       <c r="P28" s="106"/>
@@ -9129,26 +8875,26 @@
         <v>5</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F29" s="88"/>
       <c r="G29" s="88"/>
       <c r="H29" s="88"/>
       <c r="I29" s="129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J29" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K29" s="125"/>
       <c r="L29" s="131" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M29" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N29" s="132" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O29" s="131"/>
       <c r="P29" s="106"/>
@@ -9174,26 +8920,26 @@
         <v>5</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
       <c r="I30" s="129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J30" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K30" s="125"/>
       <c r="L30" s="106" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M30" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N30" s="132" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O30" s="131"/>
       <c r="P30" s="106"/>
@@ -9252,20 +8998,20 @@
         <v>5</v>
       </c>
       <c r="E32" s="128" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F32" s="88"/>
       <c r="G32" s="88"/>
       <c r="H32" s="88"/>
       <c r="I32" s="129" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J32" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K32" s="125"/>
       <c r="L32" s="131" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M32" s="128"/>
       <c r="N32" s="61" t="s">
@@ -9295,20 +9041,20 @@
         <v>5</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F33" s="88"/>
       <c r="G33" s="88"/>
       <c r="H33" s="88"/>
       <c r="I33" s="129" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J33" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K33" s="125"/>
       <c r="L33" s="131" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M33" s="128" t="s">
         <v>54</v>
@@ -9536,15 +9282,25 @@
       <c r="D40" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="106"/>
+      <c r="E40" s="106" t="s">
+        <v>379</v>
+      </c>
       <c r="F40" s="88"/>
       <c r="G40" s="88"/>
       <c r="H40" s="88"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="130"/>
+      <c r="I40" s="129" t="s">
+        <v>380</v>
+      </c>
+      <c r="J40" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K40" s="125"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="128"/>
+      <c r="L40" s="131" t="s">
+        <v>381</v>
+      </c>
+      <c r="M40" s="128" t="s">
+        <v>54</v>
+      </c>
       <c r="N40" s="132"/>
       <c r="O40" s="131"/>
       <c r="P40" s="106"/>
@@ -9569,15 +9325,25 @@
       <c r="D41" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="106" t="s">
+        <v>382</v>
+      </c>
       <c r="F41" s="88"/>
       <c r="G41" s="88"/>
       <c r="H41" s="88"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="130"/>
+      <c r="I41" s="129" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K41" s="125"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="128"/>
+      <c r="L41" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" s="128" t="s">
+        <v>54</v>
+      </c>
       <c r="N41" s="132"/>
       <c r="O41" s="131"/>
       <c r="P41" s="106"/>
@@ -9602,14 +9368,25 @@
       <c r="D42" s="127" t="s">
         <v>5</v>
       </c>
+      <c r="E42" s="106" t="s">
+        <v>384</v>
+      </c>
       <c r="F42" s="88"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="130"/>
+      <c r="I42" s="129" t="s">
+        <v>380</v>
+      </c>
+      <c r="J42" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K42" s="125"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="128"/>
+      <c r="L42" s="131" t="s">
+        <v>385</v>
+      </c>
+      <c r="M42" s="128" t="s">
+        <v>54</v>
+      </c>
       <c r="N42" s="132"/>
       <c r="O42" s="131"/>
       <c r="P42" s="106"/>
@@ -9634,15 +9411,25 @@
       <c r="D43" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="106"/>
+      <c r="E43" s="106" t="s">
+        <v>386</v>
+      </c>
       <c r="F43" s="88"/>
       <c r="G43" s="88"/>
       <c r="H43" s="88"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="130"/>
+      <c r="I43" s="129" t="s">
+        <v>380</v>
+      </c>
+      <c r="J43" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K43" s="125"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="128"/>
+      <c r="L43" s="131" t="s">
+        <v>387</v>
+      </c>
+      <c r="M43" s="128" t="s">
+        <v>54</v>
+      </c>
       <c r="N43" s="132"/>
       <c r="O43" s="131"/>
       <c r="P43" s="106"/>
@@ -9667,15 +9454,15 @@
       <c r="D44" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="106"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="131"/>
-      <c r="M44" s="128"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="0"/>
       <c r="N44" s="132"/>
       <c r="O44" s="131"/>
       <c r="P44" s="106"/>
@@ -9700,15 +9487,15 @@
       <c r="D45" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="106"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="128"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
       <c r="N45" s="132"/>
       <c r="O45" s="131"/>
       <c r="P45" s="106"/>
@@ -9733,15 +9520,15 @@
       <c r="D46" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="106"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="131"/>
-      <c r="M46" s="128"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="0"/>
       <c r="N46" s="132"/>
       <c r="O46" s="131"/>
       <c r="P46" s="106"/>
@@ -9766,15 +9553,25 @@
       <c r="D47" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="106"/>
+      <c r="E47" s="106" t="s">
+        <v>388</v>
+      </c>
       <c r="F47" s="88"/>
       <c r="G47" s="88"/>
       <c r="H47" s="88"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="130"/>
+      <c r="I47" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K47" s="125"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="128"/>
+      <c r="L47" s="131" t="s">
+        <v>390</v>
+      </c>
+      <c r="M47" s="128" t="s">
+        <v>54</v>
+      </c>
       <c r="N47" s="132"/>
       <c r="O47" s="131"/>
       <c r="P47" s="106"/>
@@ -9789,7 +9586,7 @@
       <c r="AA47" s="136"/>
       <c r="AB47" s="137"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="125" t="n">
         <v>18</v>
       </c>
@@ -9799,15 +9596,25 @@
       <c r="D48" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="106"/>
+      <c r="E48" s="106" t="s">
+        <v>391</v>
+      </c>
       <c r="F48" s="88"/>
       <c r="G48" s="88"/>
       <c r="H48" s="88"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="130"/>
+      <c r="I48" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K48" s="125"/>
-      <c r="L48" s="131"/>
-      <c r="M48" s="128"/>
+      <c r="L48" s="142" t="s">
+        <v>392</v>
+      </c>
+      <c r="M48" s="128" t="s">
+        <v>325</v>
+      </c>
       <c r="N48" s="132"/>
       <c r="O48" s="131"/>
       <c r="P48" s="106"/>
@@ -9830,7 +9637,7 @@
         <v>101</v>
       </c>
       <c r="D49" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" s="106"/>
       <c r="F49" s="88"/>
@@ -9865,15 +9672,25 @@
       <c r="D50" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="106"/>
+      <c r="E50" s="106" t="s">
+        <v>393</v>
+      </c>
       <c r="F50" s="88"/>
       <c r="G50" s="88"/>
       <c r="H50" s="88"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="130"/>
+      <c r="I50" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K50" s="125"/>
-      <c r="L50" s="131"/>
-      <c r="M50" s="128"/>
+      <c r="L50" s="131" t="s">
+        <v>394</v>
+      </c>
+      <c r="M50" s="128" t="s">
+        <v>325</v>
+      </c>
       <c r="N50" s="132"/>
       <c r="O50" s="131"/>
       <c r="P50" s="106"/>
@@ -9898,15 +9715,25 @@
       <c r="D51" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="106"/>
+      <c r="E51" s="106" t="s">
+        <v>395</v>
+      </c>
       <c r="F51" s="88"/>
       <c r="G51" s="88"/>
       <c r="H51" s="88"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="130"/>
+      <c r="I51" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="J51" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K51" s="125"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="128"/>
+      <c r="L51" s="131" t="s">
+        <v>396</v>
+      </c>
+      <c r="M51" s="128" t="s">
+        <v>325</v>
+      </c>
       <c r="N51" s="132"/>
       <c r="O51" s="131"/>
       <c r="P51" s="106"/>
@@ -9921,7 +9748,7 @@
       <c r="AA51" s="136"/>
       <c r="AB51" s="137"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="125" t="n">
         <v>22</v>
       </c>
@@ -9931,16 +9758,26 @@
       <c r="D52" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="106"/>
+      <c r="E52" s="106" t="s">
+        <v>397</v>
+      </c>
       <c r="F52" s="88"/>
       <c r="G52" s="88"/>
       <c r="H52" s="88"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="130"/>
+      <c r="I52" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="J52" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K52" s="125"/>
-      <c r="L52" s="131"/>
+      <c r="L52" s="106" t="s">
+        <v>397</v>
+      </c>
       <c r="M52" s="128"/>
-      <c r="N52" s="132"/>
+      <c r="N52" s="61" t="s">
+        <v>398</v>
+      </c>
       <c r="O52" s="131"/>
       <c r="P52" s="106"/>
       <c r="Q52" s="133"/>
@@ -9954,7 +9791,7 @@
       <c r="AA52" s="136"/>
       <c r="AB52" s="137"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="125" t="n">
         <v>23</v>
       </c>
@@ -9964,16 +9801,26 @@
       <c r="D53" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="106"/>
+      <c r="E53" s="106" t="s">
+        <v>399</v>
+      </c>
       <c r="F53" s="88"/>
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="130"/>
+      <c r="I53" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K53" s="125"/>
-      <c r="L53" s="131"/>
+      <c r="L53" s="131" t="s">
+        <v>400</v>
+      </c>
       <c r="M53" s="106"/>
-      <c r="N53" s="132"/>
+      <c r="N53" s="61" t="s">
+        <v>140</v>
+      </c>
       <c r="O53" s="131"/>
       <c r="P53" s="106"/>
       <c r="Q53" s="133"/>
@@ -9987,7 +9834,7 @@
       <c r="AA53" s="136"/>
       <c r="AB53" s="137"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="125" t="n">
         <v>24</v>
       </c>
@@ -9997,16 +9844,26 @@
       <c r="D54" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="106"/>
+      <c r="E54" s="106" t="s">
+        <v>401</v>
+      </c>
       <c r="F54" s="88"/>
       <c r="G54" s="88"/>
       <c r="H54" s="88"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="130"/>
+      <c r="I54" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="J54" s="130" t="s">
+        <v>135</v>
+      </c>
       <c r="K54" s="125"/>
-      <c r="L54" s="131"/>
+      <c r="L54" s="131" t="s">
+        <v>402</v>
+      </c>
       <c r="M54" s="128"/>
-      <c r="N54" s="132"/>
+      <c r="N54" s="61" t="s">
+        <v>140</v>
+      </c>
       <c r="O54" s="131"/>
       <c r="P54" s="106"/>
       <c r="Q54" s="133"/>
@@ -10041,15 +9898,15 @@
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J19 J24:J25 J28:J54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J19 J24:J25 J27:J43 J47:J54" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K25 K28:K54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K25 K28:K43 K47:K54" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F25 F28:F54" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F25 F28:F43 F47:F54" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
@@ -10065,7 +9922,7 @@
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H25 H28:H54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H25 H28:H43 H47:H54" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10093,13 +9950,13 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I25 I27:I43 I47:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I25 I28:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10122,10 +9979,10 @@
   <dimension ref="B1:AD80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
+      <selection pane="topLeft" activeCell="D67" activeCellId="1" sqref="I50:J53 D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -10404,7 +10261,7 @@
         <v>225</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="J6" s="35" t="s">
         <v>51</v>
@@ -10473,26 +10330,26 @@
         <v>5</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="150" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="J7" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="54" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="M7" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N7" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="O7" s="54"/>
       <c r="P7" s="29"/>
@@ -10518,20 +10375,20 @@
         <v>5</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="150" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="J8" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="54" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="M8" s="51" t="s">
         <v>77</v>
@@ -10540,7 +10397,7 @@
         <v>140</v>
       </c>
       <c r="O8" s="64" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="55"/>
@@ -10565,20 +10422,20 @@
         <v>3</v>
       </c>
       <c r="E9" s="156" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="F9" s="153"/>
       <c r="G9" s="153"/>
       <c r="H9" s="153"/>
       <c r="I9" s="157" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="J9" s="158" t="s">
         <v>135</v>
       </c>
       <c r="K9" s="153"/>
       <c r="L9" s="159" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="M9" s="156"/>
       <c r="N9" s="160"/>
@@ -10604,7 +10461,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10623,7 +10480,7 @@
         <v>297</v>
       </c>
       <c r="N10" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="O10" s="54"/>
       <c r="P10" s="29"/>
@@ -10649,7 +10506,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10662,7 +10519,7 @@
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="54" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>77</v>
@@ -10671,7 +10528,7 @@
         <v>140</v>
       </c>
       <c r="O11" s="64" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="55"/>
@@ -10696,20 +10553,20 @@
         <v>5</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="150" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="J12" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="54" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="M12" s="51" t="s">
         <v>77</v>
@@ -10741,7 +10598,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10763,7 +10620,7 @@
         <v>140</v>
       </c>
       <c r="O13" s="64" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="55"/>
@@ -10788,7 +10645,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10801,7 +10658,7 @@
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="54" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="M14" s="51" t="s">
         <v>77</v>
@@ -10835,26 +10692,26 @@
         <v>5</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="150" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="J15" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="54" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="M15" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N15" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="O15" s="54"/>
       <c r="P15" s="29"/>
@@ -10880,20 +10737,20 @@
         <v>3</v>
       </c>
       <c r="E16" s="156" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
       <c r="H16" s="153"/>
       <c r="I16" s="157" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="J16" s="158" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K16" s="153"/>
       <c r="L16" s="159" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="M16" s="156"/>
       <c r="N16" s="160"/>
@@ -10919,7 +10776,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -10932,7 +10789,7 @@
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="54" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="M17" s="51" t="s">
         <v>77</v>
@@ -10966,7 +10823,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -10975,11 +10832,11 @@
         <v>149</v>
       </c>
       <c r="J18" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="54" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="M18" s="51" t="s">
         <v>77</v>
@@ -11011,7 +10868,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -11024,13 +10881,13 @@
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="54" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="M19" s="51" t="s">
         <v>225</v>
       </c>
       <c r="N19" s="143" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="29"/>
@@ -11056,7 +10913,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -11065,7 +10922,7 @@
         <v>134</v>
       </c>
       <c r="J20" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="54" t="s">
@@ -11101,7 +10958,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -11114,7 +10971,7 @@
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="54" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="M21" s="51" t="s">
         <v>77</v>
@@ -11148,7 +11005,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -11157,11 +11014,11 @@
         <v>170</v>
       </c>
       <c r="J22" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="54" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="M22" s="51" t="s">
         <v>77</v>
@@ -11193,7 +11050,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -11206,7 +11063,7 @@
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="54" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="M23" s="51" t="s">
         <v>77</v>
@@ -11240,7 +11097,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -11253,13 +11110,13 @@
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="54" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="M24" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N24" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="O24" s="54"/>
       <c r="P24" s="29"/>
@@ -11285,7 +11142,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -11294,11 +11151,11 @@
         <v>181</v>
       </c>
       <c r="J25" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="54" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="M25" s="51" t="s">
         <v>77</v>
@@ -11330,7 +11187,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -11343,7 +11200,7 @@
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="54" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="M26" s="51" t="s">
         <v>77</v>
@@ -11377,7 +11234,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -11390,7 +11247,7 @@
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="54" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="M27" s="51" t="s">
         <v>77</v>
@@ -11424,7 +11281,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -11437,13 +11294,13 @@
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="54" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="M28" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N28" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="O28" s="54"/>
       <c r="P28" s="29"/>
@@ -11469,7 +11326,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -11478,11 +11335,11 @@
         <v>151</v>
       </c>
       <c r="J29" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="54" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="M29" s="51" t="s">
         <v>77</v>
@@ -11514,7 +11371,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -11527,7 +11384,7 @@
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="54" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="M30" s="51" t="s">
         <v>77</v>
@@ -11561,7 +11418,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -11570,11 +11427,11 @@
         <v>155</v>
       </c>
       <c r="J31" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="54" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="M31" s="51" t="s">
         <v>77</v>
@@ -11606,7 +11463,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -11619,7 +11476,7 @@
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="54" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="M32" s="51" t="s">
         <v>77</v>
@@ -11653,7 +11510,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -11666,13 +11523,13 @@
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="54" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="M33" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N33" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="O33" s="54"/>
       <c r="P33" s="29"/>
@@ -11698,7 +11555,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -11743,7 +11600,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -11752,11 +11609,11 @@
         <v>165</v>
       </c>
       <c r="J35" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="54" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="M35" s="51" t="s">
         <v>77</v>
@@ -11788,7 +11645,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -11801,7 +11658,7 @@
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="54" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="M36" s="51" t="s">
         <v>77</v>
@@ -11833,7 +11690,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -11842,11 +11699,11 @@
         <v>187</v>
       </c>
       <c r="J37" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="54" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="M37" s="51" t="s">
         <v>77</v>
@@ -11878,7 +11735,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -11923,7 +11780,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -11936,13 +11793,13 @@
       </c>
       <c r="K39" s="48"/>
       <c r="L39" s="54" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="M39" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N39" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="O39" s="54"/>
       <c r="P39" s="29"/>
@@ -11968,7 +11825,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -11977,11 +11834,11 @@
         <v>190</v>
       </c>
       <c r="J40" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K40" s="48"/>
       <c r="L40" s="54" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="M40" s="51" t="s">
         <v>77</v>
@@ -12013,7 +11870,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -12026,7 +11883,7 @@
       </c>
       <c r="K41" s="48"/>
       <c r="L41" s="54" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="M41" s="51" t="s">
         <v>77</v>
@@ -12058,7 +11915,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -12067,11 +11924,11 @@
         <v>193</v>
       </c>
       <c r="J42" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K42" s="48"/>
       <c r="L42" s="54" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="M42" s="51" t="s">
         <v>77</v>
@@ -12103,20 +11960,20 @@
         <v>5</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="150" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="J43" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K43" s="48"/>
       <c r="L43" s="54" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="M43" s="51" t="s">
         <v>77</v>
@@ -12148,7 +12005,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -12161,13 +12018,13 @@
       </c>
       <c r="K44" s="48"/>
       <c r="L44" s="54" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="M44" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N44" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="O44" s="54"/>
       <c r="P44" s="29"/>
@@ -12193,7 +12050,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -12202,7 +12059,7 @@
         <v>159</v>
       </c>
       <c r="J45" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="54" t="s">
@@ -12238,20 +12095,20 @@
         <v>5</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="150" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="J46" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="54" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="M46" s="51" t="s">
         <v>77</v>
@@ -12283,7 +12140,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -12292,11 +12149,11 @@
         <v>197</v>
       </c>
       <c r="J47" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K47" s="48"/>
       <c r="L47" s="54" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="M47" s="51" t="s">
         <v>77</v>
@@ -12328,20 +12185,20 @@
         <v>5</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="150" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="J48" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K48" s="48"/>
       <c r="L48" s="54" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="M48" s="51" t="s">
         <v>77</v>
@@ -12373,20 +12230,20 @@
         <v>5</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="150" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="J49" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K49" s="48"/>
       <c r="L49" s="54" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="M49" s="51" t="s">
         <v>77</v>
@@ -12418,7 +12275,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -12427,7 +12284,7 @@
         <v>162</v>
       </c>
       <c r="J50" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K50" s="48"/>
       <c r="L50" s="54" t="s">
@@ -12463,20 +12320,20 @@
         <v>5</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="150" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="J51" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K51" s="48"/>
       <c r="L51" s="54" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="M51" s="143" t="s">
         <v>54</v>
@@ -12506,7 +12363,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -12515,11 +12372,11 @@
         <v>201</v>
       </c>
       <c r="J52" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="K52" s="48"/>
       <c r="L52" s="54" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="M52" s="51" t="s">
         <v>77</v>
@@ -12551,20 +12408,20 @@
         <v>3</v>
       </c>
       <c r="E53" s="156" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="F53" s="153"/>
       <c r="G53" s="153"/>
       <c r="H53" s="153"/>
       <c r="I53" s="157" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="J53" s="158" t="s">
         <v>135</v>
       </c>
       <c r="K53" s="153"/>
       <c r="L53" s="159" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="M53" s="161"/>
       <c r="N53" s="160"/>
@@ -12590,20 +12447,20 @@
         <v>5</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="150" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="J54" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K54" s="48"/>
       <c r="L54" s="54" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="M54" s="51" t="s">
         <v>77</v>
@@ -12635,16 +12492,16 @@
         <v>3</v>
       </c>
       <c r="E55" s="156" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="I55" s="157" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="J55" s="158" t="s">
         <v>135</v>
       </c>
       <c r="L55" s="152" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="N55" s="163"/>
       <c r="V55" s="164"/>
@@ -12665,16 +12522,16 @@
         <v>5</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="I56" s="150" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="J56" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L56" s="54" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="M56" s="51" t="s">
         <v>77</v>
@@ -12694,22 +12551,22 @@
         <v>5</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="I57" s="150" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J57" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="M57" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N57" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12723,16 +12580,16 @@
         <v>5</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="I58" s="150" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="J58" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L58" s="54" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="M58" s="51" t="s">
         <v>77</v>
@@ -12752,16 +12609,16 @@
         <v>5</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="I59" s="150" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="J59" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="M59" s="143" t="s">
         <v>54</v>
@@ -12778,22 +12635,22 @@
         <v>5</v>
       </c>
       <c r="E60" s="51" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="I60" s="150" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="J60" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="M60" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N60" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12807,16 +12664,16 @@
         <v>5</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="I61" s="150" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="J61" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L61" s="54" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="M61" s="51" t="s">
         <v>77</v>
@@ -12836,16 +12693,16 @@
         <v>5</v>
       </c>
       <c r="E62" s="51" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="I62" s="150" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="J62" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L62" s="54" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="M62" s="143" t="s">
         <v>54</v>
@@ -12862,16 +12719,16 @@
         <v>5</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="I63" s="150" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="J63" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="M63" s="51" t="s">
         <v>77</v>
@@ -12891,16 +12748,16 @@
         <v>3</v>
       </c>
       <c r="E64" s="156" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="I64" s="157" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="J64" s="158" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L64" s="159" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="N64" s="163"/>
       <c r="V64" s="164"/>
@@ -12921,7 +12778,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="I65" s="150" t="s">
         <v>351</v>
@@ -12930,13 +12787,13 @@
         <v>135</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="M65" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N65" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12950,16 +12807,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="I66" s="150" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J66" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="M66" s="143" t="s">
         <v>54</v>
@@ -12977,16 +12834,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="156" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="I67" s="157" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="J67" s="158" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L67" s="152" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="N67" s="163"/>
       <c r="V67" s="164"/>
@@ -13007,22 +12864,22 @@
         <v>5</v>
       </c>
       <c r="E68" s="51" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="I68" s="150" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="J68" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="N68" s="61" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13036,16 +12893,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="51" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="I69" s="150" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J69" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="M69" s="51" t="s">
         <v>297</v>
@@ -13062,16 +12919,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="51" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="I70" s="150" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="J70" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="M70" s="51" t="s">
         <v>297</v>
@@ -13088,16 +12945,16 @@
         <v>5</v>
       </c>
       <c r="E71" s="51" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="I71" s="150" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="J71" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="M71" s="51" t="s">
         <v>77</v>
@@ -13117,22 +12974,22 @@
         <v>5</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="I72" s="150" t="s">
         <v>351</v>
       </c>
       <c r="J72" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="M72" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N72" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13146,7 +13003,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="51" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="I73" s="150" t="s">
         <v>230</v>
@@ -13175,16 +13032,16 @@
         <v>5</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="I74" s="150" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J74" s="151" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="M74" s="143" t="s">
         <v>54</v>
@@ -13201,7 +13058,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="51" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="I75" s="150" t="s">
         <v>337</v>
@@ -13210,7 +13067,7 @@
         <v>51</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="M75" s="51" t="s">
         <v>77</v>
@@ -13230,7 +13087,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="51" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="I76" s="150" t="s">
         <v>316</v>
@@ -13239,13 +13096,13 @@
         <v>51</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="M76" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N76" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13259,7 +13116,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="51" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="I77" s="150" t="s">
         <v>340</v>
@@ -13268,13 +13125,13 @@
         <v>51</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="M77" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N77" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13288,7 +13145,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="51" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="I78" s="150" t="s">
         <v>328</v>
@@ -13297,13 +13154,13 @@
         <v>51</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="M78" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N78" s="143" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" s="165" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13317,16 +13174,16 @@
         <v>3</v>
       </c>
       <c r="E79" s="169" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="I79" s="170" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="J79" s="171" t="s">
         <v>51</v>
       </c>
       <c r="L79" s="165" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="M79" s="172" t="s">
         <v>77</v>
@@ -13440,10 +13297,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I50:J53 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -13451,12 +13308,12 @@
   <sheetData>
     <row r="1" s="176" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="B2" s="176"/>
     </row>
@@ -13472,10 +13329,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="B5" s="176" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13483,7 +13340,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13491,7 +13348,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13499,7 +13356,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13507,7 +13364,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13515,7 +13372,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13523,7 +13380,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13531,7 +13388,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13539,7 +13396,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13547,7 +13404,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13555,7 +13412,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -13581,10 +13438,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N22" activeCellId="0" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="N22" activeCellId="1" sqref="I50:J53 N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -14915,10 +14772,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="1" sqref="I50:J53 F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -17290,10 +17147,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="1" sqref="I50:J53 F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
@@ -18639,7 +18496,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="E19" activeCellId="1" sqref="I50:J53 E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20705,13 +20562,13 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I10 I12:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I10 I12:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -20738,7 +20595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="F29" activeCellId="1" sqref="I50:J53 F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21946,18 +21803,18 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I10 I12:I30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I10 I12:I30" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -21979,7 +21836,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="L12" activeCellId="1" sqref="I50:J53 L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23197,18 +23054,18 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I30" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -23226,11 +23083,11 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="E54" activeCellId="1" sqref="I50:J53 E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25240,7 +25097,7 @@
       <c r="D54" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="106"/>
+      <c r="E54" s="0"/>
       <c r="F54" s="88"/>
       <c r="G54" s="88"/>
       <c r="H54" s="88"/>
@@ -25336,13 +25193,13 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -25352,8 +25209,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25369,7 +25225,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="I8" activeCellId="1" sqref="I50:J53 I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27479,13 +27335,13 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -3298,9 +3298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>88200</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3309,8 +3309,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3368880" y="10725120"/>
-          <a:ext cx="6655320" cy="2253600"/>
+          <a:off x="3369600" y="10725120"/>
+          <a:ext cx="6655680" cy="2253240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3557,9 +3557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112400</xdr:colOff>
+      <xdr:colOff>1112040</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3573,7 +3573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10722600"/>
-          <a:ext cx="3160080" cy="3269520"/>
+          <a:ext cx="3160440" cy="3269160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3599,9 +3599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3610,8 +3610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3346920" y="7834680"/>
-          <a:ext cx="6655320" cy="2253600"/>
+          <a:off x="3347640" y="7834680"/>
+          <a:ext cx="6655680" cy="2253240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3858,9 +3858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1156320</xdr:colOff>
+      <xdr:colOff>1155960</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3874,7 +3874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7716240"/>
-          <a:ext cx="3204000" cy="1828080"/>
+          <a:ext cx="3204360" cy="1827720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3900,9 +3900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1728000</xdr:colOff>
+      <xdr:colOff>1727640</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3911,8 +3911,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3401640" y="13656600"/>
-          <a:ext cx="6655320" cy="2253600"/>
+          <a:off x="3402360" y="13656600"/>
+          <a:ext cx="6655680" cy="2253240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4159,9 +4159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1146960</xdr:colOff>
+      <xdr:colOff>1146600</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4175,7 +4175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158040" y="13629240"/>
-          <a:ext cx="3036600" cy="3112200"/>
+          <a:ext cx="3036960" cy="3111840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4201,9 +4201,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>321840</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4217,7 +4217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7947360"/>
-          <a:ext cx="3597480" cy="2252160"/>
+          <a:ext cx="3598560" cy="2251800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4238,14 +4238,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1321200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865160</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:colOff>1864800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4255,7 +4255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648120" cy="2253600"/>
+          <a:ext cx="6647760" cy="2253240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4493,43 +4493,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1112400</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10262880"/>
-          <a:ext cx="3153240" cy="3269520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4544,621 +4507,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1865160</xdr:colOff>
+      <xdr:colOff>1864800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648120" cy="2253600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="73080">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Instructions:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>2. Default values for all parameters go in line 6</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>5. Specify motor/slit positions in columns R,S,T; leave blank for no motion</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Specify detector position in column U, blank means to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>not move</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> the detector </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Do not add rows above row 7</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>7. Do not add columns before column AE</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>8. The wheel is correctly mounted if the numbers can be read when facing the wheel</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1112400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5659920"/>
-          <a:ext cx="3153240" cy="3269520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1321200</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1865160</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648120" cy="2253600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="73080">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Instructions:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>2. Default values for all parameters go in line 6</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>5. Specify motor/slit positions in columns R,S,T; leave blank for no motion</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Specify detector position in column U, blank means to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>not move</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> the detector </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. Do not add rows above row 7</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>7. Do not add columns before column AE</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>8. The wheel is correctly mounted if the numbers can be read when facing the wheel</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1112400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5659920"/>
-          <a:ext cx="3153240" cy="3269520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1321200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1606680</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6648120" cy="2253600"/>
+          <a:ext cx="6647760" cy="2253240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5413,14 +4774,14 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="1" sqref="I50:J53 M2"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -7705,11 +7066,11 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="I50" activeCellId="0" sqref="I50:J53"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="I50" activeCellId="0" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9966,8 +9327,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9978,11 +9338,11 @@
   </sheetPr>
   <dimension ref="B1:AD80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D67" activeCellId="1" sqref="I50:J53 D67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -13297,10 +12657,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I50:J53 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -13438,10 +12798,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N22" activeCellId="1" sqref="I50:J53 N22"/>
+      <selection pane="bottomRight" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -14768,14 +14128,14 @@
   <dimension ref="B1:AF54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="1" sqref="I50:J53 F7"/>
+      <selection pane="bottomLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -17143,14 +16503,14 @@
   <dimension ref="B1:AE30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="1" sqref="I50:J53 F10"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
@@ -18492,11 +17852,11 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="N25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E19" activeCellId="1" sqref="I50:J53 E19"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20578,8 +19938,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20591,11 +19950,11 @@
   <dimension ref="B1:AD30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F29" activeCellId="1" sqref="I50:J53 F29"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21836,7 +21195,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L12" activeCellId="1" sqref="I50:J53 L12"/>
+      <selection pane="bottomRight" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23083,11 +22442,11 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="E54" activeCellId="1" sqref="I50:J53 E54"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25221,11 +24580,11 @@
   <dimension ref="B1:AD54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I8" activeCellId="1" sqref="I50:J53 I8"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Fe" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,13 +16,14 @@
     <sheet name="Co" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Ni" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Cu+Zn" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="4d_metals" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="5d_metals" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="all_references" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Version history" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="As+Se" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="4d_metals" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="5d_metals" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="all_references" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Version history" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -106,6 +107,42 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author> </author>
@@ -486,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="550">
   <si>
     <t xml:space="preserve">Double wheel</t>
   </si>
@@ -1436,6 +1473,84 @@
     <t xml:space="preserve">Ca2ZnSi2O7</t>
   </si>
   <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PotassiumAresenate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3AsO4.12H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample courtesy Evan Jahrman, NIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArsenicTrioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArsenicPentoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As2O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SodiumMetaArsenite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaAsO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisodiumMethylArsenate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH3AsNa2O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realgar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder + BN in plastic frame, courtesy of Sarah Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacodylicAcid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2H7AsO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TetramethylArsoniumIodide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4H12AsI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArsenoBetaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5H11AsO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orpament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As2S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeleniumOxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeO2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zr</t>
   </si>
   <si>
@@ -1937,15 +2052,6 @@
     <t xml:space="preserve">Pt foil</t>
   </si>
   <si>
-    <t xml:space="preserve">ArsenicTrioxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As2O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">GoldFoil</t>
   </si>
   <si>
@@ -1953,9 +2059,6 @@
   </si>
   <si>
     <t xml:space="preserve">SeleniumMetal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se</t>
   </si>
   <si>
     <t xml:space="preserve">Se metal powder</t>
@@ -3298,9 +3401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>88200</xdr:colOff>
+      <xdr:colOff>87120</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3309,8 +3412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3369600" y="10725120"/>
-          <a:ext cx="6655680" cy="2253240"/>
+          <a:off x="3372120" y="10725120"/>
+          <a:ext cx="6657120" cy="2252160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3557,9 +3660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112040</xdr:colOff>
+      <xdr:colOff>1110960</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3573,7 +3676,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10722600"/>
-          <a:ext cx="3160440" cy="3269160"/>
+          <a:ext cx="3161880" cy="3268080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3599,9 +3702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3610,8 +3713,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3347640" y="7834680"/>
-          <a:ext cx="6655680" cy="2253240"/>
+          <a:off x="3350160" y="7834680"/>
+          <a:ext cx="6657120" cy="2252160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3858,9 +3961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1155960</xdr:colOff>
+      <xdr:colOff>1154880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3874,7 +3977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7716240"/>
-          <a:ext cx="3204360" cy="1827720"/>
+          <a:ext cx="3205800" cy="1826640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3900,9 +4003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1727640</xdr:colOff>
+      <xdr:colOff>1726560</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3911,8 +4014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3402360" y="13656600"/>
-          <a:ext cx="6655680" cy="2253240"/>
+          <a:off x="3404880" y="13656600"/>
+          <a:ext cx="6657120" cy="2252160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4159,9 +4262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1146600</xdr:colOff>
+      <xdr:colOff>1145520</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4175,7 +4278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158040" y="13629240"/>
-          <a:ext cx="3036960" cy="3111840"/>
+          <a:ext cx="3038400" cy="3110760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4201,9 +4304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
+      <xdr:colOff>320400</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4217,7 +4320,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7947360"/>
-          <a:ext cx="3598560" cy="2251800"/>
+          <a:ext cx="3600720" cy="2250720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4243,9 +4346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1864800</xdr:colOff>
+      <xdr:colOff>1863720</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4255,7 +4358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6647760" cy="2253240"/>
+          <a:ext cx="6646680" cy="2252160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4507,9 +4610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1864800</xdr:colOff>
+      <xdr:colOff>1863720</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4519,7 +4622,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6647760" cy="2253240"/>
+          <a:ext cx="6646680" cy="2252160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4781,7 +4884,7 @@
       <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -7065,7 +7168,2149 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="74" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="74" width="8.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="74" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="74" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="74" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="74" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="74" width="13.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="74" width="8.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="74" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="74" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="74" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="75" width="40.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="74" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="74" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="74" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="76" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="74" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="74" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="74" width="24.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="31" style="74" width="8.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+    </row>
+    <row r="2" s="74" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="80" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 10</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="F2" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="86"/>
+      <c r="AA2" s="86"/>
+    </row>
+    <row r="3" s="74" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="86"/>
+      <c r="AA3" s="86"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+    </row>
+    <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" s="106" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>342</v>
+      </c>
+      <c r="J6" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="115" t="s">
+        <v>292</v>
+      </c>
+      <c r="N6" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="120"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="121" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="122" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="122" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="122" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="122" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="123" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="128"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="133"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="137"/>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="128" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="129" t="s">
+        <v>342</v>
+      </c>
+      <c r="J8" s="130"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="M8" s="128"/>
+      <c r="N8" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" s="0"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="133"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="135"/>
+      <c r="X8" s="135"/>
+      <c r="Y8" s="135"/>
+      <c r="Z8" s="135"/>
+      <c r="AA8" s="136"/>
+      <c r="AB8" s="137"/>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="129" t="s">
+        <v>342</v>
+      </c>
+      <c r="J9" s="130"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="131" t="s">
+        <v>346</v>
+      </c>
+      <c r="M9" s="128"/>
+      <c r="N9" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O9" s="0"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="133"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="136"/>
+      <c r="AB9" s="137"/>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="129" t="s">
+        <v>342</v>
+      </c>
+      <c r="J10" s="130"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="131" t="s">
+        <v>348</v>
+      </c>
+      <c r="M10" s="128"/>
+      <c r="N10" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="0"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="133"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="136"/>
+      <c r="AB10" s="137"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="129" t="s">
+        <v>342</v>
+      </c>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="131" t="s">
+        <v>350</v>
+      </c>
+      <c r="M11" s="128" t="s">
+        <v>351</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="O11" s="0"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="133"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="137"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="133"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="136"/>
+      <c r="AB12" s="137"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="106"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="133"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="137"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="125" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="106"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="133"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="136"/>
+      <c r="AB14" s="137"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="125" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="140"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="133"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="137"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="125" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="106"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="133"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="137"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="125" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="106"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="133"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="136"/>
+      <c r="AB17" s="137"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="125" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="106"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="133"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="136"/>
+      <c r="AB18" s="137"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="125" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="106"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="133"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="136"/>
+      <c r="AB19" s="137"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="125" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="133"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="136"/>
+      <c r="AB20" s="137"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="125" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="133"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="136"/>
+      <c r="AB21" s="137"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="125" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="133"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="136"/>
+      <c r="AB22" s="137"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="125" t="n">
+        <v>17</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="133"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="136"/>
+      <c r="AB23" s="137"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="125" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="106"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="133"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="137"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="125" t="n">
+        <v>19</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="106"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="133"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="136"/>
+      <c r="AB25" s="137"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="125" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="106"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="133"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="136"/>
+      <c r="AB26" s="137"/>
+    </row>
+    <row r="27" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="125" t="n">
+        <v>21</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>353</v>
+      </c>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="129" t="s">
+        <v>354</v>
+      </c>
+      <c r="J27" s="130"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="131" t="s">
+        <v>355</v>
+      </c>
+      <c r="M27" s="128"/>
+      <c r="N27" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O27" s="131"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="133"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="136"/>
+      <c r="AB27" s="137"/>
+    </row>
+    <row r="28" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="106" t="s">
+        <v>356</v>
+      </c>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="129" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" s="130"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="131" t="s">
+        <v>357</v>
+      </c>
+      <c r="M28" s="128"/>
+      <c r="N28" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O28" s="131"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="133"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="136"/>
+      <c r="AB28" s="137"/>
+    </row>
+    <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="125" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>358</v>
+      </c>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="129" t="s">
+        <v>354</v>
+      </c>
+      <c r="J29" s="130"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="131" t="s">
+        <v>359</v>
+      </c>
+      <c r="M29" s="106"/>
+      <c r="N29" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O29" s="131"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="133"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="136"/>
+      <c r="AB29" s="137"/>
+    </row>
+    <row r="30" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="125" t="n">
+        <v>24</v>
+      </c>
+      <c r="C30" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="129" t="s">
+        <v>354</v>
+      </c>
+      <c r="J30" s="130"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="131" t="s">
+        <v>361</v>
+      </c>
+      <c r="M30" s="106"/>
+      <c r="N30" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O30" s="131"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="133"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="137"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="128"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="133"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="136"/>
+      <c r="AB31" s="137"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="128"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="133"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="136"/>
+      <c r="AB32" s="137"/>
+    </row>
+    <row r="33" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="129" t="s">
+        <v>363</v>
+      </c>
+      <c r="J33" s="130"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="131" t="s">
+        <v>364</v>
+      </c>
+      <c r="M33" s="128"/>
+      <c r="N33" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O33" s="131"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="133"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="136"/>
+      <c r="AB33" s="137"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="106"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="133"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="134"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="135"/>
+      <c r="X34" s="135"/>
+      <c r="Y34" s="135"/>
+      <c r="Z34" s="135"/>
+      <c r="AA34" s="136"/>
+      <c r="AB34" s="137"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="106"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="133"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="134"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="135"/>
+      <c r="X35" s="135"/>
+      <c r="Y35" s="135"/>
+      <c r="Z35" s="135"/>
+      <c r="AA35" s="136"/>
+      <c r="AB35" s="137"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="106"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="133"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="135"/>
+      <c r="X36" s="135"/>
+      <c r="Y36" s="135"/>
+      <c r="Z36" s="135"/>
+      <c r="AA36" s="136"/>
+      <c r="AB36" s="137"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="106"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="133"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="134"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="135"/>
+      <c r="X37" s="135"/>
+      <c r="Y37" s="135"/>
+      <c r="Z37" s="135"/>
+      <c r="AA37" s="136"/>
+      <c r="AB37" s="137"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="125" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="133"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="127"/>
+      <c r="W38" s="135"/>
+      <c r="X38" s="135"/>
+      <c r="Y38" s="135"/>
+      <c r="Z38" s="135"/>
+      <c r="AA38" s="136"/>
+      <c r="AB38" s="137"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="125" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="106"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="133"/>
+      <c r="T39" s="87"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="127"/>
+      <c r="W39" s="135"/>
+      <c r="X39" s="135"/>
+      <c r="Y39" s="135"/>
+      <c r="Z39" s="135"/>
+      <c r="AA39" s="136"/>
+      <c r="AB39" s="137"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="125" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="106"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="133"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="127"/>
+      <c r="W40" s="135"/>
+      <c r="X40" s="135"/>
+      <c r="Y40" s="135"/>
+      <c r="Z40" s="135"/>
+      <c r="AA40" s="136"/>
+      <c r="AB40" s="137"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="125" t="n">
+        <v>11</v>
+      </c>
+      <c r="C41" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="106"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="133"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="134"/>
+      <c r="V41" s="127"/>
+      <c r="W41" s="135"/>
+      <c r="X41" s="135"/>
+      <c r="Y41" s="135"/>
+      <c r="Z41" s="135"/>
+      <c r="AA41" s="136"/>
+      <c r="AB41" s="137"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="125" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="133"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="134"/>
+      <c r="V42" s="127"/>
+      <c r="W42" s="135"/>
+      <c r="X42" s="135"/>
+      <c r="Y42" s="135"/>
+      <c r="Z42" s="135"/>
+      <c r="AA42" s="136"/>
+      <c r="AB42" s="137"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="125" t="n">
+        <v>13</v>
+      </c>
+      <c r="C43" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="106"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="133"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="134"/>
+      <c r="V43" s="127"/>
+      <c r="W43" s="135"/>
+      <c r="X43" s="135"/>
+      <c r="Y43" s="135"/>
+      <c r="Z43" s="135"/>
+      <c r="AA43" s="136"/>
+      <c r="AB43" s="137"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="125" t="n">
+        <v>14</v>
+      </c>
+      <c r="C44" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="106"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="131"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="131"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="133"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="127"/>
+      <c r="W44" s="135"/>
+      <c r="X44" s="135"/>
+      <c r="Y44" s="135"/>
+      <c r="Z44" s="135"/>
+      <c r="AA44" s="136"/>
+      <c r="AB44" s="137"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="125" t="n">
+        <v>15</v>
+      </c>
+      <c r="C45" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="106"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="131"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="131"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="133"/>
+      <c r="T45" s="87"/>
+      <c r="U45" s="134"/>
+      <c r="V45" s="127"/>
+      <c r="W45" s="135"/>
+      <c r="X45" s="135"/>
+      <c r="Y45" s="135"/>
+      <c r="Z45" s="135"/>
+      <c r="AA45" s="136"/>
+      <c r="AB45" s="137"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="125" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="106"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="131"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="131"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="133"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="134"/>
+      <c r="V46" s="127"/>
+      <c r="W46" s="135"/>
+      <c r="X46" s="135"/>
+      <c r="Y46" s="135"/>
+      <c r="Z46" s="135"/>
+      <c r="AA46" s="136"/>
+      <c r="AB46" s="137"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="125" t="n">
+        <v>17</v>
+      </c>
+      <c r="C47" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="106"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="133"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="134"/>
+      <c r="V47" s="127"/>
+      <c r="W47" s="135"/>
+      <c r="X47" s="135"/>
+      <c r="Y47" s="135"/>
+      <c r="Z47" s="135"/>
+      <c r="AA47" s="136"/>
+      <c r="AB47" s="137"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="125" t="n">
+        <v>18</v>
+      </c>
+      <c r="C48" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="106"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="133"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="134"/>
+      <c r="V48" s="127"/>
+      <c r="W48" s="135"/>
+      <c r="X48" s="135"/>
+      <c r="Y48" s="135"/>
+      <c r="Z48" s="135"/>
+      <c r="AA48" s="136"/>
+      <c r="AB48" s="137"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="125" t="n">
+        <v>19</v>
+      </c>
+      <c r="C49" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="106"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="133"/>
+      <c r="T49" s="87"/>
+      <c r="U49" s="134"/>
+      <c r="V49" s="127"/>
+      <c r="W49" s="135"/>
+      <c r="X49" s="135"/>
+      <c r="Y49" s="135"/>
+      <c r="Z49" s="135"/>
+      <c r="AA49" s="136"/>
+      <c r="AB49" s="137"/>
+    </row>
+    <row r="50" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="125" t="n">
+        <v>20</v>
+      </c>
+      <c r="C50" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="129" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" s="130"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="131" t="s">
+        <v>367</v>
+      </c>
+      <c r="M50" s="128"/>
+      <c r="N50" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O50" s="131"/>
+      <c r="P50" s="106"/>
+      <c r="Q50" s="133"/>
+      <c r="T50" s="87"/>
+      <c r="U50" s="134"/>
+      <c r="V50" s="127"/>
+      <c r="W50" s="135"/>
+      <c r="X50" s="135"/>
+      <c r="Y50" s="135"/>
+      <c r="Z50" s="135"/>
+      <c r="AA50" s="136"/>
+      <c r="AB50" s="137"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="125" t="n">
+        <v>21</v>
+      </c>
+      <c r="C51" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="106" t="s">
+        <v>368</v>
+      </c>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="129" t="s">
+        <v>366</v>
+      </c>
+      <c r="J51" s="130"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="131" t="s">
+        <v>369</v>
+      </c>
+      <c r="M51" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" s="132" t="s">
+        <v>370</v>
+      </c>
+      <c r="O51" s="131"/>
+      <c r="P51" s="106"/>
+      <c r="Q51" s="133"/>
+      <c r="T51" s="87"/>
+      <c r="U51" s="134"/>
+      <c r="V51" s="127"/>
+      <c r="W51" s="135"/>
+      <c r="X51" s="135"/>
+      <c r="Y51" s="135"/>
+      <c r="Z51" s="135"/>
+      <c r="AA51" s="136"/>
+      <c r="AB51" s="137"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="125" t="n">
+        <v>22</v>
+      </c>
+      <c r="C52" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="106" t="s">
+        <v>371</v>
+      </c>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="129" t="s">
+        <v>366</v>
+      </c>
+      <c r="J52" s="130"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="131" t="s">
+        <v>372</v>
+      </c>
+      <c r="M52" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="N52" s="132" t="s">
+        <v>370</v>
+      </c>
+      <c r="O52" s="131"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="133"/>
+      <c r="T52" s="87"/>
+      <c r="U52" s="134"/>
+      <c r="V52" s="127"/>
+      <c r="W52" s="135"/>
+      <c r="X52" s="135"/>
+      <c r="Y52" s="135"/>
+      <c r="Z52" s="135"/>
+      <c r="AA52" s="136"/>
+      <c r="AB52" s="137"/>
+    </row>
+    <row r="53" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="125" t="n">
+        <v>23</v>
+      </c>
+      <c r="C53" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="129" t="s">
+        <v>366</v>
+      </c>
+      <c r="J53" s="130"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="131" t="s">
+        <v>374</v>
+      </c>
+      <c r="M53" s="106"/>
+      <c r="N53" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="O53" s="131"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="133"/>
+      <c r="T53" s="87"/>
+      <c r="U53" s="134"/>
+      <c r="V53" s="127"/>
+      <c r="W53" s="135"/>
+      <c r="X53" s="135"/>
+      <c r="Y53" s="135"/>
+      <c r="Z53" s="135"/>
+      <c r="AA53" s="136"/>
+      <c r="AB53" s="137"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="125" t="n">
+        <v>24</v>
+      </c>
+      <c r="C54" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="129" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" s="130"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="131" t="s">
+        <v>376</v>
+      </c>
+      <c r="M54" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="N54" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="O54" s="131"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="133"/>
+      <c r="T54" s="87"/>
+      <c r="U54" s="134"/>
+      <c r="V54" s="127"/>
+      <c r="W54" s="135"/>
+      <c r="X54" s="135"/>
+      <c r="Y54" s="135"/>
+      <c r="Z54" s="135"/>
+      <c r="AA54" s="136"/>
+      <c r="AB54" s="137"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+  </mergeCells>
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J19 J24:J54" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K54" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F54" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H54" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+      <formula1>"Outer,Inner,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:AD54"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -7347,7 +9592,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J6" s="112" t="s">
         <v>135</v>
@@ -7362,7 +9607,7 @@
         <v>292</v>
       </c>
       <c r="N6" s="116" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="O6" s="117" t="s">
         <v>56</v>
@@ -7449,26 +9694,26 @@
         <v>5</v>
       </c>
       <c r="E8" s="128" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
       <c r="H8" s="88"/>
       <c r="I8" s="129" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J8" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K8" s="125"/>
       <c r="L8" s="128" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="M8" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N8" s="61" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="O8" s="131"/>
       <c r="P8" s="106"/>
@@ -7494,20 +9739,20 @@
         <v>5</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="88"/>
       <c r="H9" s="88"/>
       <c r="I9" s="129" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J9" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K9" s="125"/>
       <c r="L9" s="106" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="M9" s="128"/>
       <c r="N9" s="61" t="s">
@@ -7537,26 +9782,26 @@
         <v>5</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="129" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J10" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K10" s="125"/>
       <c r="L10" s="106" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="M10" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N10" s="61" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="O10" s="131"/>
       <c r="P10" s="106"/>
@@ -7582,26 +9827,26 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="129" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J11" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K11" s="0"/>
       <c r="L11" s="0" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="M11" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N11" s="61" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="O11" s="131"/>
       <c r="P11" s="106"/>
@@ -7627,26 +9872,26 @@
         <v>5</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="88"/>
       <c r="H12" s="88"/>
       <c r="I12" s="129" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J12" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="131" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="M12" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="O12" s="131"/>
       <c r="P12" s="106"/>
@@ -7672,26 +9917,26 @@
         <v>5</v>
       </c>
       <c r="E13" s="106" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="88"/>
       <c r="H13" s="88"/>
       <c r="I13" s="129" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J13" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="131" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="M13" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="O13" s="131"/>
       <c r="P13" s="106"/>
@@ -8146,26 +10391,26 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="129" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="J27" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="0" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="M27" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="O27" s="131"/>
       <c r="P27" s="106"/>
@@ -8191,26 +10436,26 @@
         <v>5</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="F28" s="88"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
       <c r="I28" s="129" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="J28" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K28" s="125"/>
       <c r="L28" s="142" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="M28" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N28" s="132" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="O28" s="131"/>
       <c r="P28" s="106"/>
@@ -8236,26 +10481,26 @@
         <v>5</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="F29" s="88"/>
       <c r="G29" s="88"/>
       <c r="H29" s="88"/>
       <c r="I29" s="129" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="J29" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K29" s="125"/>
       <c r="L29" s="131" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="M29" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N29" s="132" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="O29" s="131"/>
       <c r="P29" s="106"/>
@@ -8281,26 +10526,26 @@
         <v>5</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
       <c r="I30" s="129" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="J30" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K30" s="125"/>
       <c r="L30" s="106" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="M30" s="128" t="s">
         <v>54</v>
       </c>
       <c r="N30" s="132" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="O30" s="131"/>
       <c r="P30" s="106"/>
@@ -8359,20 +10604,20 @@
         <v>5</v>
       </c>
       <c r="E32" s="128" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="F32" s="88"/>
       <c r="G32" s="88"/>
       <c r="H32" s="88"/>
       <c r="I32" s="129" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="J32" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K32" s="125"/>
       <c r="L32" s="131" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="M32" s="128"/>
       <c r="N32" s="61" t="s">
@@ -8402,20 +10647,20 @@
         <v>5</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="F33" s="88"/>
       <c r="G33" s="88"/>
       <c r="H33" s="88"/>
       <c r="I33" s="129" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="J33" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K33" s="125"/>
       <c r="L33" s="131" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="M33" s="128" t="s">
         <v>54</v>
@@ -8644,20 +10889,20 @@
         <v>5</v>
       </c>
       <c r="E40" s="106" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="F40" s="88"/>
       <c r="G40" s="88"/>
       <c r="H40" s="88"/>
       <c r="I40" s="129" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="J40" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K40" s="125"/>
       <c r="L40" s="131" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M40" s="128" t="s">
         <v>54</v>
@@ -8687,20 +10932,20 @@
         <v>5</v>
       </c>
       <c r="E41" s="106" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="F41" s="88"/>
       <c r="G41" s="88"/>
       <c r="H41" s="88"/>
       <c r="I41" s="129" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="J41" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K41" s="125"/>
       <c r="L41" s="131" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="M41" s="128" t="s">
         <v>54</v>
@@ -8730,20 +10975,20 @@
         <v>5</v>
       </c>
       <c r="E42" s="106" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="F42" s="88"/>
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="129" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="J42" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K42" s="125"/>
       <c r="L42" s="131" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="M42" s="128" t="s">
         <v>54</v>
@@ -8773,20 +11018,20 @@
         <v>5</v>
       </c>
       <c r="E43" s="106" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F43" s="88"/>
       <c r="G43" s="88"/>
       <c r="H43" s="88"/>
       <c r="I43" s="129" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="J43" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K43" s="125"/>
       <c r="L43" s="131" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="M43" s="128" t="s">
         <v>54</v>
@@ -8915,20 +11160,20 @@
         <v>5</v>
       </c>
       <c r="E47" s="106" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="F47" s="88"/>
       <c r="G47" s="88"/>
       <c r="H47" s="88"/>
       <c r="I47" s="129" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J47" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K47" s="125"/>
       <c r="L47" s="131" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="M47" s="128" t="s">
         <v>54</v>
@@ -8958,23 +11203,23 @@
         <v>5</v>
       </c>
       <c r="E48" s="106" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="F48" s="88"/>
       <c r="G48" s="88"/>
       <c r="H48" s="88"/>
       <c r="I48" s="129" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J48" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K48" s="125"/>
       <c r="L48" s="142" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="M48" s="128" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="N48" s="132"/>
       <c r="O48" s="131"/>
@@ -9034,23 +11279,23 @@
         <v>5</v>
       </c>
       <c r="E50" s="106" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="F50" s="88"/>
       <c r="G50" s="88"/>
       <c r="H50" s="88"/>
       <c r="I50" s="129" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J50" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K50" s="125"/>
       <c r="L50" s="131" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="M50" s="128" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="N50" s="132"/>
       <c r="O50" s="131"/>
@@ -9077,23 +11322,23 @@
         <v>5</v>
       </c>
       <c r="E51" s="106" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="F51" s="88"/>
       <c r="G51" s="88"/>
       <c r="H51" s="88"/>
       <c r="I51" s="129" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J51" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K51" s="125"/>
       <c r="L51" s="131" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="M51" s="128" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="N51" s="132"/>
       <c r="O51" s="131"/>
@@ -9120,24 +11365,24 @@
         <v>5</v>
       </c>
       <c r="E52" s="106" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="F52" s="88"/>
       <c r="G52" s="88"/>
       <c r="H52" s="88"/>
       <c r="I52" s="129" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J52" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K52" s="125"/>
       <c r="L52" s="106" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="M52" s="128"/>
       <c r="N52" s="61" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="O52" s="131"/>
       <c r="P52" s="106"/>
@@ -9163,20 +11408,20 @@
         <v>5</v>
       </c>
       <c r="E53" s="106" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="F53" s="88"/>
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="129" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J53" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K53" s="125"/>
       <c r="L53" s="131" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="M53" s="106"/>
       <c r="N53" s="61" t="s">
@@ -9206,20 +11451,20 @@
         <v>5</v>
       </c>
       <c r="E54" s="106" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F54" s="88"/>
       <c r="G54" s="88"/>
       <c r="H54" s="88"/>
       <c r="I54" s="129" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J54" s="130" t="s">
         <v>135</v>
       </c>
       <c r="K54" s="125"/>
       <c r="L54" s="131" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="M54" s="128"/>
       <c r="N54" s="61" t="s">
@@ -9331,7 +11576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9342,7 +11587,7 @@
       <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -9621,7 +11866,7 @@
         <v>225</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="J6" s="35" t="s">
         <v>51</v>
@@ -9690,26 +11935,26 @@
         <v>5</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="150" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="J7" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="54" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="M7" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N7" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="O7" s="54"/>
       <c r="P7" s="29"/>
@@ -9735,20 +11980,20 @@
         <v>5</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="150" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="J8" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="54" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="M8" s="51" t="s">
         <v>77</v>
@@ -9757,7 +12002,7 @@
         <v>140</v>
       </c>
       <c r="O8" s="64" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="55"/>
@@ -9782,20 +12027,20 @@
         <v>3</v>
       </c>
       <c r="E9" s="156" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="F9" s="153"/>
       <c r="G9" s="153"/>
       <c r="H9" s="153"/>
       <c r="I9" s="157" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="J9" s="158" t="s">
         <v>135</v>
       </c>
       <c r="K9" s="153"/>
       <c r="L9" s="159" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="M9" s="156"/>
       <c r="N9" s="160"/>
@@ -9821,7 +12066,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -9840,7 +12085,7 @@
         <v>297</v>
       </c>
       <c r="N10" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="O10" s="54"/>
       <c r="P10" s="29"/>
@@ -9866,7 +12111,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -9879,7 +12124,7 @@
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="54" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>77</v>
@@ -9888,7 +12133,7 @@
         <v>140</v>
       </c>
       <c r="O11" s="64" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="55"/>
@@ -9913,20 +12158,20 @@
         <v>5</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="150" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="J12" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="54" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="M12" s="51" t="s">
         <v>77</v>
@@ -9958,7 +12203,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -9980,7 +12225,7 @@
         <v>140</v>
       </c>
       <c r="O13" s="64" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="55"/>
@@ -10005,7 +12250,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10018,7 +12263,7 @@
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="54" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="M14" s="51" t="s">
         <v>77</v>
@@ -10052,26 +12297,26 @@
         <v>5</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="150" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="J15" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="54" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="M15" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N15" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="O15" s="54"/>
       <c r="P15" s="29"/>
@@ -10097,20 +12342,20 @@
         <v>3</v>
       </c>
       <c r="E16" s="156" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
       <c r="H16" s="153"/>
       <c r="I16" s="157" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="J16" s="158" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K16" s="153"/>
       <c r="L16" s="159" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="M16" s="156"/>
       <c r="N16" s="160"/>
@@ -10136,7 +12381,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -10149,7 +12394,7 @@
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="54" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="M17" s="51" t="s">
         <v>77</v>
@@ -10183,7 +12428,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -10192,11 +12437,11 @@
         <v>149</v>
       </c>
       <c r="J18" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="54" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="M18" s="51" t="s">
         <v>77</v>
@@ -10228,7 +12473,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -10241,13 +12486,13 @@
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="54" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="M19" s="51" t="s">
         <v>225</v>
       </c>
       <c r="N19" s="143" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="29"/>
@@ -10273,7 +12518,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -10282,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="J20" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="54" t="s">
@@ -10318,7 +12563,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -10331,7 +12576,7 @@
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="54" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="M21" s="51" t="s">
         <v>77</v>
@@ -10365,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -10374,11 +12619,11 @@
         <v>170</v>
       </c>
       <c r="J22" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="54" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="M22" s="51" t="s">
         <v>77</v>
@@ -10410,7 +12655,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -10423,7 +12668,7 @@
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="54" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="M23" s="51" t="s">
         <v>77</v>
@@ -10457,7 +12702,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -10470,13 +12715,13 @@
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="54" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="M24" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N24" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="O24" s="54"/>
       <c r="P24" s="29"/>
@@ -10502,7 +12747,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -10511,11 +12756,11 @@
         <v>181</v>
       </c>
       <c r="J25" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="54" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="M25" s="51" t="s">
         <v>77</v>
@@ -10547,7 +12792,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -10560,7 +12805,7 @@
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="54" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="M26" s="51" t="s">
         <v>77</v>
@@ -10594,7 +12839,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -10607,7 +12852,7 @@
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="54" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="M27" s="51" t="s">
         <v>77</v>
@@ -10641,7 +12886,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -10654,13 +12899,13 @@
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="54" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="M28" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N28" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="O28" s="54"/>
       <c r="P28" s="29"/>
@@ -10686,7 +12931,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -10695,11 +12940,11 @@
         <v>151</v>
       </c>
       <c r="J29" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="54" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="M29" s="51" t="s">
         <v>77</v>
@@ -10731,7 +12976,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -10744,7 +12989,7 @@
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="54" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="M30" s="51" t="s">
         <v>77</v>
@@ -10778,7 +13023,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -10787,11 +13032,11 @@
         <v>155</v>
       </c>
       <c r="J31" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="54" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="M31" s="51" t="s">
         <v>77</v>
@@ -10823,7 +13068,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -10836,7 +13081,7 @@
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="54" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="M32" s="51" t="s">
         <v>77</v>
@@ -10870,7 +13115,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -10883,13 +13128,13 @@
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="54" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="M33" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N33" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="O33" s="54"/>
       <c r="P33" s="29"/>
@@ -10915,7 +13160,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -10960,7 +13205,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -10969,11 +13214,11 @@
         <v>165</v>
       </c>
       <c r="J35" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="54" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="M35" s="51" t="s">
         <v>77</v>
@@ -11005,7 +13250,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -11018,7 +13263,7 @@
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="54" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="M36" s="51" t="s">
         <v>77</v>
@@ -11050,7 +13295,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -11059,11 +13304,11 @@
         <v>187</v>
       </c>
       <c r="J37" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="54" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="M37" s="51" t="s">
         <v>77</v>
@@ -11095,7 +13340,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -11140,7 +13385,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -11153,13 +13398,13 @@
       </c>
       <c r="K39" s="48"/>
       <c r="L39" s="54" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="M39" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N39" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="O39" s="54"/>
       <c r="P39" s="29"/>
@@ -11185,7 +13430,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -11194,11 +13439,11 @@
         <v>190</v>
       </c>
       <c r="J40" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K40" s="48"/>
       <c r="L40" s="54" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="M40" s="51" t="s">
         <v>77</v>
@@ -11230,7 +13475,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -11243,7 +13488,7 @@
       </c>
       <c r="K41" s="48"/>
       <c r="L41" s="54" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="M41" s="51" t="s">
         <v>77</v>
@@ -11275,7 +13520,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -11284,11 +13529,11 @@
         <v>193</v>
       </c>
       <c r="J42" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K42" s="48"/>
       <c r="L42" s="54" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="M42" s="51" t="s">
         <v>77</v>
@@ -11320,20 +13565,20 @@
         <v>5</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="150" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="J43" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K43" s="48"/>
       <c r="L43" s="54" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="M43" s="51" t="s">
         <v>77</v>
@@ -11365,7 +13610,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -11378,13 +13623,13 @@
       </c>
       <c r="K44" s="48"/>
       <c r="L44" s="54" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="M44" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N44" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="O44" s="54"/>
       <c r="P44" s="29"/>
@@ -11410,7 +13655,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -11419,7 +13664,7 @@
         <v>159</v>
       </c>
       <c r="J45" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="54" t="s">
@@ -11455,20 +13700,20 @@
         <v>5</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="150" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="J46" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="54" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="M46" s="51" t="s">
         <v>77</v>
@@ -11500,7 +13745,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -11509,11 +13754,11 @@
         <v>197</v>
       </c>
       <c r="J47" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K47" s="48"/>
       <c r="L47" s="54" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="M47" s="51" t="s">
         <v>77</v>
@@ -11545,20 +13790,20 @@
         <v>5</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="150" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="J48" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K48" s="48"/>
       <c r="L48" s="54" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="M48" s="51" t="s">
         <v>77</v>
@@ -11590,20 +13835,20 @@
         <v>5</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="150" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="J49" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K49" s="48"/>
       <c r="L49" s="54" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="M49" s="51" t="s">
         <v>77</v>
@@ -11635,7 +13880,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -11644,7 +13889,7 @@
         <v>162</v>
       </c>
       <c r="J50" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K50" s="48"/>
       <c r="L50" s="54" t="s">
@@ -11680,20 +13925,20 @@
         <v>5</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="150" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="J51" s="151" t="s">
         <v>135</v>
       </c>
       <c r="K51" s="48"/>
       <c r="L51" s="54" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="M51" s="143" t="s">
         <v>54</v>
@@ -11723,7 +13968,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -11732,11 +13977,11 @@
         <v>201</v>
       </c>
       <c r="J52" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K52" s="48"/>
       <c r="L52" s="54" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="M52" s="51" t="s">
         <v>77</v>
@@ -11768,20 +14013,20 @@
         <v>3</v>
       </c>
       <c r="E53" s="156" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="F53" s="153"/>
       <c r="G53" s="153"/>
       <c r="H53" s="153"/>
       <c r="I53" s="157" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="J53" s="158" t="s">
         <v>135</v>
       </c>
       <c r="K53" s="153"/>
       <c r="L53" s="159" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="M53" s="161"/>
       <c r="N53" s="160"/>
@@ -11807,20 +14052,20 @@
         <v>5</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="150" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="J54" s="151" t="s">
         <v>51</v>
       </c>
       <c r="K54" s="48"/>
       <c r="L54" s="54" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="M54" s="51" t="s">
         <v>77</v>
@@ -11852,16 +14097,16 @@
         <v>3</v>
       </c>
       <c r="E55" s="156" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="I55" s="157" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="J55" s="158" t="s">
         <v>135</v>
       </c>
       <c r="L55" s="152" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="N55" s="163"/>
       <c r="V55" s="164"/>
@@ -11882,16 +14127,16 @@
         <v>5</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="I56" s="150" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="J56" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L56" s="54" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="M56" s="51" t="s">
         <v>77</v>
@@ -11911,22 +14156,22 @@
         <v>5</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="I57" s="150" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="J57" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="M57" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N57" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11940,16 +14185,16 @@
         <v>5</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="I58" s="150" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="J58" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L58" s="54" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="M58" s="51" t="s">
         <v>77</v>
@@ -11969,16 +14214,16 @@
         <v>5</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>483</v>
+        <v>320</v>
       </c>
       <c r="I59" s="150" t="s">
-        <v>484</v>
+        <v>316</v>
       </c>
       <c r="J59" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>485</v>
+        <v>321</v>
       </c>
       <c r="M59" s="143" t="s">
         <v>54</v>
@@ -11995,22 +14240,22 @@
         <v>5</v>
       </c>
       <c r="E60" s="51" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="I60" s="150" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J60" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="M60" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N60" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12024,16 +14269,16 @@
         <v>5</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="I61" s="150" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="J61" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L61" s="54" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="M61" s="51" t="s">
         <v>77</v>
@@ -12053,16 +14298,16 @@
         <v>5</v>
       </c>
       <c r="E62" s="51" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="I62" s="150" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="J62" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L62" s="54" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="M62" s="143" t="s">
         <v>54</v>
@@ -12079,16 +14324,16 @@
         <v>5</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="I63" s="150" t="s">
-        <v>489</v>
+        <v>340</v>
       </c>
       <c r="J63" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="M63" s="51" t="s">
         <v>77</v>
@@ -12108,16 +14353,16 @@
         <v>3</v>
       </c>
       <c r="E64" s="156" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="I64" s="157" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="J64" s="158" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L64" s="159" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="N64" s="163"/>
       <c r="V64" s="164"/>
@@ -12138,22 +14383,22 @@
         <v>5</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="I65" s="150" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J65" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="M65" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N65" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12167,16 +14412,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="I66" s="150" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="J66" s="151" t="s">
         <v>135</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="M66" s="143" t="s">
         <v>54</v>
@@ -12194,16 +14439,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="156" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="I67" s="157" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="J67" s="158" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L67" s="152" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="N67" s="163"/>
       <c r="V67" s="164"/>
@@ -12224,22 +14469,22 @@
         <v>5</v>
       </c>
       <c r="E68" s="51" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="I68" s="150" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="J68" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="N68" s="61" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12253,16 +14498,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="51" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="I69" s="150" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="J69" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="M69" s="51" t="s">
         <v>297</v>
@@ -12279,16 +14524,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="51" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="I70" s="150" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J70" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="M70" s="51" t="s">
         <v>297</v>
@@ -12305,16 +14550,16 @@
         <v>5</v>
       </c>
       <c r="E71" s="51" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="I71" s="150" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="J71" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="M71" s="51" t="s">
         <v>77</v>
@@ -12334,22 +14579,22 @@
         <v>5</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="I72" s="150" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="J72" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="M72" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N72" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12363,7 +14608,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="51" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="I73" s="150" t="s">
         <v>230</v>
@@ -12392,16 +14637,16 @@
         <v>5</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="I74" s="150" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="J74" s="151" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="M74" s="143" t="s">
         <v>54</v>
@@ -12418,16 +14663,16 @@
         <v>5</v>
       </c>
       <c r="E75" s="51" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="I75" s="150" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="J75" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="M75" s="51" t="s">
         <v>77</v>
@@ -12447,22 +14692,22 @@
         <v>5</v>
       </c>
       <c r="E76" s="51" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="I76" s="150" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="J76" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="M76" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N76" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12476,22 +14721,22 @@
         <v>5</v>
       </c>
       <c r="E77" s="51" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="I77" s="150" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="J77" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="M77" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N77" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12505,22 +14750,22 @@
         <v>5</v>
       </c>
       <c r="E78" s="51" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="I78" s="150" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="J78" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="M78" s="51" t="s">
         <v>297</v>
       </c>
       <c r="N78" s="143" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" s="165" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12534,16 +14779,16 @@
         <v>3</v>
       </c>
       <c r="E79" s="169" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="I79" s="170" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="J79" s="171" t="s">
         <v>51</v>
       </c>
       <c r="L79" s="165" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="M79" s="172" t="s">
         <v>77</v>
@@ -12649,7 +14894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12660,7 +14905,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -12668,12 +14913,12 @@
   <sheetData>
     <row r="1" s="176" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="B2" s="176"/>
     </row>
@@ -12689,10 +14934,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="B5" s="176" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12700,7 +14945,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12708,7 +14953,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12716,7 +14961,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12724,7 +14969,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12732,7 +14977,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12740,7 +14985,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12748,7 +14993,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12756,7 +15001,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12764,7 +15009,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12772,7 +15017,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -12801,7 +15046,7 @@
       <selection pane="bottomRight" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -14135,7 +16380,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -16510,7 +18755,7 @@
       <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
@@ -24577,14 +26822,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AD54"/>
+  <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24592,7 +26837,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="74" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="74" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="74" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="74" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="74" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="74" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="74" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="74" width="13.12"/>
@@ -24668,7 +26913,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="84" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="N2" s="85" t="s">
         <v>8</v>
@@ -24921,15 +27166,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="125" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C7" s="126" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="128"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="106"/>
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
       <c r="H7" s="88"/>
@@ -24952,9 +27197,9 @@
       <c r="AA7" s="136"/>
       <c r="AB7" s="137"/>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="125" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C8" s="126" t="s">
         <v>46</v>
@@ -24962,25 +27207,23 @@
       <c r="D8" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="E8" s="106" t="s">
         <v>317</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
       <c r="H8" s="88"/>
-      <c r="I8" s="129" t="s">
-        <v>316</v>
-      </c>
+      <c r="I8" s="129"/>
       <c r="J8" s="130"/>
       <c r="K8" s="125"/>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="142" t="s">
         <v>318</v>
       </c>
       <c r="M8" s="128"/>
       <c r="N8" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="O8" s="0"/>
+        <v>319</v>
+      </c>
+      <c r="O8" s="131"/>
       <c r="P8" s="106"/>
       <c r="Q8" s="133"/>
       <c r="T8" s="87"/>
@@ -24993,9 +27236,9 @@
       <c r="AA8" s="136"/>
       <c r="AB8" s="137"/>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="125" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C9" s="126" t="s">
         <v>46</v>
@@ -25004,24 +27247,22 @@
         <v>5</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="88"/>
       <c r="H9" s="88"/>
-      <c r="I9" s="129" t="s">
-        <v>316</v>
-      </c>
+      <c r="I9" s="129"/>
       <c r="J9" s="130"/>
       <c r="K9" s="125"/>
       <c r="L9" s="131" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M9" s="128"/>
       <c r="N9" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="O9" s="0"/>
+        <v>319</v>
+      </c>
+      <c r="O9" s="131"/>
       <c r="P9" s="106"/>
       <c r="Q9" s="133"/>
       <c r="T9" s="87"/>
@@ -25034,9 +27275,9 @@
       <c r="AA9" s="136"/>
       <c r="AB9" s="137"/>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="125" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C10" s="126" t="s">
         <v>46</v>
@@ -25044,25 +27285,23 @@
       <c r="D10" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="106" t="s">
-        <v>321</v>
-      </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="129" t="s">
-        <v>316</v>
-      </c>
-      <c r="J10" s="130"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="131" t="s">
+      <c r="E10" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="M10" s="128"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="M10" s="0"/>
       <c r="N10" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="O10" s="0"/>
+        <v>319</v>
+      </c>
+      <c r="O10" s="131"/>
       <c r="P10" s="106"/>
       <c r="Q10" s="133"/>
       <c r="T10" s="87"/>
@@ -25077,7 +27316,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="125" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C11" s="126" t="s">
         <v>46</v>
@@ -25086,26 +27325,22 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
-      <c r="I11" s="129" t="s">
-        <v>316</v>
-      </c>
+      <c r="I11" s="129"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="L11" s="131" t="s">
-        <v>324</v>
-      </c>
-      <c r="M11" s="128" t="s">
+      <c r="L11" s="142" t="s">
         <v>325</v>
       </c>
+      <c r="M11" s="0"/>
       <c r="N11" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="O11" s="0"/>
+        <v>319</v>
+      </c>
+      <c r="O11" s="131"/>
       <c r="P11" s="106"/>
       <c r="Q11" s="133"/>
       <c r="T11" s="87"/>
@@ -25120,7 +27355,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="125" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C12" s="126" t="s">
         <v>46</v>
@@ -25128,16 +27363,22 @@
       <c r="D12" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
+      <c r="E12" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
       <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="132"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="142" t="s">
+        <v>327</v>
+      </c>
+      <c r="M12" s="0"/>
+      <c r="N12" s="61" t="s">
+        <v>319</v>
+      </c>
       <c r="O12" s="131"/>
       <c r="P12" s="106"/>
       <c r="Q12" s="133"/>
@@ -25151,9 +27392,9 @@
       <c r="AA12" s="136"/>
       <c r="AB12" s="137"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="125" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C13" s="126" t="s">
         <v>46</v>
@@ -25161,16 +27402,22 @@
       <c r="D13" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
+      <c r="E13" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
       <c r="I13" s="129"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="132"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="M13" s="0"/>
+      <c r="N13" s="61" t="s">
+        <v>330</v>
+      </c>
       <c r="O13" s="131"/>
       <c r="P13" s="106"/>
       <c r="Q13" s="133"/>
@@ -25186,7 +27433,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="125" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="126" t="s">
         <v>46</v>
@@ -25194,16 +27441,22 @@
       <c r="D14" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="106"/>
+      <c r="E14" s="106" t="s">
+        <v>331</v>
+      </c>
       <c r="F14" s="88"/>
       <c r="G14" s="88"/>
       <c r="H14" s="88"/>
       <c r="I14" s="129"/>
       <c r="J14" s="130"/>
       <c r="K14" s="125"/>
-      <c r="L14" s="131"/>
+      <c r="L14" s="131" t="s">
+        <v>332</v>
+      </c>
       <c r="M14" s="128"/>
-      <c r="N14" s="132"/>
+      <c r="N14" s="61" t="s">
+        <v>319</v>
+      </c>
       <c r="O14" s="131"/>
       <c r="P14" s="106"/>
       <c r="Q14" s="133"/>
@@ -25219,7 +27472,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="125" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C15" s="126" t="s">
         <v>46</v>
@@ -25227,16 +27480,22 @@
       <c r="D15" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="140"/>
+      <c r="E15" s="106" t="s">
+        <v>333</v>
+      </c>
       <c r="F15" s="88"/>
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="129"/>
       <c r="J15" s="130"/>
       <c r="K15" s="125"/>
-      <c r="L15" s="131"/>
+      <c r="L15" s="142" t="s">
+        <v>334</v>
+      </c>
       <c r="M15" s="128"/>
-      <c r="N15" s="132"/>
+      <c r="N15" s="61" t="s">
+        <v>319</v>
+      </c>
       <c r="O15" s="131"/>
       <c r="P15" s="106"/>
       <c r="Q15" s="133"/>
@@ -25250,9 +27509,9 @@
       <c r="AA15" s="136"/>
       <c r="AB15" s="137"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="125" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" s="126" t="s">
         <v>46</v>
@@ -25260,16 +27519,22 @@
       <c r="D16" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="106"/>
+      <c r="E16" s="106" t="s">
+        <v>335</v>
+      </c>
       <c r="F16" s="88"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="129"/>
       <c r="J16" s="130"/>
       <c r="K16" s="125"/>
-      <c r="L16" s="131"/>
+      <c r="L16" s="106" t="s">
+        <v>336</v>
+      </c>
       <c r="M16" s="128"/>
-      <c r="N16" s="141"/>
+      <c r="N16" s="61" t="s">
+        <v>319</v>
+      </c>
       <c r="O16" s="131"/>
       <c r="P16" s="106"/>
       <c r="Q16" s="133"/>
@@ -25285,22 +27550,26 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="125" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C17" s="126" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>337</v>
+      </c>
       <c r="F17" s="88"/>
       <c r="G17" s="88"/>
       <c r="H17" s="88"/>
       <c r="I17" s="129"/>
       <c r="J17" s="130"/>
       <c r="K17" s="125"/>
-      <c r="L17" s="131"/>
+      <c r="L17" s="131" t="s">
+        <v>338</v>
+      </c>
       <c r="M17" s="128"/>
       <c r="N17" s="132"/>
       <c r="O17" s="131"/>
@@ -25318,13 +27587,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="125" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C18" s="126" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="106"/>
       <c r="F18" s="88"/>
@@ -25351,13 +27620,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="125" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D19" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="106"/>
       <c r="F19" s="88"/>
@@ -25382,26 +27651,34 @@
       <c r="AA19" s="136"/>
       <c r="AB19" s="137"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="125" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D20" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="61"/>
+      <c r="E20" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="129" t="s">
+        <v>340</v>
+      </c>
+      <c r="J20" s="130"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="106" t="s">
+        <v>341</v>
+      </c>
+      <c r="M20" s="128"/>
+      <c r="N20" s="61" t="s">
+        <v>140</v>
+      </c>
       <c r="O20" s="131"/>
       <c r="P20" s="106"/>
       <c r="Q20" s="133"/>
@@ -25417,24 +27694,24 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="125" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D21" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="106"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="129"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="0"/>
-      <c r="N21" s="61"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="132"/>
       <c r="O21" s="131"/>
       <c r="P21" s="106"/>
       <c r="Q21" s="133"/>
@@ -25450,24 +27727,24 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="125" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D22" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="E22" s="106"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
       <c r="I22" s="129"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="0"/>
-      <c r="N22" s="61"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="132"/>
       <c r="O22" s="131"/>
       <c r="P22" s="106"/>
       <c r="Q22" s="133"/>
@@ -25483,24 +27760,24 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="125" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D23" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="E23" s="106"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
       <c r="I23" s="129"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
-      <c r="N23" s="61"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="132"/>
       <c r="O23" s="131"/>
       <c r="P23" s="106"/>
       <c r="Q23" s="133"/>
@@ -25516,13 +27793,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="125" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D24" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="106"/>
       <c r="F24" s="88"/>
@@ -25533,7 +27810,7 @@
       <c r="K24" s="125"/>
       <c r="L24" s="131"/>
       <c r="M24" s="128"/>
-      <c r="N24" s="61"/>
+      <c r="N24" s="132"/>
       <c r="O24" s="131"/>
       <c r="P24" s="106"/>
       <c r="Q24" s="133"/>
@@ -25549,13 +27826,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="125" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D25" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="106"/>
       <c r="F25" s="88"/>
@@ -25564,9 +27841,9 @@
       <c r="I25" s="129"/>
       <c r="J25" s="130"/>
       <c r="K25" s="125"/>
-      <c r="L25" s="142"/>
+      <c r="L25" s="131"/>
       <c r="M25" s="128"/>
-      <c r="N25" s="61"/>
+      <c r="N25" s="132"/>
       <c r="O25" s="131"/>
       <c r="P25" s="106"/>
       <c r="Q25" s="133"/>
@@ -25582,13 +27859,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="125" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D26" s="127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="106"/>
       <c r="F26" s="88"/>
@@ -25597,9 +27874,9 @@
       <c r="I26" s="129"/>
       <c r="J26" s="130"/>
       <c r="K26" s="125"/>
-      <c r="L26" s="106"/>
+      <c r="L26" s="131"/>
       <c r="M26" s="128"/>
-      <c r="N26" s="61"/>
+      <c r="N26" s="132"/>
       <c r="O26" s="131"/>
       <c r="P26" s="106"/>
       <c r="Q26" s="133"/>
@@ -25613,34 +27890,26 @@
       <c r="AA26" s="136"/>
       <c r="AB26" s="137"/>
     </row>
-    <row r="27" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="125" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D27" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="106" t="s">
-        <v>327</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E27" s="106"/>
       <c r="F27" s="88"/>
       <c r="G27" s="88"/>
       <c r="H27" s="88"/>
-      <c r="I27" s="129" t="s">
-        <v>328</v>
-      </c>
+      <c r="I27" s="129"/>
       <c r="J27" s="130"/>
       <c r="K27" s="125"/>
-      <c r="L27" s="131" t="s">
-        <v>329</v>
-      </c>
+      <c r="L27" s="131"/>
       <c r="M27" s="128"/>
-      <c r="N27" s="61" t="s">
-        <v>140</v>
-      </c>
+      <c r="N27" s="132"/>
       <c r="O27" s="131"/>
       <c r="P27" s="106"/>
       <c r="Q27" s="133"/>
@@ -25654,34 +27923,26 @@
       <c r="AA27" s="136"/>
       <c r="AB27" s="137"/>
     </row>
-    <row r="28" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="125" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D28" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="106" t="s">
-        <v>330</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E28" s="106"/>
       <c r="F28" s="88"/>
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
-      <c r="I28" s="129" t="s">
-        <v>328</v>
-      </c>
+      <c r="I28" s="129"/>
       <c r="J28" s="130"/>
       <c r="K28" s="125"/>
-      <c r="L28" s="131" t="s">
-        <v>331</v>
-      </c>
+      <c r="L28" s="131"/>
       <c r="M28" s="128"/>
-      <c r="N28" s="61" t="s">
-        <v>140</v>
-      </c>
+      <c r="N28" s="132"/>
       <c r="O28" s="131"/>
       <c r="P28" s="106"/>
       <c r="Q28" s="133"/>
@@ -25695,34 +27956,26 @@
       <c r="AA28" s="136"/>
       <c r="AB28" s="137"/>
     </row>
-    <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="125" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D29" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="106" t="s">
-        <v>332</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E29" s="106"/>
       <c r="F29" s="88"/>
       <c r="G29" s="88"/>
       <c r="H29" s="88"/>
-      <c r="I29" s="129" t="s">
-        <v>328</v>
-      </c>
+      <c r="I29" s="129"/>
       <c r="J29" s="130"/>
       <c r="K29" s="125"/>
-      <c r="L29" s="131" t="s">
-        <v>333</v>
-      </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="61" t="s">
-        <v>140</v>
-      </c>
+      <c r="L29" s="131"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="132"/>
       <c r="O29" s="131"/>
       <c r="P29" s="106"/>
       <c r="Q29" s="133"/>
@@ -25736,34 +27989,26 @@
       <c r="AA29" s="136"/>
       <c r="AB29" s="137"/>
     </row>
-    <row r="30" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="125" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D30" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="106" t="s">
-        <v>334</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E30" s="106"/>
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
-      <c r="I30" s="129" t="s">
-        <v>328</v>
-      </c>
+      <c r="I30" s="129"/>
       <c r="J30" s="130"/>
       <c r="K30" s="125"/>
-      <c r="L30" s="131" t="s">
-        <v>335</v>
-      </c>
-      <c r="M30" s="106"/>
-      <c r="N30" s="61" t="s">
-        <v>140</v>
-      </c>
+      <c r="L30" s="131"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="132"/>
       <c r="O30" s="131"/>
       <c r="P30" s="106"/>
       <c r="Q30" s="133"/>
@@ -25776,850 +28021,6 @@
       <c r="Z30" s="135"/>
       <c r="AA30" s="136"/>
       <c r="AB30" s="137"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="128"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="133"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="136"/>
-      <c r="AB31" s="137"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="128"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="133"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="136"/>
-      <c r="AB32" s="137"/>
-    </row>
-    <row r="33" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="106" t="s">
-        <v>336</v>
-      </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="J33" s="130"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="131" t="s">
-        <v>338</v>
-      </c>
-      <c r="M33" s="128"/>
-      <c r="N33" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="O33" s="131"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="133"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="136"/>
-      <c r="AB33" s="137"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="C34" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="131"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="133"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="134"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="135"/>
-      <c r="X34" s="135"/>
-      <c r="Y34" s="135"/>
-      <c r="Z34" s="135"/>
-      <c r="AA34" s="136"/>
-      <c r="AB34" s="137"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="131"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="133"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="134"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="135"/>
-      <c r="X35" s="135"/>
-      <c r="Y35" s="135"/>
-      <c r="Z35" s="135"/>
-      <c r="AA35" s="136"/>
-      <c r="AB35" s="137"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="C36" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="133"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="134"/>
-      <c r="V36" s="127"/>
-      <c r="W36" s="135"/>
-      <c r="X36" s="135"/>
-      <c r="Y36" s="135"/>
-      <c r="Z36" s="135"/>
-      <c r="AA36" s="136"/>
-      <c r="AB36" s="137"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="125" t="n">
-        <v>7</v>
-      </c>
-      <c r="C37" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="106"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="131"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="133"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="134"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="135"/>
-      <c r="X37" s="135"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="135"/>
-      <c r="AA37" s="136"/>
-      <c r="AB37" s="137"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="125" t="n">
-        <v>8</v>
-      </c>
-      <c r="C38" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="133"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="134"/>
-      <c r="V38" s="127"/>
-      <c r="W38" s="135"/>
-      <c r="X38" s="135"/>
-      <c r="Y38" s="135"/>
-      <c r="Z38" s="135"/>
-      <c r="AA38" s="136"/>
-      <c r="AB38" s="137"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="125" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="133"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="135"/>
-      <c r="X39" s="135"/>
-      <c r="Y39" s="135"/>
-      <c r="Z39" s="135"/>
-      <c r="AA39" s="136"/>
-      <c r="AB39" s="137"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="125" t="n">
-        <v>10</v>
-      </c>
-      <c r="C40" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="106"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="133"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="134"/>
-      <c r="V40" s="127"/>
-      <c r="W40" s="135"/>
-      <c r="X40" s="135"/>
-      <c r="Y40" s="135"/>
-      <c r="Z40" s="135"/>
-      <c r="AA40" s="136"/>
-      <c r="AB40" s="137"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="125" t="n">
-        <v>11</v>
-      </c>
-      <c r="C41" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="106"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="131"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="133"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="134"/>
-      <c r="V41" s="127"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="135"/>
-      <c r="Z41" s="135"/>
-      <c r="AA41" s="136"/>
-      <c r="AB41" s="137"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="125" t="n">
-        <v>12</v>
-      </c>
-      <c r="C42" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="133"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="134"/>
-      <c r="V42" s="127"/>
-      <c r="W42" s="135"/>
-      <c r="X42" s="135"/>
-      <c r="Y42" s="135"/>
-      <c r="Z42" s="135"/>
-      <c r="AA42" s="136"/>
-      <c r="AB42" s="137"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="125" t="n">
-        <v>13</v>
-      </c>
-      <c r="C43" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="106"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="131"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="133"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="134"/>
-      <c r="V43" s="127"/>
-      <c r="W43" s="135"/>
-      <c r="X43" s="135"/>
-      <c r="Y43" s="135"/>
-      <c r="Z43" s="135"/>
-      <c r="AA43" s="136"/>
-      <c r="AB43" s="137"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="125" t="n">
-        <v>14</v>
-      </c>
-      <c r="C44" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="106"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="131"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="131"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="133"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="134"/>
-      <c r="V44" s="127"/>
-      <c r="W44" s="135"/>
-      <c r="X44" s="135"/>
-      <c r="Y44" s="135"/>
-      <c r="Z44" s="135"/>
-      <c r="AA44" s="136"/>
-      <c r="AB44" s="137"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="125" t="n">
-        <v>15</v>
-      </c>
-      <c r="C45" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="106"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="128"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="131"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="133"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="134"/>
-      <c r="V45" s="127"/>
-      <c r="W45" s="135"/>
-      <c r="X45" s="135"/>
-      <c r="Y45" s="135"/>
-      <c r="Z45" s="135"/>
-      <c r="AA45" s="136"/>
-      <c r="AB45" s="137"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="125" t="n">
-        <v>16</v>
-      </c>
-      <c r="C46" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="106"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="131"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="131"/>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="133"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="134"/>
-      <c r="V46" s="127"/>
-      <c r="W46" s="135"/>
-      <c r="X46" s="135"/>
-      <c r="Y46" s="135"/>
-      <c r="Z46" s="135"/>
-      <c r="AA46" s="136"/>
-      <c r="AB46" s="137"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="125" t="n">
-        <v>17</v>
-      </c>
-      <c r="C47" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="106"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="128"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="131"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="133"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="134"/>
-      <c r="V47" s="127"/>
-      <c r="W47" s="135"/>
-      <c r="X47" s="135"/>
-      <c r="Y47" s="135"/>
-      <c r="Z47" s="135"/>
-      <c r="AA47" s="136"/>
-      <c r="AB47" s="137"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="125" t="n">
-        <v>18</v>
-      </c>
-      <c r="C48" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="106"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="131"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="131"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="133"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="134"/>
-      <c r="V48" s="127"/>
-      <c r="W48" s="135"/>
-      <c r="X48" s="135"/>
-      <c r="Y48" s="135"/>
-      <c r="Z48" s="135"/>
-      <c r="AA48" s="136"/>
-      <c r="AB48" s="137"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="125" t="n">
-        <v>19</v>
-      </c>
-      <c r="C49" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="106"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="131"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="132"/>
-      <c r="O49" s="131"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="133"/>
-      <c r="T49" s="87"/>
-      <c r="U49" s="134"/>
-      <c r="V49" s="127"/>
-      <c r="W49" s="135"/>
-      <c r="X49" s="135"/>
-      <c r="Y49" s="135"/>
-      <c r="Z49" s="135"/>
-      <c r="AA49" s="136"/>
-      <c r="AB49" s="137"/>
-    </row>
-    <row r="50" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="125" t="n">
-        <v>20</v>
-      </c>
-      <c r="C50" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="106" t="s">
-        <v>339</v>
-      </c>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="129" t="s">
-        <v>340</v>
-      </c>
-      <c r="J50" s="130"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="131" t="s">
-        <v>341</v>
-      </c>
-      <c r="M50" s="128"/>
-      <c r="N50" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="O50" s="131"/>
-      <c r="P50" s="106"/>
-      <c r="Q50" s="133"/>
-      <c r="T50" s="87"/>
-      <c r="U50" s="134"/>
-      <c r="V50" s="127"/>
-      <c r="W50" s="135"/>
-      <c r="X50" s="135"/>
-      <c r="Y50" s="135"/>
-      <c r="Z50" s="135"/>
-      <c r="AA50" s="136"/>
-      <c r="AB50" s="137"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="125" t="n">
-        <v>21</v>
-      </c>
-      <c r="C51" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="106" t="s">
-        <v>342</v>
-      </c>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="129" t="s">
-        <v>340</v>
-      </c>
-      <c r="J51" s="130"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="131" t="s">
-        <v>343</v>
-      </c>
-      <c r="M51" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="N51" s="132" t="s">
-        <v>344</v>
-      </c>
-      <c r="O51" s="131"/>
-      <c r="P51" s="106"/>
-      <c r="Q51" s="133"/>
-      <c r="T51" s="87"/>
-      <c r="U51" s="134"/>
-      <c r="V51" s="127"/>
-      <c r="W51" s="135"/>
-      <c r="X51" s="135"/>
-      <c r="Y51" s="135"/>
-      <c r="Z51" s="135"/>
-      <c r="AA51" s="136"/>
-      <c r="AB51" s="137"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="125" t="n">
-        <v>22</v>
-      </c>
-      <c r="C52" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="129" t="s">
-        <v>340</v>
-      </c>
-      <c r="J52" s="130"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="131" t="s">
-        <v>346</v>
-      </c>
-      <c r="M52" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="N52" s="132" t="s">
-        <v>344</v>
-      </c>
-      <c r="O52" s="131"/>
-      <c r="P52" s="106"/>
-      <c r="Q52" s="133"/>
-      <c r="T52" s="87"/>
-      <c r="U52" s="134"/>
-      <c r="V52" s="127"/>
-      <c r="W52" s="135"/>
-      <c r="X52" s="135"/>
-      <c r="Y52" s="135"/>
-      <c r="Z52" s="135"/>
-      <c r="AA52" s="136"/>
-      <c r="AB52" s="137"/>
-    </row>
-    <row r="53" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="125" t="n">
-        <v>23</v>
-      </c>
-      <c r="C53" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="106" t="s">
-        <v>347</v>
-      </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="129" t="s">
-        <v>340</v>
-      </c>
-      <c r="J53" s="130"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="131" t="s">
-        <v>348</v>
-      </c>
-      <c r="M53" s="106"/>
-      <c r="N53" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="O53" s="131"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="133"/>
-      <c r="T53" s="87"/>
-      <c r="U53" s="134"/>
-      <c r="V53" s="127"/>
-      <c r="W53" s="135"/>
-      <c r="X53" s="135"/>
-      <c r="Y53" s="135"/>
-      <c r="Z53" s="135"/>
-      <c r="AA53" s="136"/>
-      <c r="AB53" s="137"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="125" t="n">
-        <v>24</v>
-      </c>
-      <c r="C54" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="106" t="s">
-        <v>349</v>
-      </c>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="129" t="s">
-        <v>340</v>
-      </c>
-      <c r="J54" s="130"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="131" t="s">
-        <v>350</v>
-      </c>
-      <c r="M54" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="N54" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="O54" s="131"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="133"/>
-      <c r="T54" s="87"/>
-      <c r="U54" s="134"/>
-      <c r="V54" s="127"/>
-      <c r="W54" s="135"/>
-      <c r="X54" s="135"/>
-      <c r="Y54" s="135"/>
-      <c r="Z54" s="135"/>
-      <c r="AA54" s="136"/>
-      <c r="AB54" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -26637,28 +28038,28 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA54" type="list">
+  <dataValidations count="26">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA19 V21:AA30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J10 J12:J19 J24:J54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J9 J14:J19 J21:J30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K10 K12:K19 K24:K54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K9 K14:K19 K21:K30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F10 F12:F19 F24:F54" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F9 F14:F19 F21:F30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B54" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B19 B21:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2 K2 D6:D19 D21:D30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -26666,7 +28067,7 @@
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H10 H12:H19 H24:H54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H9 H14:H19 H21:H30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -26678,7 +28079,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C19 C21:C30" type="list">
       <formula1>"Outer,Inner,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -26686,7 +28087,7 @@
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U54" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U19 R21:U30" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -26694,13 +28095,53 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I19 I21:I30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R55:U72" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R31:U48" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B20" type="whole">
+      <formula1>1</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C20" type="list">
+      <formula1>"Outer,Inner,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D20" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F20" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H20" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I20" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J20" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K20" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R20:U20" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V20:AA20" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Fe" sheetId="1" state="visible" r:id="rId2"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="555">
   <si>
     <t xml:space="preserve">Double wheel</t>
   </si>
@@ -1441,6 +1441,15 @@
   </si>
   <si>
     <t xml:space="preserve">CuS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuCl2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuCl2, eriochalcite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample coutesy Ankita Mohanty and Karen Chen-Wiegart, Stony Brook</t>
   </si>
   <si>
     <t xml:space="preserve">Znfoil</t>
@@ -3411,9 +3420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>86760</xdr:colOff>
+      <xdr:colOff>86400</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3422,8 +3431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3372840" y="10725120"/>
-          <a:ext cx="6657120" cy="2251800"/>
+          <a:off x="3374280" y="10725120"/>
+          <a:ext cx="6657840" cy="2251440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3670,9 +3679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1110600</xdr:colOff>
+      <xdr:colOff>1110240</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3686,7 +3695,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10722600"/>
-          <a:ext cx="3162240" cy="3267720"/>
+          <a:ext cx="3162960" cy="3267360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3712,9 +3721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
+      <xdr:colOff>64440</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3723,8 +3732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3350880" y="7834680"/>
-          <a:ext cx="6657120" cy="2251800"/>
+          <a:off x="3352320" y="7834680"/>
+          <a:ext cx="6657840" cy="2251440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3971,9 +3980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1154520</xdr:colOff>
+      <xdr:colOff>1154160</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3987,7 +3996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7716240"/>
-          <a:ext cx="3206160" cy="1826280"/>
+          <a:ext cx="3206880" cy="1825920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4013,9 +4022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1726200</xdr:colOff>
+      <xdr:colOff>1725840</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4024,8 +4033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3405600" y="13656600"/>
-          <a:ext cx="6657480" cy="2251800"/>
+          <a:off x="3407040" y="13656600"/>
+          <a:ext cx="6658200" cy="2251440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4272,9 +4281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1145160</xdr:colOff>
+      <xdr:colOff>1144800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4288,7 +4297,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158040" y="13771080"/>
-          <a:ext cx="3038760" cy="3110400"/>
+          <a:ext cx="3039480" cy="3110040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4314,9 +4323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>319680</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4330,7 +4339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7947360"/>
-          <a:ext cx="3601440" cy="2250360"/>
+          <a:ext cx="3602520" cy="2250000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4356,9 +4365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1863360</xdr:colOff>
+      <xdr:colOff>1863000</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4368,7 +4377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6646320" cy="2251800"/>
+          <a:ext cx="6645960" cy="2251440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4620,9 +4629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1863360</xdr:colOff>
+      <xdr:colOff>1863000</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4632,7 +4641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6646320" cy="2251800"/>
+          <a:ext cx="6645960" cy="2251440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4894,7 +4903,7 @@
       <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -7460,7 +7469,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="112" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J6" s="113" t="s">
         <v>51</v>
@@ -7562,18 +7571,18 @@
         <v>5</v>
       </c>
       <c r="E8" s="129" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F8" s="89"/>
       <c r="G8" s="89"/>
       <c r="H8" s="89"/>
       <c r="I8" s="130" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J8" s="131"/>
       <c r="K8" s="126"/>
       <c r="L8" s="132" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M8" s="129"/>
       <c r="N8" s="61" t="s">
@@ -7603,18 +7612,18 @@
         <v>5</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
       <c r="H9" s="89"/>
       <c r="I9" s="130" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J9" s="131"/>
       <c r="K9" s="126"/>
       <c r="L9" s="132" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M9" s="129"/>
       <c r="N9" s="61" t="s">
@@ -7644,18 +7653,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="107" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F10" s="89"/>
       <c r="G10" s="89"/>
       <c r="H10" s="89"/>
       <c r="I10" s="130" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J10" s="131"/>
       <c r="K10" s="126"/>
       <c r="L10" s="132" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M10" s="129"/>
       <c r="N10" s="61" t="s">
@@ -7685,24 +7694,24 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="130" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="132" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M11" s="129" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N11" s="61" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O11" s="0"/>
       <c r="P11" s="107"/>
@@ -8223,18 +8232,18 @@
         <v>5</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F27" s="89"/>
       <c r="G27" s="89"/>
       <c r="H27" s="89"/>
       <c r="I27" s="130" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J27" s="131"/>
       <c r="K27" s="126"/>
       <c r="L27" s="132" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M27" s="129"/>
       <c r="N27" s="61" t="s">
@@ -8264,18 +8273,18 @@
         <v>5</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F28" s="89"/>
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
       <c r="I28" s="130" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J28" s="131"/>
       <c r="K28" s="126"/>
       <c r="L28" s="132" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M28" s="129"/>
       <c r="N28" s="61" t="s">
@@ -8305,18 +8314,18 @@
         <v>5</v>
       </c>
       <c r="E29" s="107" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F29" s="89"/>
       <c r="G29" s="89"/>
       <c r="H29" s="89"/>
       <c r="I29" s="130" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J29" s="131"/>
       <c r="K29" s="126"/>
       <c r="L29" s="132" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M29" s="107"/>
       <c r="N29" s="61" t="s">
@@ -8346,18 +8355,18 @@
         <v>5</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F30" s="89"/>
       <c r="G30" s="89"/>
       <c r="H30" s="89"/>
       <c r="I30" s="130" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J30" s="131"/>
       <c r="K30" s="126"/>
       <c r="L30" s="132" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M30" s="107"/>
       <c r="N30" s="61" t="s">
@@ -8453,18 +8462,18 @@
         <v>5</v>
       </c>
       <c r="E33" s="107" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F33" s="89"/>
       <c r="G33" s="89"/>
       <c r="H33" s="89"/>
       <c r="I33" s="130" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J33" s="131"/>
       <c r="K33" s="126"/>
       <c r="L33" s="132" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M33" s="129"/>
       <c r="N33" s="61" t="s">
@@ -9020,18 +9029,18 @@
         <v>5</v>
       </c>
       <c r="E50" s="107" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F50" s="89"/>
       <c r="G50" s="89"/>
       <c r="H50" s="89"/>
       <c r="I50" s="130" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J50" s="131"/>
       <c r="K50" s="126"/>
       <c r="L50" s="132" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M50" s="129"/>
       <c r="N50" s="61" t="s">
@@ -9061,24 +9070,24 @@
         <v>5</v>
       </c>
       <c r="E51" s="107" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F51" s="89"/>
       <c r="G51" s="89"/>
       <c r="H51" s="89"/>
       <c r="I51" s="130" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J51" s="131"/>
       <c r="K51" s="126"/>
       <c r="L51" s="132" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M51" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N51" s="133" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O51" s="132"/>
       <c r="P51" s="107"/>
@@ -9104,24 +9113,24 @@
         <v>5</v>
       </c>
       <c r="E52" s="107" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F52" s="89"/>
       <c r="G52" s="89"/>
       <c r="H52" s="89"/>
       <c r="I52" s="130" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J52" s="131"/>
       <c r="K52" s="126"/>
       <c r="L52" s="132" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M52" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N52" s="133" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O52" s="132"/>
       <c r="P52" s="107"/>
@@ -9147,18 +9156,18 @@
         <v>5</v>
       </c>
       <c r="E53" s="107" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F53" s="89"/>
       <c r="G53" s="89"/>
       <c r="H53" s="89"/>
       <c r="I53" s="130" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J53" s="131"/>
       <c r="K53" s="126"/>
       <c r="L53" s="132" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M53" s="107"/>
       <c r="N53" s="61" t="s">
@@ -9188,24 +9197,24 @@
         <v>5</v>
       </c>
       <c r="E54" s="107" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F54" s="89"/>
       <c r="G54" s="89"/>
       <c r="H54" s="89"/>
       <c r="I54" s="130" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J54" s="131"/>
       <c r="K54" s="126"/>
       <c r="L54" s="132" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M54" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N54" s="61" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O54" s="132"/>
       <c r="P54" s="107"/>
@@ -9602,7 +9611,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="112" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J6" s="113" t="s">
         <v>135</v>
@@ -9617,7 +9626,7 @@
         <v>294</v>
       </c>
       <c r="N6" s="117" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O6" s="118" t="s">
         <v>56</v>
@@ -9704,26 +9713,26 @@
         <v>5</v>
       </c>
       <c r="E8" s="129" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F8" s="89"/>
       <c r="G8" s="89"/>
       <c r="H8" s="89"/>
       <c r="I8" s="130" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J8" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K8" s="126"/>
       <c r="L8" s="129" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M8" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N8" s="61" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O8" s="132"/>
       <c r="P8" s="107"/>
@@ -9749,20 +9758,20 @@
         <v>5</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
       <c r="H9" s="89"/>
       <c r="I9" s="130" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J9" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K9" s="126"/>
       <c r="L9" s="107" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M9" s="129"/>
       <c r="N9" s="61" t="s">
@@ -9792,26 +9801,26 @@
         <v>5</v>
       </c>
       <c r="E10" s="107" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F10" s="89"/>
       <c r="G10" s="89"/>
       <c r="H10" s="89"/>
       <c r="I10" s="130" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J10" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K10" s="126"/>
       <c r="L10" s="107" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M10" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N10" s="61" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O10" s="132"/>
       <c r="P10" s="107"/>
@@ -9837,26 +9846,26 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="130" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J11" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K11" s="0"/>
       <c r="L11" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M11" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N11" s="61" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O11" s="132"/>
       <c r="P11" s="107"/>
@@ -9882,26 +9891,26 @@
         <v>5</v>
       </c>
       <c r="E12" s="107" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F12" s="89"/>
       <c r="G12" s="89"/>
       <c r="H12" s="89"/>
       <c r="I12" s="130" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J12" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K12" s="126"/>
       <c r="L12" s="132" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M12" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O12" s="132"/>
       <c r="P12" s="107"/>
@@ -9927,26 +9936,26 @@
         <v>5</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F13" s="89"/>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
       <c r="I13" s="130" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J13" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K13" s="126"/>
       <c r="L13" s="132" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M13" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O13" s="132"/>
       <c r="P13" s="107"/>
@@ -10401,26 +10410,26 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="130" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J27" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M27" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O27" s="132"/>
       <c r="P27" s="107"/>
@@ -10446,26 +10455,26 @@
         <v>5</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F28" s="89"/>
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
       <c r="I28" s="130" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J28" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K28" s="126"/>
       <c r="L28" s="143" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M28" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N28" s="133" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="O28" s="132"/>
       <c r="P28" s="107"/>
@@ -10491,26 +10500,26 @@
         <v>5</v>
       </c>
       <c r="E29" s="107" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F29" s="89"/>
       <c r="G29" s="89"/>
       <c r="H29" s="89"/>
       <c r="I29" s="130" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J29" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K29" s="126"/>
       <c r="L29" s="132" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M29" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N29" s="133" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="O29" s="132"/>
       <c r="P29" s="107"/>
@@ -10536,26 +10545,26 @@
         <v>5</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F30" s="89"/>
       <c r="G30" s="89"/>
       <c r="H30" s="89"/>
       <c r="I30" s="130" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J30" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K30" s="126"/>
       <c r="L30" s="107" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M30" s="129" t="s">
         <v>54</v>
       </c>
       <c r="N30" s="133" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="O30" s="132"/>
       <c r="P30" s="107"/>
@@ -10614,20 +10623,20 @@
         <v>5</v>
       </c>
       <c r="E32" s="129" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F32" s="89"/>
       <c r="G32" s="89"/>
       <c r="H32" s="89"/>
       <c r="I32" s="130" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J32" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K32" s="126"/>
       <c r="L32" s="132" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M32" s="129"/>
       <c r="N32" s="61" t="s">
@@ -10657,20 +10666,20 @@
         <v>5</v>
       </c>
       <c r="E33" s="107" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F33" s="89"/>
       <c r="G33" s="89"/>
       <c r="H33" s="89"/>
       <c r="I33" s="130" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J33" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K33" s="126"/>
       <c r="L33" s="132" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M33" s="129" t="s">
         <v>54</v>
@@ -10899,20 +10908,20 @@
         <v>5</v>
       </c>
       <c r="E40" s="107" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F40" s="89"/>
       <c r="G40" s="89"/>
       <c r="H40" s="89"/>
       <c r="I40" s="130" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J40" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K40" s="126"/>
       <c r="L40" s="132" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M40" s="129" t="s">
         <v>54</v>
@@ -10942,20 +10951,20 @@
         <v>5</v>
       </c>
       <c r="E41" s="107" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F41" s="89"/>
       <c r="G41" s="89"/>
       <c r="H41" s="89"/>
       <c r="I41" s="130" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J41" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K41" s="126"/>
       <c r="L41" s="132" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M41" s="129" t="s">
         <v>54</v>
@@ -10985,20 +10994,20 @@
         <v>5</v>
       </c>
       <c r="E42" s="107" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F42" s="89"/>
       <c r="G42" s="89"/>
       <c r="H42" s="89"/>
       <c r="I42" s="130" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J42" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K42" s="126"/>
       <c r="L42" s="132" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M42" s="129" t="s">
         <v>54</v>
@@ -11028,20 +11037,20 @@
         <v>5</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F43" s="89"/>
       <c r="G43" s="89"/>
       <c r="H43" s="89"/>
       <c r="I43" s="130" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J43" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K43" s="126"/>
       <c r="L43" s="132" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M43" s="129" t="s">
         <v>54</v>
@@ -11170,20 +11179,20 @@
         <v>5</v>
       </c>
       <c r="E47" s="107" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F47" s="89"/>
       <c r="G47" s="89"/>
       <c r="H47" s="89"/>
       <c r="I47" s="130" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J47" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K47" s="126"/>
       <c r="L47" s="132" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M47" s="129" t="s">
         <v>54</v>
@@ -11213,23 +11222,23 @@
         <v>5</v>
       </c>
       <c r="E48" s="107" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F48" s="89"/>
       <c r="G48" s="89"/>
       <c r="H48" s="89"/>
       <c r="I48" s="130" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J48" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K48" s="126"/>
       <c r="L48" s="143" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M48" s="129" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N48" s="133"/>
       <c r="O48" s="132"/>
@@ -11289,23 +11298,23 @@
         <v>5</v>
       </c>
       <c r="E50" s="107" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F50" s="89"/>
       <c r="G50" s="89"/>
       <c r="H50" s="89"/>
       <c r="I50" s="130" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J50" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K50" s="126"/>
       <c r="L50" s="132" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M50" s="129" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N50" s="133"/>
       <c r="O50" s="132"/>
@@ -11332,23 +11341,23 @@
         <v>5</v>
       </c>
       <c r="E51" s="107" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F51" s="89"/>
       <c r="G51" s="89"/>
       <c r="H51" s="89"/>
       <c r="I51" s="130" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J51" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K51" s="126"/>
       <c r="L51" s="132" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M51" s="129" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N51" s="133"/>
       <c r="O51" s="132"/>
@@ -11375,24 +11384,24 @@
         <v>5</v>
       </c>
       <c r="E52" s="107" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F52" s="89"/>
       <c r="G52" s="89"/>
       <c r="H52" s="89"/>
       <c r="I52" s="130" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J52" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K52" s="126"/>
       <c r="L52" s="107" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M52" s="129"/>
       <c r="N52" s="61" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="O52" s="132"/>
       <c r="P52" s="107"/>
@@ -11418,20 +11427,20 @@
         <v>5</v>
       </c>
       <c r="E53" s="107" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F53" s="89"/>
       <c r="G53" s="89"/>
       <c r="H53" s="89"/>
       <c r="I53" s="130" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J53" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K53" s="126"/>
       <c r="L53" s="132" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M53" s="107"/>
       <c r="N53" s="61" t="s">
@@ -11461,20 +11470,20 @@
         <v>5</v>
       </c>
       <c r="E54" s="107" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F54" s="89"/>
       <c r="G54" s="89"/>
       <c r="H54" s="89"/>
       <c r="I54" s="130" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J54" s="131" t="s">
         <v>135</v>
       </c>
       <c r="K54" s="126"/>
       <c r="L54" s="132" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M54" s="129"/>
       <c r="N54" s="61" t="s">
@@ -11597,7 +11606,7 @@
       <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -11876,7 +11885,7 @@
         <v>227</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J6" s="35" t="s">
         <v>51</v>
@@ -11945,26 +11954,26 @@
         <v>5</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="151" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J7" s="152" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="54" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M7" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N7" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O7" s="54"/>
       <c r="P7" s="29"/>
@@ -11990,20 +11999,20 @@
         <v>5</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="151" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J8" s="152" t="s">
         <v>135</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="54" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M8" s="51" t="s">
         <v>77</v>
@@ -12012,7 +12021,7 @@
         <v>140</v>
       </c>
       <c r="O8" s="64" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="55"/>
@@ -12037,20 +12046,20 @@
         <v>3</v>
       </c>
       <c r="E9" s="157" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F9" s="154"/>
       <c r="G9" s="154"/>
       <c r="H9" s="154"/>
       <c r="I9" s="158" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="J9" s="159" t="s">
         <v>135</v>
       </c>
       <c r="K9" s="154"/>
       <c r="L9" s="160" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M9" s="157"/>
       <c r="N9" s="161"/>
@@ -12076,7 +12085,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -12095,7 +12104,7 @@
         <v>299</v>
       </c>
       <c r="N10" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O10" s="54"/>
       <c r="P10" s="29"/>
@@ -12121,7 +12130,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -12134,7 +12143,7 @@
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="54" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>77</v>
@@ -12143,7 +12152,7 @@
         <v>140</v>
       </c>
       <c r="O11" s="64" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="55"/>
@@ -12168,20 +12177,20 @@
         <v>5</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="151" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J12" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="54" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M12" s="51" t="s">
         <v>77</v>
@@ -12213,7 +12222,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12235,7 +12244,7 @@
         <v>140</v>
       </c>
       <c r="O13" s="64" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="55"/>
@@ -12260,7 +12269,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -12273,7 +12282,7 @@
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="54" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M14" s="51" t="s">
         <v>77</v>
@@ -12307,26 +12316,26 @@
         <v>5</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="151" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="J15" s="152" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="54" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M15" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N15" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O15" s="54"/>
       <c r="P15" s="29"/>
@@ -12352,20 +12361,20 @@
         <v>3</v>
       </c>
       <c r="E16" s="157" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F16" s="154"/>
       <c r="G16" s="154"/>
       <c r="H16" s="154"/>
       <c r="I16" s="158" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="J16" s="159" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K16" s="154"/>
       <c r="L16" s="160" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M16" s="157"/>
       <c r="N16" s="161"/>
@@ -12391,7 +12400,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -12404,7 +12413,7 @@
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="54" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M17" s="51" t="s">
         <v>77</v>
@@ -12438,7 +12447,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -12447,11 +12456,11 @@
         <v>149</v>
       </c>
       <c r="J18" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="54" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M18" s="51" t="s">
         <v>77</v>
@@ -12483,7 +12492,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -12496,13 +12505,13 @@
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="54" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M19" s="51" t="s">
         <v>227</v>
       </c>
       <c r="N19" s="144" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="29"/>
@@ -12528,7 +12537,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -12537,7 +12546,7 @@
         <v>134</v>
       </c>
       <c r="J20" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="54" t="s">
@@ -12573,7 +12582,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -12586,7 +12595,7 @@
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="54" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M21" s="51" t="s">
         <v>77</v>
@@ -12620,7 +12629,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -12629,11 +12638,11 @@
         <v>172</v>
       </c>
       <c r="J22" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="54" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M22" s="51" t="s">
         <v>77</v>
@@ -12665,7 +12674,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -12678,7 +12687,7 @@
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="54" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M23" s="51" t="s">
         <v>77</v>
@@ -12712,7 +12721,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -12725,13 +12734,13 @@
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="54" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M24" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N24" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O24" s="54"/>
       <c r="P24" s="29"/>
@@ -12757,7 +12766,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -12766,11 +12775,11 @@
         <v>183</v>
       </c>
       <c r="J25" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="54" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M25" s="51" t="s">
         <v>77</v>
@@ -12802,7 +12811,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -12815,7 +12824,7 @@
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="54" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M26" s="51" t="s">
         <v>77</v>
@@ -12849,7 +12858,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -12862,7 +12871,7 @@
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="54" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M27" s="51" t="s">
         <v>77</v>
@@ -12896,7 +12905,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -12909,13 +12918,13 @@
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="54" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M28" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N28" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O28" s="54"/>
       <c r="P28" s="29"/>
@@ -12941,7 +12950,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -12950,11 +12959,11 @@
         <v>151</v>
       </c>
       <c r="J29" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="54" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M29" s="51" t="s">
         <v>77</v>
@@ -12986,7 +12995,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -12999,7 +13008,7 @@
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="54" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M30" s="51" t="s">
         <v>77</v>
@@ -13033,7 +13042,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -13042,11 +13051,11 @@
         <v>155</v>
       </c>
       <c r="J31" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="54" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M31" s="51" t="s">
         <v>77</v>
@@ -13078,7 +13087,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -13091,7 +13100,7 @@
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="54" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M32" s="51" t="s">
         <v>77</v>
@@ -13125,7 +13134,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -13138,13 +13147,13 @@
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="54" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M33" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N33" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O33" s="54"/>
       <c r="P33" s="29"/>
@@ -13170,7 +13179,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -13215,7 +13224,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -13224,11 +13233,11 @@
         <v>167</v>
       </c>
       <c r="J35" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="54" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M35" s="51" t="s">
         <v>77</v>
@@ -13260,7 +13269,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -13273,7 +13282,7 @@
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="54" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M36" s="51" t="s">
         <v>77</v>
@@ -13305,7 +13314,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -13314,11 +13323,11 @@
         <v>189</v>
       </c>
       <c r="J37" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="54" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M37" s="51" t="s">
         <v>77</v>
@@ -13350,7 +13359,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -13395,7 +13404,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -13408,13 +13417,13 @@
       </c>
       <c r="K39" s="48"/>
       <c r="L39" s="54" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M39" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N39" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O39" s="54"/>
       <c r="P39" s="29"/>
@@ -13440,7 +13449,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -13449,11 +13458,11 @@
         <v>192</v>
       </c>
       <c r="J40" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K40" s="48"/>
       <c r="L40" s="54" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M40" s="51" t="s">
         <v>77</v>
@@ -13485,7 +13494,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -13498,7 +13507,7 @@
       </c>
       <c r="K41" s="48"/>
       <c r="L41" s="54" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M41" s="51" t="s">
         <v>77</v>
@@ -13530,7 +13539,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -13539,11 +13548,11 @@
         <v>195</v>
       </c>
       <c r="J42" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K42" s="48"/>
       <c r="L42" s="54" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M42" s="51" t="s">
         <v>77</v>
@@ -13575,20 +13584,20 @@
         <v>5</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="151" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="J43" s="152" t="s">
         <v>135</v>
       </c>
       <c r="K43" s="48"/>
       <c r="L43" s="54" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M43" s="51" t="s">
         <v>77</v>
@@ -13620,7 +13629,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -13633,13 +13642,13 @@
       </c>
       <c r="K44" s="48"/>
       <c r="L44" s="54" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M44" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N44" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O44" s="54"/>
       <c r="P44" s="29"/>
@@ -13665,7 +13674,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -13674,7 +13683,7 @@
         <v>162</v>
       </c>
       <c r="J45" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="54" t="s">
@@ -13710,20 +13719,20 @@
         <v>5</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="151" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J46" s="152" t="s">
         <v>135</v>
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="54" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M46" s="51" t="s">
         <v>77</v>
@@ -13755,7 +13764,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -13764,11 +13773,11 @@
         <v>199</v>
       </c>
       <c r="J47" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K47" s="48"/>
       <c r="L47" s="54" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M47" s="51" t="s">
         <v>77</v>
@@ -13800,20 +13809,20 @@
         <v>5</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="151" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J48" s="152" t="s">
         <v>135</v>
       </c>
       <c r="K48" s="48"/>
       <c r="L48" s="54" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="M48" s="51" t="s">
         <v>77</v>
@@ -13845,20 +13854,20 @@
         <v>5</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="151" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="J49" s="152" t="s">
         <v>51</v>
       </c>
       <c r="K49" s="48"/>
       <c r="L49" s="54" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M49" s="51" t="s">
         <v>77</v>
@@ -13890,7 +13899,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -13899,7 +13908,7 @@
         <v>164</v>
       </c>
       <c r="J50" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K50" s="48"/>
       <c r="L50" s="54" t="s">
@@ -13935,20 +13944,20 @@
         <v>5</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="151" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J51" s="152" t="s">
         <v>135</v>
       </c>
       <c r="K51" s="48"/>
       <c r="L51" s="54" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M51" s="144" t="s">
         <v>54</v>
@@ -13978,7 +13987,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -13987,11 +13996,11 @@
         <v>203</v>
       </c>
       <c r="J52" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K52" s="48"/>
       <c r="L52" s="54" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M52" s="51" t="s">
         <v>77</v>
@@ -14023,20 +14032,20 @@
         <v>3</v>
       </c>
       <c r="E53" s="157" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F53" s="154"/>
       <c r="G53" s="154"/>
       <c r="H53" s="154"/>
       <c r="I53" s="158" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J53" s="159" t="s">
         <v>135</v>
       </c>
       <c r="K53" s="154"/>
       <c r="L53" s="160" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M53" s="162"/>
       <c r="N53" s="161"/>
@@ -14062,20 +14071,20 @@
         <v>5</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="151" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J54" s="152" t="s">
         <v>51</v>
       </c>
       <c r="K54" s="48"/>
       <c r="L54" s="54" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M54" s="51" t="s">
         <v>77</v>
@@ -14107,16 +14116,16 @@
         <v>3</v>
       </c>
       <c r="E55" s="157" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I55" s="158" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J55" s="159" t="s">
         <v>135</v>
       </c>
       <c r="L55" s="153" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N55" s="164"/>
       <c r="V55" s="165"/>
@@ -14137,16 +14146,16 @@
         <v>5</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I56" s="151" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="J56" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L56" s="54" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M56" s="51" t="s">
         <v>77</v>
@@ -14166,22 +14175,22 @@
         <v>5</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="I57" s="151" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J57" s="152" t="s">
         <v>135</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M57" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N57" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14195,16 +14204,16 @@
         <v>5</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="I58" s="151" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J58" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L58" s="54" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M58" s="51" t="s">
         <v>77</v>
@@ -14224,16 +14233,16 @@
         <v>5</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I59" s="151" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J59" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M59" s="144" t="s">
         <v>54</v>
@@ -14250,22 +14259,22 @@
         <v>5</v>
       </c>
       <c r="E60" s="51" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I60" s="151" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J60" s="152" t="s">
         <v>135</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M60" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N60" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14279,16 +14288,16 @@
         <v>5</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I61" s="151" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J61" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L61" s="54" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="M61" s="51" t="s">
         <v>77</v>
@@ -14308,16 +14317,16 @@
         <v>5</v>
       </c>
       <c r="E62" s="51" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="I62" s="151" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J62" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L62" s="54" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M62" s="144" t="s">
         <v>54</v>
@@ -14334,16 +14343,16 @@
         <v>5</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="I63" s="151" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J63" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M63" s="51" t="s">
         <v>77</v>
@@ -14363,16 +14372,16 @@
         <v>3</v>
       </c>
       <c r="E64" s="157" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I64" s="158" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J64" s="159" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L64" s="160" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N64" s="164"/>
       <c r="V64" s="165"/>
@@ -14393,22 +14402,22 @@
         <v>5</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I65" s="151" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J65" s="152" t="s">
         <v>135</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M65" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N65" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14422,16 +14431,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I66" s="151" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J66" s="152" t="s">
         <v>135</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M66" s="144" t="s">
         <v>54</v>
@@ -14449,16 +14458,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="157" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I67" s="158" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J67" s="159" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L67" s="153" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N67" s="164"/>
       <c r="V67" s="165"/>
@@ -14479,22 +14488,22 @@
         <v>5</v>
       </c>
       <c r="E68" s="51" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I68" s="151" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J68" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="N68" s="61" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14508,16 +14517,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="51" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="I69" s="151" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J69" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M69" s="51" t="s">
         <v>299</v>
@@ -14534,16 +14543,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="51" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I70" s="151" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J70" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M70" s="51" t="s">
         <v>299</v>
@@ -14560,16 +14569,16 @@
         <v>5</v>
       </c>
       <c r="E71" s="51" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="I71" s="151" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="J71" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="M71" s="51" t="s">
         <v>77</v>
@@ -14589,22 +14598,22 @@
         <v>5</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I72" s="151" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J72" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M72" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N72" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14618,7 +14627,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="51" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I73" s="151" t="s">
         <v>232</v>
@@ -14647,16 +14656,16 @@
         <v>5</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I74" s="151" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J74" s="152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M74" s="144" t="s">
         <v>54</v>
@@ -14673,16 +14682,16 @@
         <v>5</v>
       </c>
       <c r="E75" s="51" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="I75" s="151" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J75" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M75" s="51" t="s">
         <v>77</v>
@@ -14702,22 +14711,22 @@
         <v>5</v>
       </c>
       <c r="E76" s="51" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="I76" s="151" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J76" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M76" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N76" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14731,22 +14740,22 @@
         <v>5</v>
       </c>
       <c r="E77" s="51" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="I77" s="151" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J77" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M77" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N77" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14760,22 +14769,22 @@
         <v>5</v>
       </c>
       <c r="E78" s="51" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I78" s="151" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J78" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M78" s="51" t="s">
         <v>299</v>
       </c>
       <c r="N78" s="144" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" s="166" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14789,16 +14798,16 @@
         <v>3</v>
       </c>
       <c r="E79" s="170" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I79" s="171" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J79" s="172" t="s">
         <v>51</v>
       </c>
       <c r="L79" s="166" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M79" s="173" t="s">
         <v>77</v>
@@ -14915,7 +14924,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -14923,12 +14932,12 @@
   <sheetData>
     <row r="1" s="177" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B2" s="177"/>
     </row>
@@ -14944,10 +14953,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B5" s="177" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14955,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14963,7 +14972,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14971,7 +14980,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14979,7 +14988,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14987,7 +14996,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14995,7 +15004,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15003,7 +15012,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15011,7 +15020,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15019,7 +15028,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15027,7 +15036,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -15056,7 +15065,7 @@
       <selection pane="bottomRight" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -16382,7 +16391,7 @@
   </sheetPr>
   <dimension ref="B1:AF54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -16390,7 +16399,7 @@
       <selection pane="bottomRight" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -18775,7 +18784,7 @@
       <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
@@ -24706,12 +24715,12 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="E54" activeCellId="0" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25255,7 +25264,7 @@
       <c r="AA11" s="137"/>
       <c r="AB11" s="138"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="126" t="n">
         <v>6</v>
       </c>
@@ -25263,18 +25272,28 @@
         <v>46</v>
       </c>
       <c r="D12" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="107"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>306</v>
+      </c>
       <c r="F12" s="89"/>
       <c r="G12" s="89"/>
       <c r="H12" s="89"/>
-      <c r="I12" s="130"/>
+      <c r="I12" s="130" t="s">
+        <v>296</v>
+      </c>
       <c r="J12" s="131"/>
       <c r="K12" s="126"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="133"/>
+      <c r="L12" s="132" t="s">
+        <v>307</v>
+      </c>
+      <c r="M12" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="133" t="s">
+        <v>308</v>
+      </c>
       <c r="O12" s="132"/>
       <c r="P12" s="107"/>
       <c r="Q12" s="134"/>
@@ -25497,7 +25516,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="107" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F19" s="89"/>
       <c r="G19" s="89"/>
@@ -25510,7 +25529,7 @@
       <c r="J19" s="131"/>
       <c r="K19" s="126"/>
       <c r="L19" s="132" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M19" s="129" t="s">
         <v>298</v>
@@ -25542,7 +25561,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -25553,7 +25572,7 @@
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M20" s="0"/>
       <c r="N20" s="61" t="s">
@@ -25583,7 +25602,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -25594,7 +25613,7 @@
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="143" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M21" s="0"/>
       <c r="N21" s="61" t="s">
@@ -25624,7 +25643,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -25635,7 +25654,7 @@
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="143" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M22" s="0"/>
       <c r="N22" s="61" t="s">
@@ -25665,7 +25684,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -25676,7 +25695,7 @@
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M23" s="0"/>
       <c r="N23" s="61" t="s">
@@ -25706,7 +25725,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="107" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F24" s="89"/>
       <c r="G24" s="89"/>
@@ -25719,7 +25738,7 @@
       <c r="J24" s="131"/>
       <c r="K24" s="126"/>
       <c r="L24" s="132" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M24" s="129"/>
       <c r="N24" s="61" t="s">
@@ -25751,7 +25770,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="107" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F25" s="89"/>
       <c r="G25" s="89"/>
@@ -25762,7 +25781,7 @@
       <c r="J25" s="131"/>
       <c r="K25" s="126"/>
       <c r="L25" s="143" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M25" s="129"/>
       <c r="N25" s="61" t="s">
@@ -27126,7 +27145,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="112" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J6" s="113" t="s">
         <v>51</v>
@@ -27228,7 +27247,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="107" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F8" s="89"/>
       <c r="G8" s="89"/>
@@ -27237,11 +27256,11 @@
       <c r="J8" s="131"/>
       <c r="K8" s="126"/>
       <c r="L8" s="143" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M8" s="129"/>
       <c r="N8" s="61" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O8" s="132"/>
       <c r="P8" s="107"/>
@@ -27267,7 +27286,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
@@ -27276,11 +27295,11 @@
       <c r="J9" s="131"/>
       <c r="K9" s="126"/>
       <c r="L9" s="132" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M9" s="129"/>
       <c r="N9" s="61" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O9" s="132"/>
       <c r="P9" s="107"/>
@@ -27306,7 +27325,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -27315,11 +27334,11 @@
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M10" s="0"/>
       <c r="N10" s="61" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O10" s="132"/>
       <c r="P10" s="107"/>
@@ -27345,7 +27364,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -27354,11 +27373,11 @@
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="143" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M11" s="0"/>
       <c r="N11" s="61" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O11" s="132"/>
       <c r="P11" s="107"/>
@@ -27384,7 +27403,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -27393,11 +27412,11 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="143" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M12" s="0"/>
       <c r="N12" s="61" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O12" s="132"/>
       <c r="P12" s="107"/>
@@ -27423,7 +27442,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -27432,11 +27451,11 @@
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M13" s="0"/>
       <c r="N13" s="61" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O13" s="132"/>
       <c r="P13" s="107"/>
@@ -27462,7 +27481,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F14" s="89"/>
       <c r="G14" s="89"/>
@@ -27471,11 +27490,11 @@
       <c r="J14" s="131"/>
       <c r="K14" s="126"/>
       <c r="L14" s="132" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M14" s="129"/>
       <c r="N14" s="61" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O14" s="132"/>
       <c r="P14" s="107"/>
@@ -27501,7 +27520,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F15" s="89"/>
       <c r="G15" s="89"/>
@@ -27510,11 +27529,11 @@
       <c r="J15" s="131"/>
       <c r="K15" s="126"/>
       <c r="L15" s="143" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M15" s="129"/>
       <c r="N15" s="61" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O15" s="132"/>
       <c r="P15" s="107"/>
@@ -27540,7 +27559,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="107" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F16" s="89"/>
       <c r="G16" s="89"/>
@@ -27549,11 +27568,11 @@
       <c r="J16" s="131"/>
       <c r="K16" s="126"/>
       <c r="L16" s="107" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M16" s="129"/>
       <c r="N16" s="61" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O16" s="132"/>
       <c r="P16" s="107"/>
@@ -27579,7 +27598,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="107" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F17" s="89"/>
       <c r="G17" s="89"/>
@@ -27588,7 +27607,7 @@
       <c r="J17" s="131"/>
       <c r="K17" s="126"/>
       <c r="L17" s="132" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M17" s="129"/>
       <c r="N17" s="133"/>
@@ -27682,18 +27701,18 @@
         <v>5</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F20" s="89"/>
       <c r="G20" s="89"/>
       <c r="H20" s="89"/>
       <c r="I20" s="130" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J20" s="131"/>
       <c r="K20" s="126"/>
       <c r="L20" s="107" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M20" s="129"/>
       <c r="N20" s="61" t="s">

--- a/startup/standards/standards.xlsx
+++ b/startup/standards/standards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Ti" sheetId="1" state="visible" r:id="rId2"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="583">
   <si>
     <t xml:space="preserve">Double wheel</t>
   </si>
@@ -1759,6 +1759,9 @@
     <t xml:space="preserve">Y2TiO5, stuffed pyrochlore</t>
   </si>
   <si>
+    <t xml:space="preserve">Y2O3</t>
+  </si>
+  <si>
     <t xml:space="preserve">CaTiNbO6</t>
   </si>
   <si>
@@ -2240,9 +2243,6 @@
   </si>
   <si>
     <t xml:space="preserve">YttriumOxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y2O3</t>
   </si>
   <si>
     <t xml:space="preserve">ZirconiumFoil</t>
@@ -3541,9 +3541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3552,8 +3552,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3376080" y="10725120"/>
-          <a:ext cx="6658920" cy="2250360"/>
+          <a:off x="3377160" y="10725120"/>
+          <a:ext cx="6660000" cy="2250000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3800,9 +3800,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1109160</xdr:colOff>
+      <xdr:colOff>1108800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3816,7 +3816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10722600"/>
-          <a:ext cx="3163680" cy="3266280"/>
+          <a:ext cx="3164760" cy="3265920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3842,9 +3842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3853,8 +3853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3376080" y="10725120"/>
-          <a:ext cx="6658920" cy="2250360"/>
+          <a:off x="3377160" y="10725120"/>
+          <a:ext cx="6660000" cy="2250000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4101,9 +4101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1109160</xdr:colOff>
+      <xdr:colOff>1108800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4117,7 +4117,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10717560"/>
-          <a:ext cx="3163680" cy="3266280"/>
+          <a:ext cx="3164760" cy="3265920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4143,9 +4143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4154,8 +4154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3354120" y="7834680"/>
-          <a:ext cx="6658920" cy="2250360"/>
+          <a:off x="3355200" y="7834680"/>
+          <a:ext cx="6660000" cy="2250000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4402,9 +4402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1153080</xdr:colOff>
+      <xdr:colOff>1152720</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4418,7 +4418,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7716240"/>
-          <a:ext cx="3207600" cy="1824840"/>
+          <a:ext cx="3208680" cy="1824480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4444,9 +4444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1724760</xdr:colOff>
+      <xdr:colOff>1724400</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4455,8 +4455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3408840" y="13656600"/>
-          <a:ext cx="6658920" cy="2250360"/>
+          <a:off x="3409920" y="13656600"/>
+          <a:ext cx="6660000" cy="2250000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4703,9 +4703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1143720</xdr:colOff>
+      <xdr:colOff>1143360</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4719,7 +4719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158040" y="13771080"/>
-          <a:ext cx="3040200" cy="3108960"/>
+          <a:ext cx="3041280" cy="3108600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4745,9 +4745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>318600</xdr:colOff>
+      <xdr:colOff>318240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4761,7 +4761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7947360"/>
-          <a:ext cx="3605040" cy="2248920"/>
+          <a:ext cx="3606120" cy="2248560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4787,9 +4787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1861920</xdr:colOff>
+      <xdr:colOff>1861560</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4799,7 +4799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6644880" cy="2250360"/>
+          <a:ext cx="6644520" cy="2250000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5051,9 +5051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1861920</xdr:colOff>
+      <xdr:colOff>1861560</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5063,7 +5063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362040" y="10725120"/>
-          <a:ext cx="6644880" cy="2250360"/>
+          <a:ext cx="6644520" cy="2250000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5322,10 +5322,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M20" activeCellId="0" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="M20" activeCellId="1" sqref="N34 M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -7437,7 +7437,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="1" sqref="N34 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8770,12 +8770,12 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="N34" activeCellId="0" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10075,7 +10075,7 @@
       <c r="AA33" s="137"/>
       <c r="AB33" s="138"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="65" t="n">
         <v>4</v>
       </c>
@@ -10085,16 +10085,24 @@
       <c r="D34" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="61"/>
+      <c r="E34" s="61" t="s">
+        <v>399</v>
+      </c>
       <c r="F34" s="62"/>
       <c r="G34" s="62"/>
       <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="I34" s="63" t="s">
+        <v>397</v>
+      </c>
       <c r="J34" s="64"/>
       <c r="K34" s="65"/>
-      <c r="L34" s="66"/>
+      <c r="L34" s="66" t="s">
+        <v>399</v>
+      </c>
       <c r="M34" s="67"/>
-      <c r="N34" s="68"/>
+      <c r="N34" s="69" t="s">
+        <v>171</v>
+      </c>
       <c r="O34" s="66"/>
       <c r="P34" s="61"/>
       <c r="Q34" s="134"/>
@@ -10612,18 +10620,18 @@
         <v>5</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F50" s="62"/>
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
       <c r="I50" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J50" s="64"/>
       <c r="K50" s="65"/>
       <c r="L50" s="66" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M50" s="67"/>
       <c r="N50" s="69" t="s">
@@ -10653,24 +10661,24 @@
         <v>5</v>
       </c>
       <c r="E51" s="61" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
       <c r="H51" s="62"/>
       <c r="I51" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J51" s="64"/>
       <c r="K51" s="65"/>
       <c r="L51" s="66" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M51" s="67" t="s">
         <v>54</v>
       </c>
       <c r="N51" s="68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O51" s="66"/>
       <c r="P51" s="61"/>
@@ -10696,24 +10704,24 @@
         <v>5</v>
       </c>
       <c r="E52" s="61" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F52" s="62"/>
       <c r="G52" s="62"/>
       <c r="H52" s="62"/>
       <c r="I52" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J52" s="64"/>
       <c r="K52" s="65"/>
       <c r="L52" s="66" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M52" s="67" t="s">
         <v>54</v>
       </c>
       <c r="N52" s="68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O52" s="66"/>
       <c r="P52" s="61"/>
@@ -10739,18 +10747,18 @@
         <v>5</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F53" s="62"/>
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
       <c r="I53" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J53" s="64"/>
       <c r="K53" s="65"/>
       <c r="L53" s="66" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M53" s="61"/>
       <c r="N53" s="69" t="s">
@@ -10780,18 +10788,18 @@
         <v>5</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F54" s="62"/>
       <c r="G54" s="62"/>
       <c r="H54" s="62"/>
       <c r="I54" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J54" s="64"/>
       <c r="K54" s="65"/>
       <c r="L54" s="66" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M54" s="67" t="s">
         <v>54</v>
@@ -10917,7 +10925,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="I50" activeCellId="0" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="I50" activeCellId="1" sqref="N34 I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11194,7 +11202,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="118" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J6" s="119" t="s">
         <v>166</v>
@@ -11209,7 +11217,7 @@
         <v>78</v>
       </c>
       <c r="N6" s="123" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O6" s="124" t="s">
         <v>56</v>
@@ -11296,20 +11304,20 @@
         <v>5</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="62"/>
       <c r="H8" s="62"/>
       <c r="I8" s="63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J8" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K8" s="65"/>
       <c r="L8" s="67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M8" s="67" t="s">
         <v>54</v>
@@ -11341,20 +11349,20 @@
         <v>5</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
       <c r="H9" s="62"/>
       <c r="I9" s="63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J9" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K9" s="65"/>
       <c r="L9" s="61" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M9" s="67"/>
       <c r="N9" s="69" t="s">
@@ -11384,20 +11392,20 @@
         <v>5</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
       <c r="I10" s="63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J10" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K10" s="65"/>
       <c r="L10" s="61" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M10" s="67" t="s">
         <v>54</v>
@@ -11429,20 +11437,20 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J11" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K11" s="0"/>
       <c r="L11" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M11" s="67" t="s">
         <v>54</v>
@@ -11474,20 +11482,20 @@
         <v>5</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
       <c r="I12" s="63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J12" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K12" s="65"/>
       <c r="L12" s="66" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M12" s="67" t="s">
         <v>54</v>
@@ -11519,20 +11527,20 @@
         <v>5</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J13" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K13" s="65"/>
       <c r="L13" s="66" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M13" s="67" t="s">
         <v>54</v>
@@ -11993,20 +12001,20 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J27" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M27" s="67" t="s">
         <v>54</v>
@@ -12038,26 +12046,26 @@
         <v>5</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
       <c r="I28" s="63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J28" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K28" s="65"/>
       <c r="L28" s="143" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M28" s="67" t="s">
         <v>54</v>
       </c>
       <c r="N28" s="68" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O28" s="66"/>
       <c r="P28" s="61"/>
@@ -12083,26 +12091,26 @@
         <v>5</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
       <c r="I29" s="63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J29" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K29" s="65"/>
       <c r="L29" s="66" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M29" s="67" t="s">
         <v>54</v>
       </c>
       <c r="N29" s="68" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O29" s="66"/>
       <c r="P29" s="61"/>
@@ -12128,26 +12136,26 @@
         <v>5</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
       <c r="H30" s="62"/>
       <c r="I30" s="63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J30" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K30" s="65"/>
       <c r="L30" s="61" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M30" s="67" t="s">
         <v>54</v>
       </c>
       <c r="N30" s="68" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O30" s="66"/>
       <c r="P30" s="61"/>
@@ -12206,20 +12214,20 @@
         <v>5</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="62"/>
       <c r="H32" s="62"/>
       <c r="I32" s="63" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J32" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K32" s="65"/>
       <c r="L32" s="66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M32" s="67"/>
       <c r="N32" s="69" t="s">
@@ -12249,20 +12257,20 @@
         <v>5</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F33" s="62"/>
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
       <c r="I33" s="63" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J33" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K33" s="65"/>
       <c r="L33" s="66" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M33" s="67" t="s">
         <v>54</v>
@@ -12491,20 +12499,20 @@
         <v>5</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="62"/>
       <c r="H40" s="62"/>
       <c r="I40" s="63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J40" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K40" s="65"/>
       <c r="L40" s="66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M40" s="67" t="s">
         <v>54</v>
@@ -12534,20 +12542,20 @@
         <v>5</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
       <c r="H41" s="62"/>
       <c r="I41" s="63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J41" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K41" s="65"/>
       <c r="L41" s="66" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M41" s="67" t="s">
         <v>54</v>
@@ -12577,20 +12585,20 @@
         <v>5</v>
       </c>
       <c r="E42" s="61" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
       <c r="I42" s="63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J42" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="66" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M42" s="67" t="s">
         <v>54</v>
@@ -12620,20 +12628,20 @@
         <v>5</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
       <c r="I43" s="63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J43" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K43" s="65"/>
       <c r="L43" s="66" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M43" s="67" t="s">
         <v>54</v>
@@ -12762,20 +12770,20 @@
         <v>5</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F47" s="62"/>
       <c r="G47" s="62"/>
       <c r="H47" s="62"/>
       <c r="I47" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J47" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K47" s="65"/>
       <c r="L47" s="66" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M47" s="67" t="s">
         <v>54</v>
@@ -12805,20 +12813,20 @@
         <v>5</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F48" s="62"/>
       <c r="G48" s="62"/>
       <c r="H48" s="62"/>
       <c r="I48" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J48" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K48" s="65"/>
       <c r="L48" s="143" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M48" s="67" t="s">
         <v>385</v>
@@ -12881,20 +12889,20 @@
         <v>5</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F50" s="62"/>
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
       <c r="I50" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J50" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K50" s="65"/>
       <c r="L50" s="66" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M50" s="67" t="s">
         <v>385</v>
@@ -12924,20 +12932,20 @@
         <v>5</v>
       </c>
       <c r="E51" s="61" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
       <c r="H51" s="62"/>
       <c r="I51" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J51" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K51" s="65"/>
       <c r="L51" s="66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M51" s="67" t="s">
         <v>385</v>
@@ -12967,24 +12975,24 @@
         <v>5</v>
       </c>
       <c r="E52" s="61" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F52" s="62"/>
       <c r="G52" s="62"/>
       <c r="H52" s="62"/>
       <c r="I52" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J52" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K52" s="65"/>
       <c r="L52" s="61" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M52" s="67"/>
       <c r="N52" s="69" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O52" s="66"/>
       <c r="P52" s="61"/>
@@ -13010,20 +13018,20 @@
         <v>5</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F53" s="62"/>
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
       <c r="I53" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J53" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K53" s="65"/>
       <c r="L53" s="66" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M53" s="61"/>
       <c r="N53" s="69" t="s">
@@ -13053,20 +13061,20 @@
         <v>5</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F54" s="62"/>
       <c r="G54" s="62"/>
       <c r="H54" s="62"/>
       <c r="I54" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J54" s="64" t="s">
         <v>166</v>
       </c>
       <c r="K54" s="65"/>
       <c r="L54" s="66" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M54" s="67"/>
       <c r="N54" s="69" t="s">
@@ -13186,10 +13194,10 @@
   <dimension ref="B1:AD80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
+      <selection pane="topLeft" activeCell="D67" activeCellId="1" sqref="N34 D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -13537,7 +13545,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -13550,13 +13558,13 @@
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="54" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M7" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N7" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O7" s="54"/>
       <c r="P7" s="29"/>
@@ -13582,20 +13590,20 @@
         <v>5</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="151" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J8" s="152" t="s">
         <v>166</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="54" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M8" s="51" t="s">
         <v>108</v>
@@ -13604,7 +13612,7 @@
         <v>171</v>
       </c>
       <c r="O8" s="72" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="55"/>
@@ -13629,20 +13637,20 @@
         <v>3</v>
       </c>
       <c r="E9" s="157" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F9" s="154"/>
       <c r="G9" s="154"/>
       <c r="H9" s="154"/>
       <c r="I9" s="158" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J9" s="159" t="s">
         <v>166</v>
       </c>
       <c r="K9" s="154"/>
       <c r="L9" s="160" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M9" s="157"/>
       <c r="N9" s="161"/>
@@ -13668,7 +13676,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13687,7 +13695,7 @@
         <v>328</v>
       </c>
       <c r="N10" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O10" s="54"/>
       <c r="P10" s="29"/>
@@ -13713,7 +13721,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -13726,7 +13734,7 @@
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="54" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>108</v>
@@ -13735,7 +13743,7 @@
         <v>171</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="55"/>
@@ -13760,20 +13768,20 @@
         <v>5</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="151" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J12" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="54" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M12" s="51" t="s">
         <v>108</v>
@@ -13805,7 +13813,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13827,7 +13835,7 @@
         <v>171</v>
       </c>
       <c r="O13" s="72" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="55"/>
@@ -13852,7 +13860,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -13865,7 +13873,7 @@
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="54" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M14" s="51" t="s">
         <v>108</v>
@@ -13899,26 +13907,26 @@
         <v>5</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="151" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J15" s="152" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="54" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M15" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N15" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O15" s="54"/>
       <c r="P15" s="29"/>
@@ -13944,20 +13952,20 @@
         <v>3</v>
       </c>
       <c r="E16" s="157" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F16" s="154"/>
       <c r="G16" s="154"/>
       <c r="H16" s="154"/>
       <c r="I16" s="158" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J16" s="159" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K16" s="154"/>
       <c r="L16" s="160" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M16" s="157"/>
       <c r="N16" s="161"/>
@@ -13983,7 +13991,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -13996,7 +14004,7 @@
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="54" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M17" s="51" t="s">
         <v>108</v>
@@ -14030,7 +14038,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -14039,11 +14047,11 @@
         <v>180</v>
       </c>
       <c r="J18" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="54" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M18" s="51" t="s">
         <v>108</v>
@@ -14075,7 +14083,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -14088,13 +14096,13 @@
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="54" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M19" s="51" t="s">
         <v>255</v>
       </c>
       <c r="N19" s="144" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="29"/>
@@ -14120,7 +14128,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -14129,7 +14137,7 @@
         <v>165</v>
       </c>
       <c r="J20" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="54" t="s">
@@ -14165,7 +14173,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -14178,7 +14186,7 @@
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="54" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M21" s="51" t="s">
         <v>108</v>
@@ -14212,7 +14220,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -14221,11 +14229,11 @@
         <v>203</v>
       </c>
       <c r="J22" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="54" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M22" s="51" t="s">
         <v>108</v>
@@ -14257,7 +14265,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -14270,7 +14278,7 @@
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="54" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M23" s="51" t="s">
         <v>108</v>
@@ -14304,7 +14312,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -14317,13 +14325,13 @@
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="54" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M24" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N24" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O24" s="54"/>
       <c r="P24" s="29"/>
@@ -14349,7 +14357,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -14358,11 +14366,11 @@
         <v>213</v>
       </c>
       <c r="J25" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="54" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M25" s="51" t="s">
         <v>108</v>
@@ -14394,7 +14402,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -14407,7 +14415,7 @@
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="54" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M26" s="51" t="s">
         <v>108</v>
@@ -14441,7 +14449,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -14454,7 +14462,7 @@
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="54" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M27" s="51" t="s">
         <v>108</v>
@@ -14488,7 +14496,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -14501,13 +14509,13 @@
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="54" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M28" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N28" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O28" s="54"/>
       <c r="P28" s="29"/>
@@ -14533,7 +14541,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -14542,11 +14550,11 @@
         <v>182</v>
       </c>
       <c r="J29" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="54" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M29" s="51" t="s">
         <v>108</v>
@@ -14578,7 +14586,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -14591,7 +14599,7 @@
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="54" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M30" s="51" t="s">
         <v>108</v>
@@ -14625,7 +14633,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -14634,11 +14642,11 @@
         <v>186</v>
       </c>
       <c r="J31" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="54" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M31" s="51" t="s">
         <v>108</v>
@@ -14670,7 +14678,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -14683,7 +14691,7 @@
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M32" s="51" t="s">
         <v>108</v>
@@ -14717,7 +14725,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -14730,13 +14738,13 @@
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M33" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N33" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O33" s="54"/>
       <c r="P33" s="29"/>
@@ -14762,7 +14770,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -14807,7 +14815,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -14816,11 +14824,11 @@
         <v>198</v>
       </c>
       <c r="J35" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="54" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M35" s="51" t="s">
         <v>108</v>
@@ -14852,7 +14860,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -14865,7 +14873,7 @@
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M36" s="51" t="s">
         <v>108</v>
@@ -14897,7 +14905,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -14906,11 +14914,11 @@
         <v>219</v>
       </c>
       <c r="J37" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="54" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M37" s="51" t="s">
         <v>108</v>
@@ -14942,7 +14950,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -14987,7 +14995,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -15000,13 +15008,13 @@
       </c>
       <c r="K39" s="48"/>
       <c r="L39" s="54" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M39" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N39" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O39" s="54"/>
       <c r="P39" s="29"/>
@@ -15032,7 +15040,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -15041,11 +15049,11 @@
         <v>222</v>
       </c>
       <c r="J40" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K40" s="48"/>
       <c r="L40" s="54" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M40" s="51" t="s">
         <v>108</v>
@@ -15077,7 +15085,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -15090,7 +15098,7 @@
       </c>
       <c r="K41" s="48"/>
       <c r="L41" s="54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M41" s="51" t="s">
         <v>108</v>
@@ -15122,7 +15130,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -15131,11 +15139,11 @@
         <v>225</v>
       </c>
       <c r="J42" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K42" s="48"/>
       <c r="L42" s="54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M42" s="51" t="s">
         <v>108</v>
@@ -15167,20 +15175,20 @@
         <v>5</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="151" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J43" s="152" t="s">
         <v>166</v>
       </c>
       <c r="K43" s="48"/>
       <c r="L43" s="54" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M43" s="51" t="s">
         <v>108</v>
@@ -15212,7 +15220,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -15225,13 +15233,13 @@
       </c>
       <c r="K44" s="48"/>
       <c r="L44" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M44" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N44" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O44" s="54"/>
       <c r="P44" s="29"/>
@@ -15257,7 +15265,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -15266,7 +15274,7 @@
         <v>193</v>
       </c>
       <c r="J45" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="54" t="s">
@@ -15302,20 +15310,20 @@
         <v>5</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="151" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J46" s="152" t="s">
         <v>166</v>
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="54" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M46" s="51" t="s">
         <v>108</v>
@@ -15347,7 +15355,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -15356,11 +15364,11 @@
         <v>228</v>
       </c>
       <c r="J47" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K47" s="48"/>
       <c r="L47" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M47" s="51" t="s">
         <v>108</v>
@@ -15392,20 +15400,20 @@
         <v>5</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="151" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J48" s="152" t="s">
         <v>166</v>
       </c>
       <c r="K48" s="48"/>
       <c r="L48" s="54" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M48" s="51" t="s">
         <v>108</v>
@@ -15437,20 +15445,20 @@
         <v>5</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="151" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J49" s="152" t="s">
         <v>51</v>
       </c>
       <c r="K49" s="48"/>
       <c r="L49" s="54" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M49" s="51" t="s">
         <v>108</v>
@@ -15482,7 +15490,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -15491,7 +15499,7 @@
         <v>195</v>
       </c>
       <c r="J50" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K50" s="48"/>
       <c r="L50" s="54" t="s">
@@ -15527,20 +15535,20 @@
         <v>5</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="151" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J51" s="152" t="s">
         <v>166</v>
       </c>
       <c r="K51" s="48"/>
       <c r="L51" s="54" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M51" s="144" t="s">
         <v>54</v>
@@ -15570,7 +15578,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -15579,11 +15587,11 @@
         <v>232</v>
       </c>
       <c r="J52" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K52" s="48"/>
       <c r="L52" s="54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M52" s="51" t="s">
         <v>108</v>
@@ -15615,20 +15623,20 @@
         <v>3</v>
       </c>
       <c r="E53" s="157" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F53" s="154"/>
       <c r="G53" s="154"/>
       <c r="H53" s="154"/>
       <c r="I53" s="158" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J53" s="159" t="s">
         <v>166</v>
       </c>
       <c r="K53" s="154"/>
       <c r="L53" s="160" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M53" s="162"/>
       <c r="N53" s="161"/>
@@ -15654,20 +15662,20 @@
         <v>5</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="151" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J54" s="152" t="s">
         <v>51</v>
       </c>
       <c r="K54" s="48"/>
       <c r="L54" s="54" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M54" s="51" t="s">
         <v>108</v>
@@ -15699,16 +15707,16 @@
         <v>3</v>
       </c>
       <c r="E55" s="157" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I55" s="158" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J55" s="159" t="s">
         <v>166</v>
       </c>
       <c r="L55" s="153" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N55" s="164"/>
       <c r="V55" s="165"/>
@@ -15729,16 +15737,16 @@
         <v>5</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I56" s="151" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J56" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L56" s="54" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M56" s="51" t="s">
         <v>108</v>
@@ -15758,22 +15766,22 @@
         <v>5</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I57" s="151" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J57" s="152" t="s">
         <v>166</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M57" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N57" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15787,16 +15795,16 @@
         <v>5</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I58" s="151" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J58" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L58" s="54" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M58" s="51" t="s">
         <v>108</v>
@@ -15842,22 +15850,22 @@
         <v>5</v>
       </c>
       <c r="E60" s="51" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I60" s="151" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J60" s="152" t="s">
         <v>166</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M60" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N60" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15871,16 +15879,16 @@
         <v>5</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I61" s="151" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J61" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L61" s="54" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M61" s="51" t="s">
         <v>108</v>
@@ -15900,16 +15908,16 @@
         <v>5</v>
       </c>
       <c r="E62" s="51" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I62" s="151" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J62" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L62" s="54" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M62" s="144" t="s">
         <v>54</v>
@@ -15926,7 +15934,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I63" s="151" t="s">
         <v>374</v>
@@ -15935,7 +15943,7 @@
         <v>51</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M63" s="51" t="s">
         <v>108</v>
@@ -15955,16 +15963,16 @@
         <v>3</v>
       </c>
       <c r="E64" s="157" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I64" s="158" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J64" s="159" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L64" s="160" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N64" s="164"/>
       <c r="V64" s="165"/>
@@ -15985,22 +15993,22 @@
         <v>5</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I65" s="151" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J65" s="152" t="s">
         <v>166</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M65" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N65" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16014,16 +16022,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I66" s="151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J66" s="152" t="s">
         <v>166</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M66" s="144" t="s">
         <v>54</v>
@@ -16041,16 +16049,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="157" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I67" s="158" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J67" s="159" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L67" s="153" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N67" s="164"/>
       <c r="V67" s="165"/>
@@ -16071,22 +16079,22 @@
         <v>5</v>
       </c>
       <c r="E68" s="51" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I68" s="151" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J68" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N68" s="69" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16100,16 +16108,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="51" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I69" s="151" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J69" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M69" s="51" t="s">
         <v>328</v>
@@ -16126,16 +16134,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="51" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I70" s="151" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J70" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M70" s="51" t="s">
         <v>328</v>
@@ -16152,16 +16160,16 @@
         <v>5</v>
       </c>
       <c r="E71" s="51" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I71" s="151" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J71" s="152" t="s">
         <v>51</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M71" s="51" t="s">
         <v>108</v>
@@ -16181,22 +16189,22 @@
         <v>5</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I72" s="151" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J72" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M72" s="51" t="s">
         <v>328</v>
       </c>
       <c r="N72" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16210,7 +16218,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="51" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I73" s="151" t="s">
         <v>260</v>
@@ -16239,16 +16247,16 @@
         <v>5</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I74" s="151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J74" s="152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M74" s="144" t="s">
         <v>54</v>
@@ -16265,7 +16273,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="51" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I75" s="151" t="s">
         <v>397</v>
@@ -16274,7 +16282,7 @@
         <v>51</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>560</v>
+        <v>399</v>
       </c>
       <c r="M75" s="51" t="s">
         <v>108</v>
@@ -16309,7 +16317,7 @@
         <v>328</v>
       </c>
       <c r="N76" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16326,7 +16334,7 @@
         <v>563</v>
       </c>
       <c r="I77" s="151" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J77" s="152" t="s">
         <v>51</v>
@@ -16338,7 +16346,7 @@
         <v>328</v>
       </c>
       <c r="N77" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16367,7 +16375,7 @@
         <v>328</v>
       </c>
       <c r="N78" s="144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" s="166" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16504,10 +16512,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N34 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -16640,15 +16648,15 @@
   </sheetPr>
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="N25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="L47" activeCellId="0" sqref="L47"/>
+      <selection pane="bottomRight" activeCell="L47" activeCellId="1" sqref="N34 L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -18945,10 +18953,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N22" activeCellId="0" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="N22" activeCellId="1" sqref="N34 N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -20279,10 +20287,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="E44" activeCellId="0" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="E44" activeCellId="1" sqref="N34 E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.01"/>
@@ -22664,10 +22672,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="1" sqref="N34 F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
@@ -24013,7 +24021,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E18" activeCellId="1" sqref="N34 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26152,7 +26160,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="L13" activeCellId="1" sqref="N34 L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27401,7 +27409,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="L12" activeCellId="1" sqref="N34 L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28652,7 +28660,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="E41" activeCellId="1" sqref="N34 E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
